--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -109,10 +109,10 @@
     <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
-    <t>FK Csikszereda Miercurea Ciuc</t>
+    <t>CSC Dumbravita</t>
   </si>
   <si>
-    <t>CSC Dumbravita</t>
+    <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
     <t>FC Ripensia Timisoara</t>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5350859</v>
+        <v>5350860</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -842,70 +842,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
         <v>1.975</v>
       </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350860</v>
+        <v>5350859</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -931,70 +931,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N5">
+        <v>1.3</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>-1.5</v>
+      </c>
+      <c r="R5">
+        <v>1.975</v>
+      </c>
+      <c r="S5">
+        <v>1.825</v>
+      </c>
+      <c r="T5">
         <v>2.5</v>
       </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>2.7</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.8</v>
-      </c>
       <c r="W5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.825</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1465,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2530,7 +2530,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -3141,7 +3141,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6399053</v>
+        <v>6399069</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3153,58 +3153,58 @@
         <v>45003.25</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
+        <v>1.95</v>
+      </c>
+      <c r="V30">
         <v>1.85</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
       <c r="W30">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3213,16 +3213,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.95</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3230,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6398453</v>
+        <v>6399061</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3242,73 +3242,73 @@
         <v>45003.25</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O31">
         <v>3.1</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>0.909</v>
       </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3408,7 +3408,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6399061</v>
+        <v>6399053</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3420,46 +3420,46 @@
         <v>45003.25</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33">
+        <v>1.666</v>
+      </c>
+      <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
         <v>4.5</v>
       </c>
-      <c r="L33">
-        <v>3.2</v>
-      </c>
-      <c r="M33">
-        <v>1.727</v>
-      </c>
       <c r="N33">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>2</v>
@@ -3471,25 +3471,25 @@
         <v>1.9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6399069</v>
+        <v>6398453</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3509,13 +3509,13 @@
         <v>45003.25</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3524,43 +3524,43 @@
         <v>57</v>
       </c>
       <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3.1</v>
+      </c>
+      <c r="M34">
+        <v>3.4</v>
+      </c>
+      <c r="N34">
         <v>1.909</v>
       </c>
-      <c r="L34">
-        <v>3.25</v>
-      </c>
-      <c r="M34">
-        <v>3.5</v>
-      </c>
-      <c r="N34">
-        <v>1.45</v>
-      </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
         <v>1.85</v>
       </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3569,13 +3569,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4043,7 +4043,7 @@
         <v>45017.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4313,7 +4313,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4577,7 +4577,7 @@
         <v>45024.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4936,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5381,7 +5381,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6399058</v>
+        <v>6399063</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6179,76 +6179,76 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>3.75</v>
+      </c>
+      <c r="P64">
         <v>1.5</v>
       </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>6</v>
-      </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>0.5</v>
       </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6256,7 +6256,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6399063</v>
+        <v>6398444</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6268,76 +6268,76 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>56</v>
+      </c>
+      <c r="K65">
+        <v>2.2</v>
+      </c>
+      <c r="L65">
         <v>3</v>
       </c>
-      <c r="J65" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65">
-        <v>3.8</v>
-      </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6345,7 +6345,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6398444</v>
+        <v>6399058</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6357,40 +6357,40 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
         <v>2</v>
@@ -6402,31 +6402,31 @@
         <v>2.25</v>
       </c>
       <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
         <v>1.8</v>
       </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X66">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
+        <v>-0</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.8</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6446,7 +6446,7 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>40</v>
@@ -6701,7 +6701,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6399075</v>
+        <v>6398445</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6713,73 +6713,73 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L70">
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P70">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X70">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6790,7 +6790,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6398445</v>
+        <v>6399075</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6802,73 +6802,73 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
         <v>3.1</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6879,7 +6879,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6398450</v>
+        <v>6399060</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6891,58 +6891,58 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>57</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N72">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6951,16 +6951,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6968,7 +6968,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6399060</v>
+        <v>6398456</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6980,76 +6980,76 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7057,7 +7057,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6398456</v>
+        <v>6398450</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7069,76 +7069,76 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K74">
+        <v>2.25</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>2.9</v>
+      </c>
+      <c r="N74">
+        <v>1.666</v>
+      </c>
+      <c r="O74">
+        <v>3.5</v>
+      </c>
+      <c r="P74">
+        <v>4.333</v>
+      </c>
+      <c r="Q74">
+        <v>-0.75</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>2.75</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
         <v>1.8</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>3.75</v>
-      </c>
-      <c r="N74">
-        <v>2.05</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -9116,7 +9116,7 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9905,7 +9905,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950162</v>
+        <v>6949942</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9917,76 +9917,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K106">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
         <v>3.1</v>
       </c>
       <c r="M106">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O106">
         <v>3.1</v>
       </c>
       <c r="P106">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
         <v>1.775</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="T106">
-        <v>2.5</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X106">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
         <v>-0</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
-      <c r="AC106">
-        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10006,7 +10006,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10083,7 +10083,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6949942</v>
+        <v>6950162</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10095,76 +10095,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10632,7 +10632,7 @@
         <v>48</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11519,7 +11519,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>48</v>
@@ -11608,7 +11608,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>40</v>
@@ -12130,7 +12130,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12142,76 +12142,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12219,7 +12219,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12231,76 +12231,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K132">
+        <v>1.571</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
         <v>5.5</v>
       </c>
-      <c r="L132">
-        <v>3.5</v>
-      </c>
-      <c r="M132">
-        <v>1.533</v>
-      </c>
       <c r="N132">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O132">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q132">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y132">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12323,7 +12323,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12397,7 +12397,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950184</v>
+        <v>6950191</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12409,76 +12409,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K134">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O134">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12486,7 +12486,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950191</v>
+        <v>6950184</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12498,76 +12498,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K135">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <v>1.333</v>
+      </c>
+      <c r="O135">
+        <v>4.75</v>
+      </c>
+      <c r="P135">
+        <v>6.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.8</v>
+      </c>
+      <c r="T135">
         <v>2.75</v>
       </c>
-      <c r="N135">
-        <v>2.875</v>
-      </c>
-      <c r="O135">
-        <v>3</v>
-      </c>
-      <c r="P135">
-        <v>2.3</v>
-      </c>
-      <c r="Q135">
-        <v>0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.75</v>
-      </c>
-      <c r="S135">
-        <v>2.05</v>
-      </c>
-      <c r="T135">
-        <v>1.75</v>
-      </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y135">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12753,7 +12753,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6950188</v>
+        <v>6950186</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12765,10 +12765,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12783,37 +12783,37 @@
         <v>2</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12822,19 +12822,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13020,7 +13020,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6950186</v>
+        <v>6950188</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13032,10 +13032,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13050,37 +13050,37 @@
         <v>2</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O141">
+        <v>3</v>
+      </c>
+      <c r="P141">
         <v>3.6</v>
       </c>
-      <c r="P141">
-        <v>4.5</v>
-      </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13089,19 +13089,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13213,7 +13213,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950195</v>
+        <v>6950197</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13388,13 +13388,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13403,25 +13403,25 @@
         <v>57</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.95</v>
@@ -13430,16 +13430,16 @@
         <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13448,16 +13448,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13465,7 +13465,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950198</v>
+        <v>6950195</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13477,58 +13477,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
+        <v>1.8</v>
+      </c>
+      <c r="L146">
+        <v>3.25</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>1.533</v>
+      </c>
+      <c r="O146">
+        <v>3.4</v>
+      </c>
+      <c r="P146">
+        <v>5.75</v>
+      </c>
+      <c r="Q146">
+        <v>-1</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.85</v>
-      </c>
-      <c r="L146">
-        <v>3.2</v>
-      </c>
-      <c r="M146">
-        <v>3.75</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
-      <c r="P146">
-        <v>3</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
-      <c r="R146">
-        <v>1.975</v>
-      </c>
-      <c r="S146">
-        <v>1.825</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13537,16 +13537,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13566,7 +13566,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>51</v>
@@ -13643,7 +13643,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950194</v>
+        <v>6950198</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13655,76 +13655,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
         <v>3</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q148">
         <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X148">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13732,7 +13732,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6950197</v>
+        <v>6950194</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13744,76 +13744,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K149">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
         <v>3.2</v>
       </c>
-      <c r="M149">
-        <v>3.8</v>
-      </c>
       <c r="N149">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O149">
+        <v>3</v>
+      </c>
+      <c r="P149">
         <v>3.2</v>
       </c>
-      <c r="P149">
-        <v>3.75</v>
-      </c>
       <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>-0.5</v>
       </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
-      <c r="V149">
-        <v>1.85</v>
-      </c>
-      <c r="W149">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>0.95</v>
-      </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14266,7 +14266,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950323</v>
+        <v>6950205</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14278,58 +14278,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>57</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N155">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O155">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14338,13 +14338,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14355,7 +14355,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950209</v>
+        <v>6950207</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14367,73 +14367,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L156">
         <v>2.875</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N156">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P156">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14444,7 +14444,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6950207</v>
+        <v>6950206</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14456,40 +14456,40 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G157" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>57</v>
       </c>
       <c r="K157">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M157">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
         <v>1.85</v>
@@ -14498,16 +14498,16 @@
         <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14522,10 +14522,10 @@
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14533,7 +14533,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6950205</v>
+        <v>6950204</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14545,13 +14545,13 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -14560,43 +14560,43 @@
         <v>57</v>
       </c>
       <c r="K158">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
+        <v>1.875</v>
+      </c>
+      <c r="S158">
+        <v>1.925</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.9</v>
       </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.925</v>
-      </c>
-      <c r="V158">
-        <v>1.875</v>
-      </c>
       <c r="W158">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14605,13 +14605,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.875</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14622,7 +14622,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6950206</v>
+        <v>6950209</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14634,76 +14634,76 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M159">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O159">
         <v>3.1</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14711,7 +14711,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6950204</v>
+        <v>6950323</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14723,58 +14723,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G160" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>57</v>
       </c>
       <c r="K160">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O160">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P160">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>2.8</v>
+        <v>0.571</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14783,13 +14783,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15156,7 +15156,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6950211</v>
+        <v>6950220</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15168,76 +15168,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K165">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
         <v>1.975</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="T165">
-        <v>2</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
-      <c r="V165">
-        <v>1.85</v>
-      </c>
       <c r="W165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6950218</v>
+        <v>6950211</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15257,40 +15257,40 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K166">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N166">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
         <v>1.975</v>
@@ -15299,34 +15299,34 @@
         <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15334,7 +15334,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6950216</v>
+        <v>6950218</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15346,76 +15346,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L167">
+        <v>3.2</v>
+      </c>
+      <c r="M167">
+        <v>2.3</v>
+      </c>
+      <c r="N167">
         <v>3.1</v>
       </c>
-      <c r="M167">
-        <v>3</v>
-      </c>
-      <c r="N167">
-        <v>2.55</v>
-      </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P167">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC167">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15423,7 +15423,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6950220</v>
+        <v>6950216</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15435,10 +15435,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15450,61 +15450,61 @@
         <v>56</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
         <v>3.1</v>
       </c>
       <c r="M168">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>1.9</v>
+      </c>
+      <c r="S168">
+        <v>1.9</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
+        <v>1.95</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>2.1</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>-0</v>
+      </c>
+      <c r="AB168">
         <v>-0.5</v>
       </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
-      <c r="S168">
-        <v>1.95</v>
-      </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.975</v>
-      </c>
-      <c r="V168">
-        <v>1.825</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
-      <c r="X168">
-        <v>2.2</v>
-      </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
-      <c r="AA168">
-        <v>0.95</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15524,7 +15524,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>52</v>
@@ -16046,7 +16046,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950325</v>
+        <v>6950221</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16058,76 +16058,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K175">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="L175">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="N175">
-        <v>1.166</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="Q175">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16135,7 +16135,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6950225</v>
+        <v>6950224</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16147,7 +16147,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16156,67 +16156,67 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K176">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M176">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P176">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
         <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y176">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16224,7 +16224,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6950221</v>
+        <v>6950222</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16236,73 +16236,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L177">
         <v>3.3</v>
       </c>
       <c r="M177">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16313,7 +16313,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6950224</v>
+        <v>6950225</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16325,7 +16325,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>31</v>
@@ -16334,67 +16334,67 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K178">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16402,7 +16402,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6950222</v>
+        <v>6950325</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16414,58 +16414,58 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>57</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N179">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P179">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.775</v>
       </c>
-      <c r="S179">
-        <v>2.025</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16474,16 +16474,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16948,7 +16948,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>54</v>
@@ -17126,7 +17126,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>43</v>
@@ -17826,7 +17826,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6950241</v>
+        <v>6950244</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17838,76 +17838,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K195">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L195">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M195">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17930,7 +17930,7 @@
         <v>54</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18004,7 +18004,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6950242</v>
+        <v>6950241</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18016,76 +18016,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K197">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="L197">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N197">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P197">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z197">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18093,7 +18093,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6950244</v>
+        <v>6950242</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18105,10 +18105,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18120,43 +18120,43 @@
         <v>57</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
+        <v>5.25</v>
+      </c>
+      <c r="N198">
+        <v>1.571</v>
+      </c>
+      <c r="O198">
         <v>3.6</v>
       </c>
-      <c r="N198">
-        <v>1.8</v>
-      </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
       <c r="P198">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
         <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.571</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18165,7 +18165,7 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA198">
         <v>-0.5</v>
@@ -18174,7 +18174,7 @@
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18182,7 +18182,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18194,76 +18194,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G199" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K199">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L199">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M199">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N199">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O199">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
         <v>1.95</v>
-      </c>
-      <c r="S199">
-        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
+        <v>-0.5</v>
+      </c>
+      <c r="AA199">
+        <v>0.475</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
         <v>0.95</v>
-      </c>
-      <c r="AA199">
-        <v>-1</v>
-      </c>
-      <c r="AB199">
-        <v>1</v>
-      </c>
-      <c r="AC199">
-        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18360,7 +18360,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6950239</v>
+        <v>6950240</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18372,76 +18372,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K201">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M201">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
         <v>1.85</v>
-      </c>
-      <c r="S201">
-        <v>1.95</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18805,7 +18805,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6950330</v>
+        <v>6950253</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18817,10 +18817,10 @@
         <v>45234.25</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18832,34 +18832,34 @@
         <v>56</v>
       </c>
       <c r="K206">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="L206">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N206">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O206">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q206">
         <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
         <v>1.875</v>
@@ -18871,13 +18871,13 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA206">
         <v>-1</v>
@@ -18894,7 +18894,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6950251</v>
+        <v>6950330</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18906,76 +18906,76 @@
         <v>45234.25</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>56</v>
+      </c>
+      <c r="K207">
+        <v>2.8</v>
+      </c>
+      <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>2.3</v>
+      </c>
+      <c r="N207">
         <v>4</v>
       </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207" t="s">
-        <v>57</v>
-      </c>
-      <c r="K207">
-        <v>1.571</v>
-      </c>
-      <c r="L207">
-        <v>3.6</v>
-      </c>
-      <c r="M207">
-        <v>5</v>
-      </c>
-      <c r="N207">
-        <v>1.571</v>
-      </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P207">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
+        <v>1.925</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>2.25</v>
       </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>0.571</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18983,7 +18983,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6950253</v>
+        <v>6950251</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18995,40 +18995,40 @@
         <v>45234.25</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K208">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N208">
+        <v>1.571</v>
+      </c>
+      <c r="O208">
         <v>3.4</v>
       </c>
-      <c r="O208">
-        <v>3.3</v>
-      </c>
       <c r="P208">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q208">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
         <v>1.8</v>
@@ -19040,16 +19040,16 @@
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
@@ -19061,10 +19061,10 @@
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19262,7 +19262,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>42</v>
@@ -19710,7 +19710,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -20244,7 +20244,7 @@
         <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20419,7 +20419,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
         <v>29</v>
@@ -20585,7 +20585,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6950264</v>
+        <v>6950266</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20597,58 +20597,58 @@
         <v>45255.25</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>57</v>
       </c>
       <c r="K226">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M226">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N226">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O226">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20657,16 +20657,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20674,7 +20674,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6950266</v>
+        <v>6950264</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20686,58 +20686,58 @@
         <v>45255.25</v>
       </c>
       <c r="F227" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G227" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>57</v>
       </c>
       <c r="K227">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M227">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O227">
+        <v>3</v>
+      </c>
+      <c r="P227">
         <v>3.5</v>
       </c>
-      <c r="P227">
-        <v>4.75</v>
-      </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20746,16 +20746,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21401,7 +21401,7 @@
         <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21490,7 +21490,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21564,7 +21564,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6950273</v>
+        <v>6950274</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21576,76 +21576,76 @@
         <v>45262.25</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K237">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N237">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21653,7 +21653,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6950274</v>
+        <v>6950275</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21665,10 +21665,10 @@
         <v>45262.25</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G238" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21680,40 +21680,40 @@
         <v>58</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M238">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P238">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q238">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21722,19 +21722,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21742,7 +21742,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6950275</v>
+        <v>6950334</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21754,76 +21754,76 @@
         <v>45262.25</v>
       </c>
       <c r="F239" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K239">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="L239">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M239">
+        <v>7.5</v>
+      </c>
+      <c r="N239">
+        <v>1.25</v>
+      </c>
+      <c r="O239">
+        <v>4.5</v>
+      </c>
+      <c r="P239">
+        <v>9.5</v>
+      </c>
+      <c r="Q239">
+        <v>-1.5</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.825</v>
+      </c>
+      <c r="T239">
         <v>2.5</v>
       </c>
-      <c r="N239">
-        <v>2.625</v>
-      </c>
-      <c r="O239">
-        <v>2.875</v>
-      </c>
-      <c r="P239">
-        <v>2.625</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
-      <c r="T239">
-        <v>2.25</v>
-      </c>
       <c r="U239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21831,7 +21831,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6950334</v>
+        <v>6950273</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21843,61 +21843,61 @@
         <v>45262.25</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K240">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N240">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
         <v>4.5</v>
       </c>
-      <c r="P240">
-        <v>9.5</v>
-      </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y240">
         <v>-1</v>
@@ -21906,13 +21906,13 @@
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -109,10 +109,10 @@
     <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
-    <t>CSC Dumbravita</t>
+    <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
-    <t>FK Csikszereda Miercurea Ciuc</t>
+    <t>CSC Dumbravita</t>
   </si>
   <si>
     <t>FC Ripensia Timisoara</t>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5350860</v>
+        <v>5350859</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -842,70 +842,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N4">
+        <v>1.3</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>-1.5</v>
+      </c>
+      <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
+        <v>1.825</v>
+      </c>
+      <c r="T4">
         <v>2.5</v>
       </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.8</v>
-      </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
         <v>0.825</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350859</v>
+        <v>5350860</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -931,70 +931,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
         <v>1.975</v>
       </c>
-      <c r="S5">
-        <v>1.825</v>
-      </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X5">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1465,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2530,7 +2530,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -3408,7 +3408,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6399053</v>
+        <v>6398453</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3420,40 +3420,40 @@
         <v>45003.25</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>57</v>
       </c>
       <c r="K33">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>4.5</v>
-      </c>
       <c r="N33">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
         <v>1.95</v>
@@ -3462,16 +3462,16 @@
         <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3486,10 +3486,10 @@
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6398453</v>
+        <v>6399053</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3509,40 +3509,40 @@
         <v>45003.25</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>57</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
+        <v>4.5</v>
+      </c>
+      <c r="N34">
+        <v>1.666</v>
+      </c>
+      <c r="O34">
         <v>3.4</v>
       </c>
-      <c r="N34">
-        <v>1.909</v>
-      </c>
-      <c r="O34">
-        <v>3.1</v>
-      </c>
       <c r="P34">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
         <v>1.95</v>
@@ -3551,16 +3551,16 @@
         <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3575,10 +3575,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4031,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6398447</v>
+        <v>6399070</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4043,76 +4043,76 @@
         <v>45017.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>1.025</v>
+      </c>
+      <c r="AB40">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
       <c r="AC40">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4120,7 +4120,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6398454</v>
+        <v>6398447</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4132,76 +4132,76 @@
         <v>45017.20833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X41">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4209,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6399070</v>
+        <v>6398454</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4221,76 +4221,76 @@
         <v>45017.20833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
         <v>3.1</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>3.2</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2.1</v>
-      </c>
-      <c r="N42">
-        <v>3.5</v>
       </c>
       <c r="O42">
         <v>3.2</v>
       </c>
       <c r="P42">
+        <v>3.1</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.775</v>
-      </c>
-      <c r="S42">
-        <v>2.025</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4313,7 +4313,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4577,7 +4577,7 @@
         <v>45024.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4936,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5381,7 +5381,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6398444</v>
+        <v>6398449</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6268,76 +6268,76 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>3</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q65">
         <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6434,7 +6434,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6398449</v>
+        <v>6398444</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6446,76 +6446,76 @@
         <v>45038.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
         <v>3</v>
       </c>
       <c r="M67">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
         <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6701,7 +6701,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6398445</v>
+        <v>6399075</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6713,73 +6713,73 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.1</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O70">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6790,7 +6790,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6399075</v>
+        <v>6398445</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6802,73 +6802,73 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L71">
         <v>3.1</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X71">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6879,7 +6879,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6399060</v>
+        <v>6398450</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6891,58 +6891,58 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>57</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6951,16 +6951,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6968,7 +6968,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6398456</v>
+        <v>6399060</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6980,76 +6980,76 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7057,7 +7057,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6398450</v>
+        <v>6398456</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7069,76 +7069,76 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74">
+        <v>1.8</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3.75</v>
+      </c>
+      <c r="N74">
+        <v>2.05</v>
+      </c>
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K74">
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
         <v>2.25</v>
       </c>
-      <c r="L74">
-        <v>3.1</v>
-      </c>
-      <c r="M74">
-        <v>2.9</v>
-      </c>
-      <c r="N74">
-        <v>1.666</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>4.333</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -9116,7 +9116,7 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9193,7 +9193,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6950151</v>
+        <v>6950152</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9205,55 +9205,55 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>58</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P98">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9262,19 +9262,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9282,7 +9282,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6950152</v>
+        <v>6950151</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9294,55 +9294,55 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>58</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9351,19 +9351,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10006,7 +10006,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10095,7 +10095,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>50</v>
@@ -10632,7 +10632,7 @@
         <v>48</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10706,7 +10706,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6950171</v>
+        <v>6950167</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10718,76 +10718,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N115">
+        <v>2.625</v>
+      </c>
+      <c r="O115">
+        <v>3.1</v>
+      </c>
+      <c r="P115">
+        <v>2.45</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
         <v>2.05</v>
       </c>
-      <c r="O115">
-        <v>3</v>
-      </c>
-      <c r="P115">
-        <v>3.3</v>
-      </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.85</v>
-      </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.75</v>
+      </c>
+      <c r="AB115">
         <v>-0.5</v>
       </c>
-      <c r="AA115">
-        <v>0.475</v>
-      </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10795,7 +10795,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950167</v>
+        <v>6950171</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10807,76 +10807,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10988,7 +10988,7 @@
         <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11062,7 +11062,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6950169</v>
+        <v>6950168</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11074,10 +11074,10 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11089,61 +11089,61 @@
         <v>56</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="P119">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
         <v>1.8</v>
       </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11151,7 +11151,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6950168</v>
+        <v>6950169</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11163,10 +11163,10 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11178,61 +11178,61 @@
         <v>56</v>
       </c>
       <c r="K120">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11519,7 +11519,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>48</v>
@@ -11608,7 +11608,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>40</v>
@@ -11863,7 +11863,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950176</v>
+        <v>6950179</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11875,55 +11875,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>58</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O128">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11932,19 +11932,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11952,7 +11952,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6950179</v>
+        <v>6950176</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11964,55 +11964,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>58</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
         <v>3</v>
       </c>
       <c r="M129">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12021,19 +12021,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12130,7 +12130,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12142,76 +12142,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K131">
+        <v>1.571</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
         <v>5.5</v>
       </c>
-      <c r="L131">
-        <v>3.5</v>
-      </c>
-      <c r="M131">
-        <v>1.533</v>
-      </c>
       <c r="N131">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y131">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12219,7 +12219,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12231,76 +12231,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N132">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P132">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12323,7 +12323,7 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12753,7 +12753,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6950186</v>
+        <v>6950188</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12765,10 +12765,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12783,37 +12783,37 @@
         <v>2</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O138">
+        <v>3</v>
+      </c>
+      <c r="P138">
         <v>3.6</v>
       </c>
-      <c r="P138">
-        <v>4.5</v>
-      </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12822,19 +12822,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13020,7 +13020,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6950188</v>
+        <v>6950186</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13032,10 +13032,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13050,37 +13050,37 @@
         <v>2</v>
       </c>
       <c r="L141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13089,19 +13089,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13213,7 +13213,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950197</v>
+        <v>6950195</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13388,13 +13388,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13403,25 +13403,25 @@
         <v>57</v>
       </c>
       <c r="K145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.95</v>
@@ -13430,16 +13430,16 @@
         <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
-        <v>0.8500000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13448,16 +13448,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13465,7 +13465,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950195</v>
+        <v>6950198</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13477,58 +13477,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>57</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13537,16 +13537,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13566,7 +13566,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>51</v>
@@ -13643,7 +13643,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950198</v>
+        <v>6950194</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13655,76 +13655,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K148">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
         <v>3.2</v>
       </c>
-      <c r="M148">
-        <v>3.75</v>
-      </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O148">
         <v>3</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
         <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13732,7 +13732,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6950194</v>
+        <v>6950197</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13744,76 +13744,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K149">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
+        <v>3.8</v>
+      </c>
+      <c r="N149">
+        <v>1.85</v>
+      </c>
+      <c r="O149">
         <v>3.2</v>
       </c>
-      <c r="N149">
-        <v>2.15</v>
-      </c>
-      <c r="O149">
-        <v>3</v>
-      </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X149">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>0.95</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>-0.5</v>
       </c>
-      <c r="AA149">
-        <v>0.4375</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14266,7 +14266,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950205</v>
+        <v>6950323</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14278,58 +14278,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>57</v>
       </c>
       <c r="K155">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P155">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14338,13 +14338,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14355,7 +14355,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950207</v>
+        <v>6950209</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14367,73 +14367,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G156" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K156">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
         <v>2.875</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P156">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14459,7 +14459,7 @@
         <v>49</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6950204</v>
+        <v>6950207</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14545,10 +14545,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14560,31 +14560,31 @@
         <v>57</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M158">
+        <v>2.5</v>
+      </c>
+      <c r="N158">
         <v>2.1</v>
       </c>
-      <c r="N158">
-        <v>3.8</v>
-      </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
         <v>2.25</v>
@@ -14596,7 +14596,7 @@
         <v>1.9</v>
       </c>
       <c r="W158">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14605,7 +14605,7 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
@@ -14622,7 +14622,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6950209</v>
+        <v>6950205</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14634,73 +14634,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G159" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K159">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L159">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N159">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O159">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P159">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14711,7 +14711,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6950323</v>
+        <v>6950204</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14723,58 +14723,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>57</v>
       </c>
       <c r="K160">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N160">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.571</v>
+        <v>2.8</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14783,13 +14783,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15156,7 +15156,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6950220</v>
+        <v>6950211</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15168,76 +15168,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M165">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>1.85</v>
+      </c>
+      <c r="W165">
+        <v>0.7</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.4875</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.85</v>
-      </c>
-      <c r="S165">
-        <v>1.95</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.975</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
-      <c r="W165">
-        <v>-1</v>
-      </c>
-      <c r="X165">
-        <v>2.2</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>-1</v>
-      </c>
-      <c r="AA165">
-        <v>0.95</v>
-      </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6950211</v>
+        <v>6950218</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15257,40 +15257,40 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
         <v>1.975</v>
@@ -15299,34 +15299,34 @@
         <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15334,7 +15334,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6950218</v>
+        <v>6950220</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15346,76 +15346,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
         <v>3.2</v>
       </c>
-      <c r="M167">
-        <v>2.3</v>
-      </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
         <v>1.825</v>
       </c>
-      <c r="V167">
-        <v>1.975</v>
-      </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
+        <v>0.95</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.825</v>
-      </c>
-      <c r="AB167">
-        <v>0.825</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15435,7 +15435,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>35</v>
@@ -15524,7 +15524,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>52</v>
@@ -16046,7 +16046,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950221</v>
+        <v>6950225</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16058,76 +16058,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L175">
         <v>3.3</v>
       </c>
       <c r="M175">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16135,7 +16135,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6950224</v>
+        <v>6950221</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16147,46 +16147,46 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>56</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N176">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O176">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
         <v>2.25</v>
@@ -16201,22 +16201,22 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16224,7 +16224,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6950222</v>
+        <v>6950224</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16236,76 +16236,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K177">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16313,7 +16313,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6950225</v>
+        <v>6950325</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16325,76 +16325,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N178">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P178">
-        <v>2.75</v>
+        <v>13</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
+        <v>1.85</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
         <v>2.025</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.775</v>
       </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16402,7 +16402,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6950325</v>
+        <v>6950222</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16414,58 +16414,58 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>57</v>
       </c>
       <c r="K179">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N179">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O179">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16474,16 +16474,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16936,7 +16936,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6950232</v>
+        <v>6950234</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16948,46 +16948,46 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N185">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
         <v>2.25</v>
@@ -16999,25 +16999,25 @@
         <v>2.025</v>
       </c>
       <c r="W185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17025,7 +17025,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6950234</v>
+        <v>6950232</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17037,46 +17037,46 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N186">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
         <v>2.25</v>
@@ -17088,25 +17088,25 @@
         <v>2.025</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
+        <v>0.825</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
         <v>-0.5</v>
       </c>
-      <c r="AA186">
-        <v>0.45</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17126,7 +17126,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>43</v>
@@ -17826,7 +17826,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6950244</v>
+        <v>6950241</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17838,76 +17838,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L195">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M195">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N195">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17930,7 +17930,7 @@
         <v>54</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18004,7 +18004,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6950241</v>
+        <v>6950242</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18016,76 +18016,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K197">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O197">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18093,7 +18093,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6950242</v>
+        <v>6950244</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18105,10 +18105,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18120,43 +18120,43 @@
         <v>57</v>
       </c>
       <c r="K198">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N198">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
         <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18165,7 +18165,7 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA198">
         <v>-0.5</v>
@@ -18174,7 +18174,7 @@
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18182,7 +18182,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6950239</v>
+        <v>6950240</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18194,76 +18194,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K199">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M199">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P199">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
         <v>1.85</v>
-      </c>
-      <c r="S199">
-        <v>1.95</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA199">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18360,7 +18360,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18372,76 +18372,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K201">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L201">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N201">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
         <v>1.95</v>
-      </c>
-      <c r="S201">
-        <v>1.85</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
+        <v>-0.5</v>
+      </c>
+      <c r="AA201">
+        <v>0.475</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.95</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>1</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18805,7 +18805,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6950253</v>
+        <v>6950330</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18817,10 +18817,10 @@
         <v>45234.25</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18832,34 +18832,34 @@
         <v>56</v>
       </c>
       <c r="K206">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N206">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q206">
         <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
         <v>1.875</v>
@@ -18871,13 +18871,13 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
         <v>-1</v>
@@ -18894,7 +18894,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6950330</v>
+        <v>6950253</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18906,10 +18906,10 @@
         <v>45234.25</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18921,34 +18921,34 @@
         <v>56</v>
       </c>
       <c r="K207">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O207">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q207">
         <v>0.5</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
         <v>1.875</v>
@@ -18960,13 +18960,13 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA207">
         <v>-1</v>
@@ -19262,7 +19262,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
         <v>42</v>
@@ -19710,7 +19710,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H216">
         <v>3</v>
@@ -19873,7 +19873,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6950259</v>
+        <v>6950255</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19885,76 +19885,76 @@
         <v>45241.25</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L218">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N218">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="O218">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="Q218">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W218">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19962,7 +19962,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6950255</v>
+        <v>6950258</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19974,76 +19974,76 @@
         <v>45241.25</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K219">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M219">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N219">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="Q219">
         <v>0.75</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20140,7 +20140,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6950258</v>
+        <v>6950259</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20152,76 +20152,76 @@
         <v>45241.25</v>
       </c>
       <c r="F221" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K221">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="L221">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M221">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="N221">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P221">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20244,7 +20244,7 @@
         <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20419,7 +20419,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>29</v>
@@ -20585,7 +20585,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6950266</v>
+        <v>6950264</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20597,58 +20597,58 @@
         <v>45255.25</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>57</v>
       </c>
       <c r="K226">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N226">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O226">
+        <v>3</v>
+      </c>
+      <c r="P226">
         <v>3.5</v>
       </c>
-      <c r="P226">
-        <v>4.75</v>
-      </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20657,16 +20657,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20674,7 +20674,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6950264</v>
+        <v>6950268</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20686,34 +20686,34 @@
         <v>45255.25</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K227">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>4.333</v>
+      </c>
+      <c r="N227">
+        <v>1.95</v>
+      </c>
+      <c r="O227">
         <v>3.1</v>
-      </c>
-      <c r="M227">
-        <v>4</v>
-      </c>
-      <c r="N227">
-        <v>2</v>
-      </c>
-      <c r="O227">
-        <v>3</v>
       </c>
       <c r="P227">
         <v>3.5</v>
@@ -20722,40 +20722,40 @@
         <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z227">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20763,7 +20763,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6950268</v>
+        <v>6950266</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20775,76 +20775,76 @@
         <v>45255.25</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K228">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L228">
         <v>3.25</v>
       </c>
       <c r="M228">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N228">
+        <v>1.6</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
+        <v>4.75</v>
+      </c>
+      <c r="Q228">
+        <v>-0.75</v>
+      </c>
+      <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
         <v>1.95</v>
       </c>
-      <c r="O228">
-        <v>3.1</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
-      </c>
-      <c r="S228">
-        <v>1.8</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC228">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21401,7 +21401,7 @@
         <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21490,7 +21490,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21564,7 +21564,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6950274</v>
+        <v>6950273</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21576,76 +21576,76 @@
         <v>45262.25</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N237">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21653,7 +21653,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6950275</v>
+        <v>6950334</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21665,76 +21665,76 @@
         <v>45262.25</v>
       </c>
       <c r="F238" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K238">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="L238">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M238">
+        <v>7.5</v>
+      </c>
+      <c r="N238">
+        <v>1.25</v>
+      </c>
+      <c r="O238">
+        <v>4.5</v>
+      </c>
+      <c r="P238">
+        <v>9.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.5</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
         <v>2.5</v>
       </c>
-      <c r="N238">
-        <v>2.625</v>
-      </c>
-      <c r="O238">
-        <v>2.875</v>
-      </c>
-      <c r="P238">
-        <v>2.625</v>
-      </c>
-      <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238">
-        <v>1.9</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21742,7 +21742,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6950334</v>
+        <v>6950274</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21754,76 +21754,76 @@
         <v>45262.25</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K239">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="N239">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O239">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>9.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q239">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
+        <v>1.825</v>
+      </c>
+      <c r="S239">
         <v>1.975</v>
       </c>
-      <c r="S239">
-        <v>1.825</v>
-      </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21831,7 +21831,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6950273</v>
+        <v>6950275</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21843,40 +21843,40 @@
         <v>45262.25</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G240" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K240">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M240">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N240">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P240">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R240">
         <v>1.9</v>
@@ -21888,19 +21888,19 @@
         <v>2.25</v>
       </c>
       <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
         <v>1.8</v>
       </c>
-      <c r="V240">
-        <v>2</v>
-      </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z240">
         <v>-1</v>
@@ -21909,10 +21909,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
         <v>0.8</v>
-      </c>
-      <c r="AC240">
-        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -552,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2340,7 +2340,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6376200</v>
+        <v>6376199</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2352,73 +2352,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
+        <v>1.666</v>
+      </c>
+      <c r="N21">
+        <v>3.8</v>
+      </c>
+      <c r="O21">
         <v>3.5</v>
       </c>
-      <c r="N21">
-        <v>1.444</v>
-      </c>
-      <c r="O21">
-        <v>3.8</v>
-      </c>
       <c r="P21">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
         <v>2.025</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.775</v>
       </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.975</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2429,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6376199</v>
+        <v>6376196</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2441,73 +2441,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
         <v>3.5</v>
       </c>
-      <c r="M22">
-        <v>1.666</v>
-      </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>1.9</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
         <v>0.5</v>
       </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
-      <c r="V22">
-        <v>1.775</v>
-      </c>
-      <c r="W22">
-        <v>2.8</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2518,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6376196</v>
+        <v>6376197</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2530,49 +2530,49 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
         <v>1.825</v>
@@ -2584,22 +2584,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.925</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>-0.5</v>
       </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.825</v>
-      </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,7 +2607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6376197</v>
+        <v>6376201</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2619,10 +2619,10 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2634,19 +2634,19 @@
         <v>56</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N24">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
         <v>1.65</v>
@@ -2655,40 +2655,40 @@
         <v>0.75</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2696,7 +2696,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6376201</v>
+        <v>6376198</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2708,76 +2708,76 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2785,7 +2785,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6376198</v>
+        <v>6376202</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2797,49 +2797,49 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="N26">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
         <v>1.975</v>
@@ -2848,25 +2848,25 @@
         <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2874,7 +2874,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6376202</v>
+        <v>6376203</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2886,76 +2886,76 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L27">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M27">
         <v>7.5</v>
       </c>
       <c r="N27">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P27">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2963,7 +2963,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6376203</v>
+        <v>6376200</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2975,76 +2975,76 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4565,7 +4565,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6399055</v>
+        <v>6399062</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4577,76 +4577,76 @@
         <v>45024.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
+        <v>2.375</v>
+      </c>
+      <c r="L46">
+        <v>3.1</v>
+      </c>
+      <c r="M46">
+        <v>2.7</v>
+      </c>
+      <c r="N46">
+        <v>2.55</v>
+      </c>
+      <c r="O46">
+        <v>3.1</v>
+      </c>
+      <c r="P46">
+        <v>2.55</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>2.25</v>
       </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>3</v>
-      </c>
-      <c r="N46">
-        <v>2.05</v>
-      </c>
-      <c r="O46">
-        <v>2.9</v>
-      </c>
-      <c r="P46">
-        <v>3.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.25</v>
-      </c>
-      <c r="R46">
-        <v>1.8</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
       <c r="U46">
+        <v>1.825</v>
+      </c>
+      <c r="V46">
         <v>1.975</v>
       </c>
-      <c r="V46">
-        <v>1.825</v>
-      </c>
       <c r="W46">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6399062</v>
+        <v>6399055</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4666,76 +4666,76 @@
         <v>45024.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P47">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U47">
+        <v>1.975</v>
+      </c>
+      <c r="V47">
         <v>1.825</v>
       </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X47">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
         <v>-0</v>
-      </c>
-      <c r="AB47">
-        <v>-0.5</v>
-      </c>
-      <c r="AC47">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -8570,7 +8570,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6433699</v>
+        <v>6433700</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8582,49 +8582,49 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>57</v>
       </c>
       <c r="K91">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N91">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
         <v>1.75</v>
       </c>
-      <c r="S91">
-        <v>2.05</v>
-      </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U91">
         <v>1.95</v>
@@ -8633,7 +8633,7 @@
         <v>1.85</v>
       </c>
       <c r="W91">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8642,16 +8642,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8659,7 +8659,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6433698</v>
+        <v>6433699</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8671,58 +8671,58 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>4</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>57</v>
       </c>
       <c r="K92">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P92">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8731,13 +8731,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.75</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>0.95</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8748,7 +8748,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6433700</v>
+        <v>6433698</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8760,58 +8760,58 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>57</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="N93">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
         <v>3.5</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>0.5329999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8820,16 +8820,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9015,7 +9015,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6950156</v>
+        <v>6950152</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9027,40 +9027,40 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K96">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N96">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9069,34 +9069,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9104,7 +9104,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6950152</v>
+        <v>6950153</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9116,55 +9116,55 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>58</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
         <v>3.25</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9173,19 +9173,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9193,7 +9193,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6950153</v>
+        <v>6950155</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9205,56 +9205,56 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>58</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
         <v>3.2</v>
       </c>
       <c r="M98">
+        <v>2.4</v>
+      </c>
+      <c r="N98">
+        <v>2.6</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.4</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
         <v>2.5</v>
       </c>
-      <c r="N98">
-        <v>2.2</v>
-      </c>
-      <c r="O98">
-        <v>3.25</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2</v>
-      </c>
-      <c r="S98">
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
@@ -9262,19 +9262,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.825</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.8</v>
-      </c>
-      <c r="AB98">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9282,7 +9282,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6950155</v>
+        <v>6950156</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9294,40 +9294,40 @@
         <v>45143.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
         <v>1.975</v>
@@ -9339,31 +9339,31 @@
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11507,7 +11507,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950181</v>
+        <v>6950180</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11519,10 +11519,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11534,31 +11534,31 @@
         <v>56</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11573,16 +11573,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11685,7 +11685,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6950180</v>
+        <v>6950181</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11697,10 +11697,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11712,31 +11712,31 @@
         <v>56</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2.5</v>
@@ -11751,16 +11751,16 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -13376,7 +13376,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950202</v>
+        <v>6950194</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13388,76 +13388,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13465,7 +13465,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950194</v>
+        <v>6950202</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13477,76 +13477,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13643,7 +13643,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950197</v>
+        <v>6950201</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13655,76 +13655,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K148">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="L148">
         <v>3.2</v>
       </c>
       <c r="M148">
+        <v>1.85</v>
+      </c>
+      <c r="N148">
         <v>3.8</v>
-      </c>
-      <c r="N148">
-        <v>1.85</v>
       </c>
       <c r="O148">
         <v>3.2</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13732,7 +13732,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6950201</v>
+        <v>6950197</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13744,76 +13744,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K149">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="L149">
         <v>3.2</v>
       </c>
       <c r="M149">
+        <v>3.8</v>
+      </c>
+      <c r="N149">
         <v>1.85</v>
-      </c>
-      <c r="N149">
-        <v>3.8</v>
       </c>
       <c r="O149">
         <v>3.2</v>
       </c>
       <c r="P149">
+        <v>3.75</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>1.85</v>
       </c>
-      <c r="Q149">
-        <v>0.5</v>
-      </c>
-      <c r="R149">
-        <v>1.875</v>
-      </c>
-      <c r="S149">
-        <v>1.925</v>
-      </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14266,7 +14266,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950207</v>
+        <v>6950209</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14278,73 +14278,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G155" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K155">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L155">
         <v>2.875</v>
       </c>
       <c r="M155">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P155">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14444,7 +14444,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6950209</v>
+        <v>6950205</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14456,73 +14456,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G157" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N157">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P157">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14533,7 +14533,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6950205</v>
+        <v>6950207</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14545,13 +14545,13 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -14560,43 +14560,43 @@
         <v>57</v>
       </c>
       <c r="K158">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M158">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.9</v>
       </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.925</v>
-      </c>
-      <c r="V158">
-        <v>1.875</v>
-      </c>
       <c r="W158">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14605,13 +14605,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -15245,7 +15245,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6950220</v>
+        <v>6950218</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15257,76 +15257,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K166">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.3</v>
+      </c>
+      <c r="N166">
         <v>3.1</v>
       </c>
-      <c r="M166">
-        <v>3.2</v>
-      </c>
-      <c r="N166">
-        <v>1.833</v>
-      </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
         <v>1.975</v>
       </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15334,7 +15334,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6950218</v>
+        <v>6950216</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15346,76 +15346,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N167">
+        <v>2.55</v>
+      </c>
+      <c r="O167">
         <v>3.1</v>
       </c>
-      <c r="O167">
-        <v>3.25</v>
-      </c>
       <c r="P167">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y167">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15423,7 +15423,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6950216</v>
+        <v>6950220</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15435,10 +15435,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15450,61 +15450,61 @@
         <v>56</v>
       </c>
       <c r="K168">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
         <v>3.1</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P168">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16046,7 +16046,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950222</v>
+        <v>6950224</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16058,76 +16058,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N175">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16135,7 +16135,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6950221</v>
+        <v>6950225</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16147,76 +16147,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K176">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
         <v>3.3</v>
       </c>
       <c r="M176">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N176">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
         <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16224,7 +16224,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6950224</v>
+        <v>6950221</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16236,46 +16236,46 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>56</v>
       </c>
       <c r="K177">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N177">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.25</v>
@@ -16290,22 +16290,22 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA177">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16313,7 +16313,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6950225</v>
+        <v>6950222</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16325,76 +16325,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
         <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O178">
         <v>3.4</v>
       </c>
       <c r="P178">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
+        <v>1.775</v>
+      </c>
+      <c r="S178">
         <v>2.025</v>
-      </c>
-      <c r="S178">
-        <v>1.775</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16402,7 +16402,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6950325</v>
+        <v>6950226</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16414,76 +16414,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>56</v>
+      </c>
+      <c r="K179">
+        <v>2.75</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>2.3</v>
+      </c>
+      <c r="N179">
         <v>3</v>
       </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>57</v>
-      </c>
-      <c r="K179">
-        <v>1.2</v>
-      </c>
-      <c r="L179">
-        <v>6</v>
-      </c>
-      <c r="M179">
-        <v>11</v>
-      </c>
-      <c r="N179">
-        <v>1.166</v>
-      </c>
       <c r="O179">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="Q179">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6950226</v>
+        <v>6950325</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16503,76 +16503,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M180">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N180">
+        <v>1.166</v>
+      </c>
+      <c r="O180">
+        <v>6</v>
+      </c>
+      <c r="P180">
+        <v>13</v>
+      </c>
+      <c r="Q180">
+        <v>-2</v>
+      </c>
+      <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
+        <v>1.85</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="O180">
-        <v>3.3</v>
-      </c>
-      <c r="P180">
-        <v>2.1</v>
-      </c>
-      <c r="Q180">
-        <v>0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.925</v>
-      </c>
-      <c r="S180">
-        <v>1.875</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X180">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17915,7 +17915,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6950241</v>
+        <v>6950244</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17927,76 +17927,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O196">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18004,7 +18004,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6950244</v>
+        <v>6950241</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18016,76 +18016,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L197">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N197">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P197">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z197">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19873,7 +19873,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6950263</v>
+        <v>6950255</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19885,76 +19885,76 @@
         <v>45241.25</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G218" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N218">
+        <v>4.75</v>
+      </c>
+      <c r="O218">
+        <v>3.4</v>
+      </c>
+      <c r="P218">
+        <v>1.615</v>
+      </c>
+      <c r="Q218">
+        <v>0.75</v>
+      </c>
+      <c r="R218">
+        <v>1.9</v>
+      </c>
+      <c r="S218">
+        <v>1.9</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2.05</v>
+      </c>
+      <c r="V218">
+        <v>1.75</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
         <v>2.4</v>
       </c>
-      <c r="O218">
-        <v>3.25</v>
-      </c>
-      <c r="P218">
-        <v>2.6</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>1.75</v>
-      </c>
-      <c r="S218">
-        <v>2.05</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
-      <c r="U218">
-        <v>1.95</v>
-      </c>
-      <c r="V218">
-        <v>1.85</v>
-      </c>
-      <c r="W218">
-        <v>-1</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
       <c r="Y218">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19962,7 +19962,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6950258</v>
+        <v>6950257</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19974,76 +19974,76 @@
         <v>45241.25</v>
       </c>
       <c r="F219" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K219">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="L219">
-        <v>4.1</v>
+        <v>2.875</v>
       </c>
       <c r="M219">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N219">
+        <v>1.85</v>
+      </c>
+      <c r="O219">
+        <v>3.1</v>
+      </c>
+      <c r="P219">
         <v>4</v>
       </c>
-      <c r="O219">
-        <v>3.6</v>
-      </c>
-      <c r="P219">
-        <v>1.7</v>
-      </c>
       <c r="Q219">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
         <v>1.875</v>
       </c>
-      <c r="S219">
-        <v>1.925</v>
-      </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA219">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20051,7 +20051,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6950257</v>
+        <v>6950258</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20063,76 +20063,76 @@
         <v>45241.25</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K220">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="L220">
-        <v>2.875</v>
+        <v>4.1</v>
       </c>
       <c r="M220">
+        <v>1.4</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>1.7</v>
+      </c>
+      <c r="Q220">
+        <v>0.75</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
         <v>2.5</v>
       </c>
-      <c r="N220">
-        <v>1.85</v>
-      </c>
-      <c r="O220">
-        <v>3.1</v>
-      </c>
-      <c r="P220">
-        <v>4</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.925</v>
-      </c>
-      <c r="S220">
-        <v>1.875</v>
-      </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>0.925</v>
       </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20140,7 +20140,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6950255</v>
+        <v>6950263</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20152,76 +20152,76 @@
         <v>45241.25</v>
       </c>
       <c r="F221" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K221">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N221">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC221">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -22187,7 +22187,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6950288</v>
+        <v>6950283</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22196,43 +22196,43 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45346.25</v>
+        <v>45347.375</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M244">
+        <v>1.166</v>
+      </c>
+      <c r="N244">
+        <v>23</v>
+      </c>
+      <c r="O244">
+        <v>10</v>
+      </c>
+      <c r="P244">
+        <v>1.05</v>
+      </c>
+      <c r="Q244">
         <v>3</v>
       </c>
-      <c r="N244">
-        <v>2.1</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>3</v>
-      </c>
-      <c r="Q244">
-        <v>-0.25</v>
-      </c>
       <c r="R244">
+        <v>1.95</v>
+      </c>
+      <c r="S244">
         <v>1.85</v>
       </c>
-      <c r="S244">
-        <v>1.95</v>
-      </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U244">
         <v>1.85</v>
@@ -22261,7 +22261,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6950287</v>
+        <v>6950286</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22270,49 +22270,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45346.25</v>
+        <v>45347.5</v>
       </c>
       <c r="F245" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K245">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L245">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N245">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P245">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q245">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
         <v>1.8</v>
       </c>
-      <c r="S245">
-        <v>2</v>
-      </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22327,376 +22327,6 @@
         <v>0</v>
       </c>
       <c r="AA245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>6950285</v>
-      </c>
-      <c r="C246" t="s">
-        <v>28</v>
-      </c>
-      <c r="D246" t="s">
-        <v>28</v>
-      </c>
-      <c r="E246" s="2">
-        <v>45346.25</v>
-      </c>
-      <c r="F246" t="s">
-        <v>49</v>
-      </c>
-      <c r="G246" t="s">
-        <v>45</v>
-      </c>
-      <c r="K246">
-        <v>3.4</v>
-      </c>
-      <c r="L246">
-        <v>3.25</v>
-      </c>
-      <c r="M246">
-        <v>2</v>
-      </c>
-      <c r="N246">
-        <v>3.4</v>
-      </c>
-      <c r="O246">
-        <v>3.25</v>
-      </c>
-      <c r="P246">
-        <v>2</v>
-      </c>
-      <c r="Q246">
-        <v>0.5</v>
-      </c>
-      <c r="R246">
-        <v>1.775</v>
-      </c>
-      <c r="S246">
-        <v>2.025</v>
-      </c>
-      <c r="T246">
-        <v>2.5</v>
-      </c>
-      <c r="U246">
-        <v>1.95</v>
-      </c>
-      <c r="V246">
-        <v>1.85</v>
-      </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-      <c r="X246">
-        <v>0</v>
-      </c>
-      <c r="Y246">
-        <v>0</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
-      <c r="AA246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>6950284</v>
-      </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45346.25</v>
-      </c>
-      <c r="F247" t="s">
-        <v>50</v>
-      </c>
-      <c r="G247" t="s">
-        <v>36</v>
-      </c>
-      <c r="K247">
-        <v>1.666</v>
-      </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>4.75</v>
-      </c>
-      <c r="N247">
-        <v>1.666</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>4.75</v>
-      </c>
-      <c r="Q247">
-        <v>-0.75</v>
-      </c>
-      <c r="R247">
-        <v>1.975</v>
-      </c>
-      <c r="S247">
-        <v>1.825</v>
-      </c>
-      <c r="T247">
-        <v>2.25</v>
-      </c>
-      <c r="U247">
-        <v>1.95</v>
-      </c>
-      <c r="V247">
-        <v>1.85</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>6950281</v>
-      </c>
-      <c r="C248" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45346.25</v>
-      </c>
-      <c r="F248" t="s">
-        <v>33</v>
-      </c>
-      <c r="G248" t="s">
-        <v>30</v>
-      </c>
-      <c r="K248">
-        <v>3.75</v>
-      </c>
-      <c r="L248">
-        <v>3.2</v>
-      </c>
-      <c r="M248">
-        <v>1.909</v>
-      </c>
-      <c r="N248">
-        <v>4.75</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>1.615</v>
-      </c>
-      <c r="Q248">
-        <v>0.75</v>
-      </c>
-      <c r="R248">
-        <v>1.95</v>
-      </c>
-      <c r="S248">
-        <v>1.85</v>
-      </c>
-      <c r="T248">
-        <v>2.25</v>
-      </c>
-      <c r="U248">
-        <v>1.95</v>
-      </c>
-      <c r="V248">
-        <v>1.85</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6950289</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45346.27083333334</v>
-      </c>
-      <c r="F249" t="s">
-        <v>52</v>
-      </c>
-      <c r="G249" t="s">
-        <v>31</v>
-      </c>
-      <c r="K249">
-        <v>1.8</v>
-      </c>
-      <c r="L249">
-        <v>3.25</v>
-      </c>
-      <c r="M249">
-        <v>4.2</v>
-      </c>
-      <c r="N249">
-        <v>1.85</v>
-      </c>
-      <c r="O249">
-        <v>3.2</v>
-      </c>
-      <c r="P249">
-        <v>4</v>
-      </c>
-      <c r="Q249">
-        <v>-0.5</v>
-      </c>
-      <c r="R249">
-        <v>1.9</v>
-      </c>
-      <c r="S249">
-        <v>1.9</v>
-      </c>
-      <c r="T249">
-        <v>2.25</v>
-      </c>
-      <c r="U249">
-        <v>2</v>
-      </c>
-      <c r="V249">
-        <v>1.8</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6950283</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45347.375</v>
-      </c>
-      <c r="F250" t="s">
-        <v>41</v>
-      </c>
-      <c r="G250" t="s">
-        <v>29</v>
-      </c>
-      <c r="K250">
-        <v>11</v>
-      </c>
-      <c r="L250">
-        <v>7</v>
-      </c>
-      <c r="M250">
-        <v>1.166</v>
-      </c>
-      <c r="N250">
-        <v>23</v>
-      </c>
-      <c r="O250">
-        <v>10</v>
-      </c>
-      <c r="P250">
-        <v>1.05</v>
-      </c>
-      <c r="Q250">
-        <v>3</v>
-      </c>
-      <c r="R250">
-        <v>1.95</v>
-      </c>
-      <c r="S250">
-        <v>1.85</v>
-      </c>
-      <c r="T250">
-        <v>3.75</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Romania Liga 2</t>
   </si>
   <si>
+    <t>CS Tunari</t>
+  </si>
+  <si>
     <t>Unirea Dej</t>
   </si>
   <si>
-    <t>CS Tunari</t>
+    <t>Scolar Resita</t>
   </si>
   <si>
     <t>ACS Viitorul Pandurii Targu Jiu</t>
-  </si>
-  <si>
-    <t>Scolar Resita</t>
   </si>
   <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
@@ -130,10 +130,13 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
-    <t>CSC Dumbravita</t>
+    <t>CS Concordia Chiajna</t>
   </si>
   <si>
     <t>FC Unirea 2004 Slobozia</t>
+  </si>
+  <si>
+    <t>CSC Dumbravita</t>
   </si>
   <si>
     <t>CSC 1599 Selimbar</t>
@@ -142,13 +145,10 @@
     <t>FC Buzau</t>
   </si>
   <si>
-    <t>CS Concordia Chiajna</t>
+    <t>CSM Slatina</t>
   </si>
   <si>
     <t>CSA Steaua Bucuresti</t>
-  </si>
-  <si>
-    <t>CSM Slatina</t>
   </si>
   <si>
     <t>FC Ceahlaul Piatra Neamt</t>
@@ -163,10 +163,10 @@
     <t>FC Arges Pitesti</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6949463</v>
+        <v>6950151</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>1.85</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z2">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950151</v>
+        <v>6949463</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>3.3</v>
+      </c>
+      <c r="N3">
+        <v>1.7</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>4.2</v>
+      </c>
+      <c r="Q3">
+        <v>-0.75</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
         <v>2.5</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>2.6</v>
-      </c>
-      <c r="N3">
-        <v>2.5</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>2.6</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
-      </c>
-      <c r="S3">
-        <v>1.95</v>
-      </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6950156</v>
+        <v>6950155</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,37 +821,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.975</v>
@@ -863,31 +863,31 @@
         <v>2.5</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.8</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950155</v>
+        <v>6950156</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,37 +910,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>4.8</v>
+      </c>
+      <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>1.571</v>
+      </c>
+      <c r="N5">
+        <v>5.75</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>1.45</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>2.6</v>
-      </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
-      <c r="N5">
-        <v>2.6</v>
-      </c>
-      <c r="O5">
-        <v>3.2</v>
-      </c>
-      <c r="P5">
-        <v>2.4</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
       <c r="R5">
         <v>1.975</v>
@@ -952,31 +952,31 @@
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.5</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>2.3</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>2.2</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6950163</v>
+        <v>6949941</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,76 +1441,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
         <v>5</v>
       </c>
       <c r="N11">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O11">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6950162</v>
+        <v>6950160</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,76 +1530,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+      <c r="O12">
+        <v>3.8</v>
+      </c>
+      <c r="P12">
+        <v>5.5</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
         <v>2.8</v>
       </c>
-      <c r="N12">
-        <v>2.4</v>
-      </c>
-      <c r="O12">
-        <v>3.1</v>
-      </c>
-      <c r="P12">
-        <v>2.7</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1.775</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>2.1</v>
-      </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6950160</v>
+        <v>6950162</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,76 +1619,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
+        <v>1.775</v>
+      </c>
+      <c r="S13">
+        <v>2.025</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
         <v>1.85</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.95</v>
       </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
+        <v>-0</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.95</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6949942</v>
+        <v>6950163</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,58 +1708,58 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>1.181</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.85</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
         <v>1.8</v>
       </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>1.775</v>
-      </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>1.05</v>
+        <v>0.181</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6950158</v>
+        <v>6949942</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,49 +1806,49 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.775</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>2.025</v>
       </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>-0</v>
-      </c>
-      <c r="AB15">
-        <v>0.95</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6949941</v>
+        <v>6950158</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1901,61 +1901,61 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N16">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
+        <v>1.775</v>
+      </c>
+      <c r="S16">
         <v>2.025</v>
-      </c>
-      <c r="S16">
-        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6950157</v>
+        <v>6950320</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>1.975</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>1.925</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
+        <v>-0</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.875</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6950320</v>
+        <v>6950157</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,73 +2067,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="S18">
-        <v>1.975</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.925</v>
-      </c>
-      <c r="V18">
-        <v>1.875</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6950164</v>
+        <v>6950171</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
         <v>1.85</v>
@@ -2373,34 +2373,34 @@
         <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6950171</v>
+        <v>6950164</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,40 +2420,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
         <v>1.85</v>
@@ -2462,34 +2462,34 @@
         <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950167</v>
+        <v>6950166</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,73 +2512,73 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>50</v>
       </c>
       <c r="K23">
+        <v>2.375</v>
+      </c>
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="M23">
+        <v>2.7</v>
+      </c>
+      <c r="N23">
+        <v>2.25</v>
+      </c>
+      <c r="O23">
+        <v>3.25</v>
+      </c>
+      <c r="P23">
+        <v>2.75</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.75</v>
+      </c>
+      <c r="S23">
+        <v>2.05</v>
+      </c>
+      <c r="T23">
         <v>2.5</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>2.625</v>
-      </c>
-      <c r="N23">
-        <v>2.625</v>
-      </c>
-      <c r="O23">
-        <v>3.1</v>
-      </c>
-      <c r="P23">
-        <v>2.45</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>2.05</v>
-      </c>
-      <c r="S23">
-        <v>1.75</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950173</v>
+        <v>6950167</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,46 +2598,46 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>2.625</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2655,19 +2655,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950166</v>
+        <v>6950173</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,13 +2687,13 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2702,61 +2702,61 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L25">
         <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N25">
+        <v>2.75</v>
+      </c>
+      <c r="O25">
+        <v>2.9</v>
+      </c>
+      <c r="P25">
+        <v>2.55</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>1.825</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
-      <c r="P25">
-        <v>2.75</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.75</v>
-      </c>
-      <c r="S25">
-        <v>2.05</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2954,7 +2954,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>48</v>
@@ -3043,10 +3043,10 @@
         <v>45158.25</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3055,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>2.9</v>
@@ -3135,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950176</v>
+        <v>6950174</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,56 +3221,56 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
+        <v>1.571</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.775</v>
+      </c>
+      <c r="S31">
+        <v>2.025</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.85</v>
+      </c>
+      <c r="V31">
         <v>1.95</v>
       </c>
-      <c r="O31">
-        <v>2.9</v>
-      </c>
-      <c r="P31">
-        <v>3.8</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.975</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>1.75</v>
-      </c>
-      <c r="U31">
-        <v>1.75</v>
-      </c>
-      <c r="V31">
-        <v>2.05</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3278,19 +3278,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950177</v>
+        <v>6950321</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>49</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N32">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950179</v>
+        <v>6950176</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,55 +3399,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3456,19 +3456,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950321</v>
+        <v>6950177</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>50</v>
       </c>
       <c r="K34">
+        <v>1.571</v>
+      </c>
+      <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>5.5</v>
+      </c>
+      <c r="N34">
+        <v>1.65</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>-0.75</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
+        <v>1.85</v>
+      </c>
+      <c r="T34">
         <v>2.25</v>
       </c>
-      <c r="L34">
-        <v>2.875</v>
-      </c>
-      <c r="M34">
-        <v>3.1</v>
-      </c>
-      <c r="N34">
-        <v>2.4</v>
-      </c>
-      <c r="O34">
-        <v>2.8</v>
-      </c>
-      <c r="P34">
-        <v>2.875</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.725</v>
-      </c>
-      <c r="S34">
-        <v>2.075</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA34">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950180</v>
+        <v>6950179</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
         <v>2.15</v>
       </c>
       <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
         <v>3.2</v>
-      </c>
-      <c r="P35">
-        <v>3</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
         <v>2.2</v>
       </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950178</v>
+        <v>6950181</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
         <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.8</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.925</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6950174</v>
+        <v>6950180</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,76 +3755,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950181</v>
+        <v>6950178</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,76 +3844,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L38">
         <v>3.25</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N38">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q38">
         <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,76 +3933,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N39">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
+        <v>1.571</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
         <v>5.5</v>
       </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>1.533</v>
-      </c>
       <c r="N40">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y40">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.4</v>
@@ -4203,7 +4203,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4378,7 +4378,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4467,10 +4467,10 @@
         <v>45171.25</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4479,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>3.3</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6950186</v>
+        <v>6950187</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,10 +4734,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4746,44 +4746,44 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L48">
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N48">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4791,19 +4791,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6950187</v>
+        <v>6950186</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,10 +4823,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4835,44 +4835,44 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
@@ -4880,19 +4880,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.15</v>
+        <v>3.5</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,10 +4912,10 @@
         <v>45174.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>2.75</v>
@@ -5004,7 +5004,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>3.1</v>
@@ -5090,10 +5090,10 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6950197</v>
+        <v>6950201</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="L53">
         <v>3.2</v>
       </c>
       <c r="M53">
+        <v>1.85</v>
+      </c>
+      <c r="N53">
         <v>3.8</v>
-      </c>
-      <c r="N53">
-        <v>1.85</v>
       </c>
       <c r="O53">
         <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
       <c r="Z53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6950194</v>
+        <v>6950198</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6950195</v>
+        <v>6950197</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,40 +5357,40 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N55">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
         <v>1.95</v>
@@ -5399,16 +5399,16 @@
         <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,16 +5417,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6950202</v>
+        <v>6950199</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6950198</v>
+        <v>6950195</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,58 +5535,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
+        <v>1.8</v>
+      </c>
+      <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>1.533</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
+        <v>5.75</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
-      </c>
-      <c r="L57">
-        <v>3.2</v>
-      </c>
-      <c r="M57">
-        <v>3.75</v>
-      </c>
-      <c r="N57">
-        <v>2.2</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.975</v>
-      </c>
-      <c r="S57">
-        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5595,16 +5595,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950199</v>
+        <v>6950194</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5639,61 +5639,61 @@
         <v>51</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L58">
         <v>3</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>1.925</v>
+      </c>
+      <c r="S58">
+        <v>1.875</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>1.9</v>
+      </c>
+      <c r="V58">
+        <v>1.9</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.8</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
-      <c r="W58">
-        <v>-1</v>
-      </c>
-      <c r="X58">
-        <v>2.1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950201</v>
+        <v>6950202</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>50</v>
       </c>
       <c r="K59">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="N59">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.925</v>
-      </c>
-      <c r="AB59">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5805,7 +5805,7 @@
         <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>1.7</v>
@@ -5980,10 +5980,10 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950205</v>
+        <v>6950204</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,58 +6069,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>1.9</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.9</v>
       </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.925</v>
-      </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6129,13 +6129,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.875</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6950206</v>
+        <v>6950207</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,40 +6158,40 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
+        <v>2.75</v>
+      </c>
+      <c r="L64">
+        <v>2.875</v>
+      </c>
+      <c r="M64">
+        <v>2.5</v>
+      </c>
+      <c r="N64">
+        <v>2.1</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
         <v>3.4</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>1.909</v>
-      </c>
-      <c r="N64">
-        <v>2.45</v>
-      </c>
-      <c r="O64">
-        <v>3.1</v>
-      </c>
-      <c r="P64">
-        <v>2.55</v>
-      </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
         <v>1.85</v>
@@ -6200,16 +6200,16 @@
         <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6224,10 +6224,10 @@
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950323</v>
+        <v>6950205</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,58 +6247,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,13 +6307,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6950209</v>
+        <v>6950203</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,73 +6336,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>50</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L66">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q66">
         <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950203</v>
+        <v>6950323</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,58 +6425,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
+        <v>1.571</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
         <v>4.75</v>
       </c>
-      <c r="O67">
-        <v>3.4</v>
-      </c>
-      <c r="P67">
-        <v>1.65</v>
-      </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>3.75</v>
+        <v>0.571</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950204</v>
+        <v>6950206</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,58 +6514,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O68">
         <v>3.1</v>
       </c>
       <c r="P68">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6574,16 +6574,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6950207</v>
+        <v>6950209</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,73 +6603,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
         <v>2.875</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6692,7 +6692,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
@@ -6781,10 +6781,10 @@
         <v>45194.5</v>
       </c>
       <c r="F71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s">
         <v>43</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6873,7 +6873,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6959,7 +6959,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7048,10 +7048,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
         <v>1.727</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950218</v>
+        <v>6950217</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,10 +7226,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>32</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6950217</v>
+        <v>6950218</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>49</v>
       </c>
       <c r="K77">
+        <v>2.75</v>
+      </c>
+      <c r="L77">
+        <v>3.2</v>
+      </c>
+      <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>3.1</v>
+      </c>
+      <c r="O77">
+        <v>3.25</v>
+      </c>
+      <c r="P77">
+        <v>2.05</v>
+      </c>
+      <c r="Q77">
+        <v>0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
+        <v>1.825</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77">
-        <v>2.6</v>
-      </c>
-      <c r="N77">
-        <v>2.5</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>2.6</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7407,7 +7407,7 @@
         <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>1.666</v>
@@ -7582,10 +7582,10 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7760,7 +7760,7 @@
         <v>45204.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
         <v>48</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950222</v>
+        <v>6950325</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,58 +7849,58 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>2.025</v>
+      </c>
+      <c r="V83">
         <v>1.775</v>
       </c>
-      <c r="S83">
-        <v>2.025</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7909,16 +7909,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950225</v>
+        <v>6950226</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2.5</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y84">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA84">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950325</v>
+        <v>6950225</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>49</v>
       </c>
       <c r="K86">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="L86">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6950226</v>
+        <v>6950222</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,73 +8205,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X87">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8294,10 +8294,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8383,10 +8383,10 @@
         <v>45206.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.9</v>
@@ -8472,7 +8472,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8561,7 +8561,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8653,7 +8653,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>4</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950232</v>
+        <v>6950233</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,58 +8828,58 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8888,16 +8888,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6950233</v>
+        <v>6950236</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,7 +8917,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -8926,67 +8926,67 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
+        <v>3.2</v>
+      </c>
+      <c r="M95">
         <v>3.6</v>
       </c>
-      <c r="M95">
-        <v>5</v>
-      </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>2.25</v>
       </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
-      <c r="W95">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6950236</v>
+        <v>6950232</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,19 +9006,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
         <v>1.909</v>
@@ -9030,16 +9030,16 @@
         <v>3.6</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O96">
+        <v>3.1</v>
+      </c>
+      <c r="P96">
         <v>3.25</v>
       </c>
-      <c r="P96">
-        <v>4</v>
-      </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>1.825</v>
@@ -9048,34 +9048,34 @@
         <v>1.975</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X96">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9098,7 +9098,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>2.4</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9273,7 +9273,7 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9362,10 +9362,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
         <v>42</v>
-      </c>
-      <c r="G100" t="s">
-        <v>41</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9454,7 +9454,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>45225.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
         <v>45</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6950244</v>
+        <v>6950243</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,76 +9629,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9718,7 +9718,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>1.55</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6950243</v>
+        <v>6950238</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,76 +9807,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
+        <v>2.3</v>
+      </c>
+      <c r="Q105">
+        <v>0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.925</v>
-      </c>
-      <c r="V105">
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
         <v>1.875</v>
       </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
       <c r="Y105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA105">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950241</v>
+        <v>6950240</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,73 +9896,73 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>50</v>
       </c>
       <c r="K106">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M106">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N107">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>-0.5</v>
+      </c>
+      <c r="AA107">
+        <v>0.475</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6950238</v>
+        <v>6950244</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AA108">
         <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6950239</v>
+        <v>6950241</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L109">
         <v>3</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O109">
         <v>3</v>
       </c>
       <c r="P109">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>48</v>
@@ -10264,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -10341,7 +10341,7 @@
         <v>45229.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>39</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>3.5</v>
@@ -10430,7 +10430,7 @@
         <v>45234.25</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10519,10 +10519,10 @@
         <v>45234.25</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950254</v>
+        <v>6950329</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45234.25</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10620,46 +10620,46 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
+        <v>3.2</v>
+      </c>
+      <c r="P114">
         <v>3.5</v>
       </c>
-      <c r="P114">
-        <v>5</v>
-      </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,13 +10668,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10700,7 +10700,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
         <v>1.571</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950329</v>
+        <v>6950254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,10 +10786,10 @@
         <v>45234.25</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -10798,61 +10798,61 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
+        <v>1.65</v>
+      </c>
+      <c r="O116">
+        <v>3.5</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="Q116">
+        <v>-0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
         <v>1.95</v>
       </c>
-      <c r="O116">
-        <v>3.2</v>
-      </c>
-      <c r="P116">
-        <v>3.5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>2</v>
-      </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.875</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>0.95</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>1</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.825</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10875,7 +10875,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>48</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11056,7 +11056,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11065,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11145,7 +11145,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.2</v>
@@ -11243,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>2.25</v>
@@ -11320,7 +11320,7 @@
         <v>45240.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>3.25</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950258</v>
+        <v>6950255</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45241.25</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L124">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q124">
         <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6950255</v>
+        <v>6950259</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45241.25</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="N125">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.615</v>
+        <v>11</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB125">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6950257</v>
+        <v>6950258</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45241.25</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>49</v>
       </c>
       <c r="K126">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="L126">
-        <v>2.875</v>
+        <v>4.1</v>
       </c>
       <c r="M126">
+        <v>1.4</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
+        <v>1.7</v>
+      </c>
+      <c r="Q126">
+        <v>0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.875</v>
+      </c>
+      <c r="S126">
+        <v>1.925</v>
+      </c>
+      <c r="T126">
         <v>2.5</v>
       </c>
-      <c r="N126">
-        <v>1.85</v>
-      </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
-      <c r="Q126">
-        <v>-0.5</v>
-      </c>
-      <c r="R126">
-        <v>1.925</v>
-      </c>
-      <c r="S126">
-        <v>1.875</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>0.925</v>
       </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
       <c r="AB126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950259</v>
+        <v>6950263</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,73 +11765,73 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
         <v>49</v>
       </c>
       <c r="K127">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N127">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950263</v>
+        <v>6950257</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,73 +11854,73 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>50</v>
       </c>
       <c r="K128">
+        <v>2.7</v>
+      </c>
+      <c r="L128">
+        <v>2.875</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>1.85</v>
+      </c>
+      <c r="O128">
         <v>3.1</v>
       </c>
-      <c r="L128">
-        <v>3.2</v>
-      </c>
-      <c r="M128">
-        <v>2.1</v>
-      </c>
-      <c r="N128">
-        <v>2.4</v>
-      </c>
-      <c r="O128">
-        <v>3.25</v>
-      </c>
       <c r="P128">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11943,10 +11943,10 @@
         <v>45241.25</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>2.15</v>
@@ -12032,7 +12032,7 @@
         <v>45243.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
         <v>1.615</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -12210,10 +12210,10 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>3.1</v>
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6950332</v>
+        <v>6950268</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,55 +12299,55 @@
         <v>45255.25</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="L133">
+        <v>3.25</v>
+      </c>
+      <c r="M133">
         <v>4.333</v>
       </c>
-      <c r="M133">
-        <v>1.3</v>
-      </c>
       <c r="N133">
-        <v>9.5</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12356,19 +12356,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950268</v>
+        <v>6950266</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,76 +12388,76 @@
         <v>45255.25</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
         <v>3.25</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
+        <v>1.6</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>4.75</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="O134">
-        <v>3.1</v>
-      </c>
-      <c r="P134">
-        <v>3.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.5</v>
-      </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>1.8</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950264</v>
+        <v>6950332</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,7 +12477,7 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12486,67 +12486,67 @@
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6950266</v>
+        <v>6950264</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,59 +12566,59 @@
         <v>45255.25</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>50</v>
+      </c>
+      <c r="K136">
+        <v>1.833</v>
+      </c>
+      <c r="L136">
+        <v>3.1</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
-      <c r="I136">
+      <c r="P136">
+        <v>3.5</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
+        <v>1.775</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>1.85</v>
-      </c>
-      <c r="L136">
-        <v>3.25</v>
-      </c>
-      <c r="M136">
-        <v>3.75</v>
-      </c>
-      <c r="N136">
-        <v>1.6</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>4.75</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
-      <c r="R136">
-        <v>1.825</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.95</v>
-      </c>
-      <c r="V136">
-        <v>1.85</v>
-      </c>
-      <c r="W136">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="X136">
         <v>-1</v>
       </c>
@@ -12626,16 +12626,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12667,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>3.75</v>
@@ -12744,10 +12744,10 @@
         <v>45256.25</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12836,7 +12836,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>45258.5</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13011,10 +13011,10 @@
         <v>45260.375</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13100,7 +13100,7 @@
         <v>45260.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>2.2</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13278,7 +13278,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13290,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.75</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950273</v>
+        <v>6950274</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950274</v>
+        <v>6950334</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>50</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>9.5</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
         <v>1.825</v>
       </c>
-      <c r="S146">
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.975</v>
       </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.85</v>
-      </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>2.7</v>
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950334</v>
+        <v>6950273</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,61 +13634,61 @@
         <v>45262.25</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
         <v>4.5</v>
       </c>
-      <c r="P148">
-        <v>9.5</v>
-      </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13697,13 +13697,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13815,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.85</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6950285</v>
+        <v>6950281</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>49</v>
       </c>
       <c r="K152">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
         <v>3.25</v>
       </c>
       <c r="P152">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="Q152">
         <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950287</v>
+        <v>6950284</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,58 +14079,58 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
+        <v>4.75</v>
+      </c>
+      <c r="N153">
+        <v>1.571</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
         <v>5.5</v>
       </c>
-      <c r="N153">
-        <v>1.45</v>
-      </c>
-      <c r="O153">
-        <v>4</v>
-      </c>
-      <c r="P153">
-        <v>6</v>
-      </c>
       <c r="Q153">
         <v>-1</v>
       </c>
       <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
         <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>0.45</v>
+        <v>0.571</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14139,16 +14139,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6950288</v>
+        <v>6950287</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45346.25</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950284</v>
+        <v>6950288</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950281</v>
+        <v>6950285</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45346.25</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O156">
         <v>3.25</v>
       </c>
       <c r="P156">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q156">
         <v>0.5</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14527,7 +14527,7 @@
         <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14536,7 +14536,7 @@
         <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>11</v>
@@ -14613,10 +14613,10 @@
         <v>45347.5</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14625,7 +14625,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>3.1</v>
@@ -14707,6 +14707,15 @@
       <c r="G160" t="s">
         <v>48</v>
       </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>50</v>
+      </c>
       <c r="K160">
         <v>2.6</v>
       </c>
@@ -14717,46 +14726,52 @@
         <v>2.6</v>
       </c>
       <c r="N160">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P160">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
         <v>0</v>
       </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
         <v>2</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -106,13 +106,13 @@
     <t>CS Tunari</t>
   </si>
   <si>
-    <t>Unirea Dej</t>
+    <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
     <t>Scolar Resita</t>
   </si>
   <si>
-    <t>ACS Viitorul Pandurii Targu Jiu</t>
+    <t>Unirea Dej</t>
   </si>
   <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
@@ -130,34 +130,34 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
-    <t>CS Concordia Chiajna</t>
-  </si>
-  <si>
-    <t>FC Unirea 2004 Slobozia</t>
-  </si>
-  <si>
-    <t>CSC Dumbravita</t>
-  </si>
-  <si>
     <t>CSC 1599 Selimbar</t>
   </si>
   <si>
     <t>FC Buzau</t>
   </si>
   <si>
-    <t>CSM Slatina</t>
+    <t>CS Concordia Chiajna</t>
+  </si>
+  <si>
+    <t>CSC Dumbravita</t>
+  </si>
+  <si>
+    <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
     <t>CSA Steaua Bucuresti</t>
   </si>
   <si>
+    <t>CSM Slatina</t>
+  </si>
+  <si>
     <t>FC Ceahlaul Piatra Neamt</t>
   </si>
   <si>
-    <t>AFC Progresul Spartac Bucuresti</t>
+    <t>CSM Alexandria</t>
   </si>
   <si>
-    <t>CSM Alexandria</t>
+    <t>AFC Progresul Spartac Bucuresti</t>
   </si>
   <si>
     <t>FC Arges Pitesti</t>
@@ -166,10 +166,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6949463</v>
+        <v>6950156</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -744,61 +744,61 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950156</v>
+        <v>6949463</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,10 +910,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -922,61 +922,61 @@
         <v>51</v>
       </c>
       <c r="K5">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>2.2</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>3.75</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6949941</v>
+        <v>6949942</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
+        <v>2.05</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>1.363</v>
-      </c>
-      <c r="O11">
-        <v>4.2</v>
-      </c>
-      <c r="P11">
-        <v>7.5</v>
-      </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.775</v>
+      </c>
+      <c r="V11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.775</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.925</v>
-      </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6950160</v>
+        <v>6950163</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,16 +1530,16 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -1554,52 +1554,52 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P12">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6950162</v>
+        <v>6950158</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,40 +1619,40 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
         <v>1.775</v>
@@ -1664,16 +1664,16 @@
         <v>2.5</v>
       </c>
       <c r="U13">
+        <v>1.95</v>
+      </c>
+      <c r="V13">
         <v>1.85</v>
       </c>
-      <c r="V13">
-        <v>1.95</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1685,10 +1685,10 @@
         <v>-0</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6950163</v>
+        <v>6949941</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,76 +1708,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O14">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6949942</v>
+        <v>6950162</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,10 +1800,10 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1812,61 +1812,61 @@
         <v>50</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6950158</v>
+        <v>6950160</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1901,61 +1901,61 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q16">
         <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6950320</v>
+        <v>6950157</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>1.975</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6950157</v>
+        <v>6950320</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,73 +2067,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>1.925</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
+        <v>-0</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>4.5</v>
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6950171</v>
+        <v>6950173</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21">
+        <v>2.45</v>
+      </c>
+      <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>2.75</v>
+      </c>
+      <c r="O21">
+        <v>2.9</v>
+      </c>
+      <c r="P21">
+        <v>2.55</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
+        <v>1.825</v>
+      </c>
+      <c r="T21">
         <v>2.25</v>
       </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>2.05</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>3.3</v>
-      </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6950164</v>
+        <v>6950171</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,40 +2420,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
         <v>1.85</v>
@@ -2462,34 +2462,34 @@
         <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950166</v>
+        <v>6950167</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>2.625</v>
+      </c>
+      <c r="N23">
+        <v>2.625</v>
+      </c>
+      <c r="O23">
         <v>3.1</v>
       </c>
-      <c r="M23">
-        <v>2.7</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>2.45</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
+        <v>1.75</v>
+      </c>
+      <c r="T23">
         <v>2.25</v>
       </c>
-      <c r="O23">
-        <v>3.25</v>
-      </c>
-      <c r="P23">
-        <v>2.75</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
-      <c r="S23">
-        <v>2.05</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.75</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950167</v>
+        <v>6950164</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,55 +2598,55 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>1.4</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>1.3</v>
+      </c>
+      <c r="Q24">
+        <v>1.5</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>2.625</v>
-      </c>
-      <c r="N24">
-        <v>2.625</v>
-      </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-      <c r="P24">
-        <v>2.45</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
-      <c r="S24">
-        <v>1.75</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2655,19 +2655,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950173</v>
+        <v>6950166</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L25">
         <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N25">
+        <v>2.25</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
         <v>2.75</v>
       </c>
-      <c r="O25">
-        <v>2.9</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>1.75</v>
+      </c>
+      <c r="S25">
+        <v>2.05</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.825</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.9</v>
-      </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2868,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>2.7</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3043,10 +3043,10 @@
         <v>45158.25</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950174</v>
+        <v>6950181</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
         <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y31">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950321</v>
+        <v>6950180</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>2.25</v>
       </c>
       <c r="L32">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N32">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O32">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y32">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>1.075</v>
+        <v>0.45</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950176</v>
+        <v>6950179</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,55 +3399,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>49</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N33">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3456,19 +3456,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950177</v>
+        <v>6950321</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950179</v>
+        <v>6950178</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35">
+        <v>1.727</v>
+      </c>
+      <c r="L35">
+        <v>3.25</v>
+      </c>
+      <c r="M35">
+        <v>4.333</v>
+      </c>
+      <c r="N35">
+        <v>1.615</v>
+      </c>
+      <c r="O35">
+        <v>3.25</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
         <v>2.5</v>
       </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>2.625</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
-      <c r="P35">
-        <v>3.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
-      <c r="R35">
+      <c r="U35">
         <v>1.925</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.875</v>
       </c>
-      <c r="T35">
-        <v>2.25</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950181</v>
+        <v>6950174</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="V36">
-        <v>1.85</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6950180</v>
+        <v>6950177</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,49 +3755,49 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>51</v>
       </c>
       <c r="K37">
+        <v>1.571</v>
+      </c>
+      <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
+        <v>5.5</v>
+      </c>
+      <c r="N37">
+        <v>1.65</v>
+      </c>
+      <c r="O37">
+        <v>3.3</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.95</v>
+      </c>
+      <c r="S37">
+        <v>1.85</v>
+      </c>
+      <c r="T37">
         <v>2.25</v>
-      </c>
-      <c r="L37">
-        <v>3.2</v>
-      </c>
-      <c r="M37">
-        <v>2.8</v>
-      </c>
-      <c r="N37">
-        <v>2.15</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
-      <c r="Q37">
-        <v>-0.25</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.9</v>
-      </c>
-      <c r="T37">
-        <v>2.5</v>
       </c>
       <c r="U37">
         <v>1.95</v>
@@ -3806,19 +3806,19 @@
         <v>1.85</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
+        <v>0.475</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
-      </c>
-      <c r="AA37">
-        <v>0.45</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950178</v>
+        <v>6950176</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,73 +3844,73 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>2.375</v>
+      </c>
+      <c r="L38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>1.727</v>
-      </c>
-      <c r="L38">
-        <v>3.25</v>
-      </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W38">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3933,7 +3933,7 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4022,10 +4022,10 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>1.571</v>
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6950191</v>
+        <v>6950183</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
+        <v>2.6</v>
+      </c>
+      <c r="L41">
+        <v>3.2</v>
+      </c>
+      <c r="M41">
         <v>2.4</v>
       </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>2.75</v>
-      </c>
       <c r="N41">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y41">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950183</v>
+        <v>6950191</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4292,7 +4292,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>1.333</v>
@@ -4378,7 +4378,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4467,10 +4467,10 @@
         <v>45171.25</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6950189</v>
+        <v>6950187</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>2.625</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z46">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6950188</v>
+        <v>6950186</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,10 +4645,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4663,37 +4663,37 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4702,19 +4702,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6950187</v>
+        <v>6950189</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,76 +4734,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>2.625</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q48">
         <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6950186</v>
+        <v>6950188</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,10 +4823,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4841,37 +4841,37 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
         <v>3.6</v>
       </c>
-      <c r="P49">
-        <v>4.5</v>
-      </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4880,19 +4880,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4912,10 +4912,10 @@
         <v>45174.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>2.75</v>
@@ -5001,10 +5001,10 @@
         <v>45181.20833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5090,10 +5090,10 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>2.6</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6950201</v>
+        <v>6950194</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>3.2</v>
       </c>
-      <c r="M53">
-        <v>1.85</v>
-      </c>
       <c r="N53">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
         <v>3.2</v>
       </c>
-      <c r="P53">
-        <v>1.85</v>
-      </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.925</v>
+      </c>
+      <c r="S53">
         <v>1.875</v>
       </c>
-      <c r="S53">
-        <v>1.925</v>
-      </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6950198</v>
+        <v>6950195</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,58 +5268,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>1.8</v>
+      </c>
+      <c r="L54">
+        <v>3.25</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1.533</v>
+      </c>
+      <c r="O54">
+        <v>3.4</v>
+      </c>
+      <c r="P54">
+        <v>5.75</v>
+      </c>
+      <c r="Q54">
+        <v>-1</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
         <v>1.85</v>
-      </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
-        <v>3.75</v>
-      </c>
-      <c r="N54">
-        <v>2.2</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <v>-0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5328,16 +5328,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6950197</v>
+        <v>6950198</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,19 +5357,19 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5378,37 +5378,37 @@
         <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,16 +5417,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6950199</v>
+        <v>6950201</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6950195</v>
+        <v>6950202</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,58 +5535,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N57">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5595,16 +5595,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950194</v>
+        <v>6950199</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5636,64 +5636,64 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L58">
         <v>3</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950202</v>
+        <v>6950197</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,10 +5713,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5725,37 +5725,37 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N59">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
         <v>1.95</v>
@@ -5764,7 +5764,7 @@
         <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5773,16 +5773,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5805,7 +5805,7 @@
         <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60">
         <v>1.7</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.625</v>
@@ -5980,10 +5980,10 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950204</v>
+        <v>6950206</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,58 +6069,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N63">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O63">
         <v>3.1</v>
       </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6129,16 +6129,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6950207</v>
+        <v>6950205</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,58 +6158,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64">
+        <v>1.222</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>1.25</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>8</v>
+      </c>
+      <c r="Q64">
+        <v>-1.5</v>
+      </c>
+      <c r="R64">
+        <v>1.9</v>
+      </c>
+      <c r="S64">
+        <v>1.9</v>
+      </c>
+      <c r="T64">
         <v>2.75</v>
       </c>
-      <c r="L64">
-        <v>2.875</v>
-      </c>
-      <c r="M64">
-        <v>2.5</v>
-      </c>
-      <c r="N64">
-        <v>2.1</v>
-      </c>
-      <c r="O64">
-        <v>3</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6218,13 +6218,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950205</v>
+        <v>6950204</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,58 +6247,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.9</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.9</v>
       </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.925</v>
-      </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,13 +6307,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0.875</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.925</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6348,7 +6348,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>3.3</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950323</v>
+        <v>6950207</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,58 +6425,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
+        <v>2.875</v>
+      </c>
+      <c r="M67">
+        <v>2.5</v>
+      </c>
+      <c r="N67">
+        <v>2.1</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
         <v>3.4</v>
       </c>
-      <c r="M67">
-        <v>3.75</v>
-      </c>
-      <c r="N67">
-        <v>1.571</v>
-      </c>
-      <c r="O67">
-        <v>3.75</v>
-      </c>
-      <c r="P67">
-        <v>4.75</v>
-      </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950206</v>
+        <v>6950209</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M68">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O68">
         <v>3.1</v>
       </c>
       <c r="P68">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6950209</v>
+        <v>6950323</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,73 +6603,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6692,10 +6692,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>2.875</v>
@@ -6781,10 +6781,10 @@
         <v>45194.5</v>
       </c>
       <c r="F71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
         <v>44</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>1.8</v>
@@ -6873,7 +6873,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6950216</v>
+        <v>6950217</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>51</v>
       </c>
       <c r="K73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M73">
+        <v>2.6</v>
+      </c>
+      <c r="N73">
+        <v>2.5</v>
+      </c>
+      <c r="O73">
         <v>3</v>
       </c>
-      <c r="N73">
-        <v>2.55</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="V73">
-        <v>1.95</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6950211</v>
+        <v>6950220</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>50</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.975</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.95</v>
-      </c>
-      <c r="V74">
-        <v>1.85</v>
-      </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950217</v>
+        <v>6950218</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
+        <v>2.75</v>
+      </c>
+      <c r="L75">
+        <v>3.2</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.25</v>
+      </c>
+      <c r="P75">
+        <v>2.05</v>
+      </c>
+      <c r="Q75">
+        <v>0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.825</v>
+      </c>
+      <c r="T75">
         <v>2.5</v>
       </c>
-      <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75">
-        <v>2.6</v>
-      </c>
-      <c r="N75">
-        <v>2.5</v>
-      </c>
-      <c r="O75">
-        <v>3</v>
-      </c>
-      <c r="P75">
-        <v>2.6</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.925</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950220</v>
+        <v>6950211</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,76 +7226,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>51</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N76">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
+        <v>1.825</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
+        <v>1.85</v>
+      </c>
+      <c r="W76">
+        <v>0.7</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>-1</v>
+      </c>
+      <c r="Z76">
+        <v>0.4875</v>
+      </c>
+      <c r="AA76">
         <v>-0.5</v>
       </c>
-      <c r="R76">
-        <v>1.85</v>
-      </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>2.2</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
-      <c r="Z76">
-        <v>-1</v>
-      </c>
-      <c r="AA76">
-        <v>0.95</v>
-      </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6950218</v>
+        <v>6950216</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
+        <v>2.55</v>
+      </c>
+      <c r="O77">
         <v>3.1</v>
       </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
       <c r="P77">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7407,7 +7407,7 @@
         <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7493,10 +7493,10 @@
         <v>45200.20833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>1.666</v>
@@ -7582,10 +7582,10 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7594,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7760,7 +7760,7 @@
         <v>45204.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
         <v>48</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950325</v>
+        <v>6950221</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
       </c>
       <c r="K83">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="N83">
-        <v>1.166</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950226</v>
+        <v>6950224</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
         <v>2.3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950224</v>
+        <v>6950225</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950225</v>
+        <v>6950226</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
         <v>3.3</v>
       </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.15</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6950221</v>
+        <v>6950325</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>51</v>
       </c>
       <c r="K88">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="N88">
-        <v>3.8</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,10 +8383,10 @@
         <v>45206.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8472,10 +8472,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>2.9</v>
@@ -8653,7 +8653,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>2.625</v>
@@ -8739,7 +8739,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950233</v>
+        <v>6950236</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>50</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L94">
+        <v>3.2</v>
+      </c>
+      <c r="M94">
         <v>3.6</v>
       </c>
-      <c r="M94">
-        <v>5</v>
-      </c>
       <c r="N94">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.25</v>
       </c>
-      <c r="U94">
-        <v>1.825</v>
-      </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
-      <c r="W94">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6950236</v>
+        <v>6950233</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.4625</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="R95">
-        <v>1.825</v>
-      </c>
-      <c r="S95">
-        <v>1.975</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.85</v>
-      </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>2.25</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>-1</v>
-      </c>
-      <c r="AA95">
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
-      <c r="AC95">
-        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,10 +9006,10 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>1.909</v>
@@ -9095,10 +9095,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97">
         <v>2.4</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9273,7 +9273,7 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9362,10 +9362,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9454,7 +9454,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>1.666</v>
@@ -9540,7 +9540,7 @@
         <v>45225.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>45</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6950243</v>
+        <v>6950241</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,10 +9629,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9644,31 +9644,31 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9686,13 +9686,13 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
         <v>0.925</v>
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6950242</v>
+        <v>6950239</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,13 +9718,13 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
       </c>
-      <c r="G104" t="s">
-        <v>46</v>
-      </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9733,61 +9733,61 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9810,7 +9810,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950240</v>
+        <v>6950243</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,73 +9896,73 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106">
+        <v>4.2</v>
+      </c>
+      <c r="L106">
+        <v>3.25</v>
+      </c>
+      <c r="M106">
+        <v>1.8</v>
+      </c>
+      <c r="N106">
         <v>4</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>50</v>
-      </c>
-      <c r="K106">
-        <v>1.55</v>
-      </c>
-      <c r="L106">
-        <v>3.7</v>
-      </c>
-      <c r="M106">
-        <v>5.5</v>
-      </c>
-      <c r="N106">
-        <v>1.55</v>
-      </c>
       <c r="O106">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.85</v>
-      </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0.95</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
       <c r="AB106">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950239</v>
+        <v>6950242</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,13 +9985,13 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10000,61 +10000,61 @@
         <v>51</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M107">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.375</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="AA107">
-        <v>0.475</v>
-      </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10074,10 +10074,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
         <v>41</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6950241</v>
+        <v>6950240</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,73 +10163,73 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K109">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10252,7 +10252,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>48</v>
@@ -10341,10 +10341,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>3.5</v>
@@ -10430,7 +10430,7 @@
         <v>45234.25</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>3.3</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6950330</v>
+        <v>6950251</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,13 +10519,13 @@
         <v>45234.25</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10534,61 +10534,61 @@
         <v>51</v>
       </c>
       <c r="K113">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
+        <v>5.25</v>
+      </c>
+      <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.85</v>
       </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.875</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950329</v>
+        <v>6950254</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45234.25</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>4</v>
@@ -10620,61 +10620,61 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N114">
+        <v>1.65</v>
+      </c>
+      <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
+        <v>5</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.925</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
         <v>1.95</v>
       </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>3.5</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-      <c r="S114">
-        <v>1.8</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.875</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.95</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6950251</v>
+        <v>6950329</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,10 +10697,10 @@
         <v>45234.25</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10709,46 +10709,46 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
         <v>1.8</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,13 +10757,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950254</v>
+        <v>6950330</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,13 +10786,13 @@
         <v>45234.25</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10801,61 +10801,61 @@
         <v>50</v>
       </c>
       <c r="K116">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
+        <v>1.85</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
         <v>1.875</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.925</v>
       </c>
-      <c r="T116">
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>2.25</v>
       </c>
-      <c r="U116">
-        <v>1.95</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
-      </c>
-      <c r="W116">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>48</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10964,10 +10964,10 @@
         <v>45235.25</v>
       </c>
       <c r="F118" t="s">
+        <v>47</v>
+      </c>
+      <c r="G118" t="s">
         <v>46</v>
-      </c>
-      <c r="G118" t="s">
-        <v>47</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,10 +11142,10 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
-      </c>
-      <c r="G120" t="s">
-        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>45240.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11412,7 +11412,7 @@
         <v>48</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950255</v>
+        <v>6950258</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45241.25</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M124">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N124">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
         <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6950259</v>
+        <v>6950255</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,13 +11587,13 @@
         <v>45241.25</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -11602,61 +11602,61 @@
         <v>50</v>
       </c>
       <c r="K125">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6950258</v>
+        <v>6950257</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,76 +11676,76 @@
         <v>45241.25</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K126">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="L126">
-        <v>4.1</v>
+        <v>2.875</v>
       </c>
       <c r="M126">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N126">
+        <v>1.85</v>
+      </c>
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
         <v>4</v>
       </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>1.7</v>
-      </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
+        <v>1.925</v>
+      </c>
+      <c r="S126">
         <v>1.875</v>
       </c>
-      <c r="S126">
-        <v>1.925</v>
-      </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950263</v>
+        <v>6950259</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,73 +11765,73 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>3</v>
-      </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N127">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950257</v>
+        <v>6950263</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,73 +11854,73 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB128">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11943,10 +11943,10 @@
         <v>45241.25</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K129">
         <v>2.15</v>
@@ -12032,7 +12032,7 @@
         <v>45243.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>1.615</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -12210,10 +12210,10 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6950268</v>
+        <v>6950266</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,76 +12299,76 @@
         <v>45255.25</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
+        <v>1.6</v>
+      </c>
+      <c r="O133">
+        <v>3.5</v>
+      </c>
+      <c r="P133">
+        <v>4.75</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>1.975</v>
+      </c>
+      <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
         <v>1.95</v>
       </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
-      <c r="P133">
-        <v>3.5</v>
-      </c>
-      <c r="Q133">
-        <v>-0.5</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950266</v>
+        <v>6950264</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,59 +12388,59 @@
         <v>45255.25</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>51</v>
+      </c>
+      <c r="K134">
+        <v>1.833</v>
+      </c>
+      <c r="L134">
+        <v>3.1</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
         <v>3</v>
       </c>
-      <c r="I134">
+      <c r="P134">
+        <v>3.5</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>1.875</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
         <v>1</v>
       </c>
-      <c r="J134" t="s">
-        <v>50</v>
-      </c>
-      <c r="K134">
-        <v>1.85</v>
-      </c>
-      <c r="L134">
-        <v>3.25</v>
-      </c>
-      <c r="M134">
-        <v>3.75</v>
-      </c>
-      <c r="N134">
-        <v>1.6</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>4.75</v>
-      </c>
-      <c r="Q134">
-        <v>-0.75</v>
-      </c>
-      <c r="R134">
-        <v>1.825</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.95</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
-      <c r="W134">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="X134">
         <v>-1</v>
       </c>
@@ -12448,16 +12448,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950332</v>
+        <v>6950268</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,55 +12477,55 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
+        <v>3.25</v>
+      </c>
+      <c r="M135">
         <v>4.333</v>
       </c>
-      <c r="M135">
-        <v>1.3</v>
-      </c>
       <c r="N135">
-        <v>9.5</v>
+        <v>1.95</v>
       </c>
       <c r="O135">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12534,19 +12534,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6950264</v>
+        <v>6950332</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,7 +12566,7 @@
         <v>45255.25</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
@@ -12575,67 +12575,67 @@
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12744,10 +12744,10 @@
         <v>45256.25</v>
       </c>
       <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s">
         <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12836,7 +12836,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>2.25</v>
@@ -12922,10 +12922,10 @@
         <v>45258.5</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>1.909</v>
@@ -13011,7 +13011,7 @@
         <v>45260.375</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13023,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>1.8</v>
@@ -13100,7 +13100,7 @@
         <v>45260.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13278,7 +13278,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950274</v>
+        <v>6950275</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,10 +13367,10 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" t="s">
         <v>30</v>
-      </c>
-      <c r="G145" t="s">
-        <v>36</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13382,40 +13382,40 @@
         <v>49</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M145">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13424,19 +13424,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950334</v>
+        <v>6950274</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="N146">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>9.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
         <v>1.975</v>
       </c>
-      <c r="S146">
-        <v>1.825</v>
-      </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950275</v>
+        <v>6950273</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,40 +13545,40 @@
         <v>45262.25</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
         <v>1.9</v>
@@ -13590,19 +13590,19 @@
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
@@ -13611,10 +13611,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950273</v>
+        <v>6950334</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,61 +13634,61 @@
         <v>45262.25</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>51</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M148">
+        <v>7.5</v>
+      </c>
+      <c r="N148">
+        <v>1.25</v>
+      </c>
+      <c r="O148">
         <v>4.5</v>
       </c>
-      <c r="N148">
-        <v>1.65</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -13697,13 +13697,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
         <v>45</v>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13815,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2.4</v>
@@ -13901,7 +13901,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6950281</v>
+        <v>6950285</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N152">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O152">
         <v>3.25</v>
       </c>
       <c r="P152">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q152">
         <v>0.5</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950284</v>
+        <v>6950288</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L153">
         <v>3.4</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14171,7 +14171,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.5</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950288</v>
+        <v>6950281</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,55 +14257,55 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14314,19 +14314,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950285</v>
+        <v>6950284</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,7 +14346,7 @@
         <v>45346.25</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>44</v>
@@ -14355,64 +14355,64 @@
         <v>3</v>
       </c>
       <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>51</v>
+      </c>
+      <c r="K156">
+        <v>1.666</v>
+      </c>
+      <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>4.75</v>
+      </c>
+      <c r="N156">
+        <v>1.571</v>
+      </c>
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
+        <v>5.5</v>
+      </c>
+      <c r="Q156">
+        <v>-1</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
+        <v>1.875</v>
+      </c>
+      <c r="W156">
+        <v>0.571</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
         <v>1</v>
       </c>
-      <c r="J156" t="s">
-        <v>50</v>
-      </c>
-      <c r="K156">
-        <v>3.4</v>
-      </c>
-      <c r="L156">
-        <v>3.25</v>
-      </c>
-      <c r="M156">
-        <v>2</v>
-      </c>
-      <c r="N156">
-        <v>3.4</v>
-      </c>
-      <c r="O156">
-        <v>3.25</v>
-      </c>
-      <c r="P156">
-        <v>2</v>
-      </c>
-      <c r="Q156">
-        <v>0.5</v>
-      </c>
-      <c r="R156">
-        <v>1.775</v>
-      </c>
-      <c r="S156">
-        <v>2.025</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.85</v>
-      </c>
-      <c r="W156">
-        <v>2.4</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
         <v>1.8</v>
@@ -14524,10 +14524,10 @@
         <v>45347.375</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14613,10 +14613,10 @@
         <v>45347.5</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>2.6</v>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -106,9 +106,6 @@
     <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
-    <t>Scolar Resita</t>
-  </si>
-  <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
     <t>Unirea Dej</t>
   </si>
   <si>
+    <t>Scolar Resita</t>
+  </si>
+  <si>
     <t>CS Hunedoara</t>
   </si>
   <si>
@@ -130,25 +130,25 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
-    <t>CSC Dumbravita</t>
+    <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
-    <t>FC Unirea 2004 Slobozia</t>
+    <t>CSC Dumbravita</t>
   </si>
   <si>
     <t>FC Buzau</t>
   </si>
   <si>
+    <t>CS Concordia Chiajna</t>
+  </si>
+  <si>
     <t>CSC 1599 Selimbar</t>
   </si>
   <si>
-    <t>CS Concordia Chiajna</t>
+    <t>CSA Steaua Bucuresti</t>
   </si>
   <si>
     <t>CSM Slatina</t>
-  </si>
-  <si>
-    <t>CSA Steaua Bucuresti</t>
   </si>
   <si>
     <t>FC Ceahlaul Piatra Neamt</t>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950155</v>
+        <v>6950153</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
+        <v>1.9</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.8</v>
       </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>1.4</v>
-      </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6950153</v>
+        <v>6950152</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,46 +827,46 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
         <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -875,19 +875,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950152</v>
+        <v>6950151</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,52 +910,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -964,19 +964,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6950151</v>
+        <v>6949463</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3.2</v>
+      </c>
+      <c r="M6">
+        <v>3.3</v>
+      </c>
+      <c r="N6">
+        <v>1.7</v>
+      </c>
+      <c r="O6">
+        <v>3.5</v>
+      </c>
+      <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
         <v>2.5</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>2.6</v>
-      </c>
-      <c r="N6">
-        <v>2.5</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>2.6</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6949463</v>
+        <v>6950155</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
         <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6950162</v>
+        <v>6950160</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.5</v>
+      </c>
+      <c r="O11">
+        <v>3.8</v>
+      </c>
+      <c r="P11">
+        <v>5.5</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.8</v>
       </c>
-      <c r="N11">
-        <v>2.4</v>
-      </c>
-      <c r="O11">
-        <v>3.1</v>
-      </c>
-      <c r="P11">
-        <v>2.7</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1.775</v>
-      </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>2.1</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6950163</v>
+        <v>6950162</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,76 +1530,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N12">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>1.775</v>
+      </c>
+      <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
         <v>1.95</v>
       </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6950160</v>
+        <v>6950158</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,76 +1619,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
       <c r="R13">
+        <v>1.775</v>
+      </c>
+      <c r="S13">
+        <v>2.025</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>1.95</v>
+      </c>
+      <c r="V13">
         <v>1.85</v>
       </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
+        <v>-0</v>
+      </c>
+      <c r="AB13">
         <v>0.95</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6950158</v>
+        <v>6950163</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,58 +1708,58 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>1.181</v>
+      </c>
+      <c r="O14">
         <v>5.75</v>
       </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>13</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.181</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>-0</v>
-      </c>
-      <c r="AB14">
-        <v>0.95</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6949942</v>
+        <v>6949941</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,73 +1800,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6949941</v>
+        <v>6949942</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,73 +1889,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
+        <v>3.1</v>
+      </c>
+      <c r="M16">
+        <v>3.2</v>
+      </c>
+      <c r="N16">
+        <v>2.05</v>
+      </c>
+      <c r="O16">
+        <v>3.1</v>
+      </c>
+      <c r="P16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>1.363</v>
-      </c>
-      <c r="O16">
-        <v>4.2</v>
-      </c>
-      <c r="P16">
-        <v>7.5</v>
-      </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>1.775</v>
+      </c>
+      <c r="V16">
         <v>2.025</v>
       </c>
-      <c r="S16">
-        <v>1.775</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.925</v>
-      </c>
-      <c r="V16">
-        <v>1.875</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6950320</v>
+        <v>6950157</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>1.975</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6950157</v>
+        <v>6950320</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,73 +2067,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>1.925</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
+        <v>-0</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.875</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2334,7 +2334,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950164</v>
+        <v>6950171</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,40 +2509,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
         <v>1.85</v>
@@ -2551,34 +2551,34 @@
         <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
         <v>1.85</v>
       </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950171</v>
+        <v>6950167</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N24">
+        <v>2.625</v>
+      </c>
+      <c r="O24">
+        <v>3.1</v>
+      </c>
+      <c r="P24">
+        <v>2.45</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>2.05</v>
       </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3.3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.85</v>
-      </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.75</v>
+      </c>
+      <c r="AB24">
         <v>-0.5</v>
       </c>
-      <c r="AA24">
-        <v>0.475</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950167</v>
+        <v>6950164</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,55 +2687,55 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
         <v>50</v>
       </c>
       <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>1.4</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>4.5</v>
+      </c>
+      <c r="P25">
+        <v>1.3</v>
+      </c>
+      <c r="Q25">
+        <v>1.5</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>2.625</v>
-      </c>
-      <c r="N25">
-        <v>2.625</v>
-      </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
-      <c r="P25">
-        <v>2.45</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>2.05</v>
-      </c>
-      <c r="S25">
-        <v>1.75</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2744,19 +2744,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
@@ -2957,7 +2957,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3043,10 +3043,10 @@
         <v>45158.25</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950179</v>
+        <v>6950176</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,55 +3221,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3278,19 +3278,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950176</v>
+        <v>6950174</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,56 +3310,56 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>50</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N32">
+        <v>1.571</v>
+      </c>
+      <c r="O32">
+        <v>3.6</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.775</v>
+      </c>
+      <c r="S32">
+        <v>2.025</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="O32">
-        <v>2.9</v>
-      </c>
-      <c r="P32">
-        <v>3.8</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.975</v>
-      </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>1.75</v>
-      </c>
-      <c r="U32">
-        <v>1.75</v>
-      </c>
-      <c r="V32">
-        <v>2.05</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
@@ -3367,19 +3367,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950174</v>
+        <v>6950177</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,34 +3399,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.65</v>
+      </c>
+      <c r="O33">
         <v>3.3</v>
-      </c>
-      <c r="N33">
-        <v>1.571</v>
-      </c>
-      <c r="O33">
-        <v>3.6</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -3435,40 +3435,40 @@
         <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA33">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950177</v>
+        <v>6950179</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N34">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3577,7 +3577,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3666,10 +3666,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3844,10 +3844,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,76 +3933,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
+        <v>1.571</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
         <v>5.5</v>
       </c>
-      <c r="L39">
-        <v>3.5</v>
-      </c>
-      <c r="M39">
-        <v>1.533</v>
-      </c>
       <c r="N39">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q39">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y39">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6950183</v>
+        <v>6950191</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950184</v>
+        <v>6950183</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N42">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6950191</v>
+        <v>6950184</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,76 +4289,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>1.333</v>
+      </c>
+      <c r="L43">
+        <v>4.5</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <v>1.333</v>
+      </c>
+      <c r="O43">
+        <v>4.75</v>
+      </c>
+      <c r="P43">
+        <v>6.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.8</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>3.75</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.8</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43">
-        <v>2.4</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.75</v>
-      </c>
-      <c r="N43">
-        <v>2.875</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.3</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.75</v>
-      </c>
-      <c r="S43">
-        <v>2.05</v>
-      </c>
-      <c r="T43">
-        <v>1.75</v>
-      </c>
-      <c r="U43">
-        <v>1.75</v>
-      </c>
-      <c r="V43">
-        <v>2.05</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>1.3</v>
-      </c>
-      <c r="Z43">
-        <v>-1</v>
-      </c>
-      <c r="AA43">
-        <v>1.05</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>1.05</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4381,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>45171.25</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -4559,7 +4559,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>48</v>
@@ -4737,7 +4737,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4912,10 +4912,10 @@
         <v>45174.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5004,7 +5004,7 @@
         <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5090,10 +5090,10 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5268,7 +5268,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5357,10 +5357,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -5538,7 +5538,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5713,10 +5713,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950209</v>
+        <v>6950207</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,73 +6069,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L63">
         <v>2.875</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6950207</v>
+        <v>6950209</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,73 +6158,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L64">
         <v>2.875</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N64">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6336,10 +6336,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6425,10 +6425,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6606,7 +6606,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -6692,10 +6692,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6781,10 +6781,10 @@
         <v>45194.5</v>
       </c>
       <c r="F71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
         <v>44</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6873,7 +6873,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6950218</v>
+        <v>6950211</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,40 +6959,40 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
         <v>1.975</v>
@@ -7001,34 +7001,34 @@
         <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6950217</v>
+        <v>6950220</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
+        <v>2.1</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>3.2</v>
+      </c>
+      <c r="N74">
+        <v>1.833</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.5</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>2.5</v>
       </c>
-      <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74">
-        <v>2.6</v>
-      </c>
-      <c r="N74">
-        <v>2.5</v>
-      </c>
-      <c r="O74">
-        <v>3</v>
-      </c>
-      <c r="P74">
-        <v>2.6</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950220</v>
+        <v>6950218</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
+        <v>3.2</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
         <v>3.1</v>
       </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.833</v>
-      </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950211</v>
+        <v>6950217</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,10 +7226,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7241,34 +7241,34 @@
         <v>51</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
         <v>1.95</v>
@@ -7277,7 +7277,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7315,10 +7315,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>45200.20833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7585,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7760,7 +7760,7 @@
         <v>45204.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
         <v>48</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950224</v>
+        <v>6950222</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X83">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA83">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950222</v>
+        <v>6950221</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
+        <v>1.909</v>
+      </c>
+      <c r="N84">
+        <v>3.8</v>
+      </c>
+      <c r="O84">
         <v>3.5</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>1.727</v>
       </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>4</v>
-      </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950221</v>
+        <v>6950224</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,46 +8027,46 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>49</v>
       </c>
       <c r="K85">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
         <v>2.25</v>
@@ -8081,22 +8081,22 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>-0.5</v>
+      </c>
+      <c r="AA85">
+        <v>0.4</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.825</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950325</v>
+        <v>6950226</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>49</v>
+      </c>
+      <c r="K86">
+        <v>2.75</v>
+      </c>
+      <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>3</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>51</v>
-      </c>
-      <c r="K86">
-        <v>1.2</v>
-      </c>
-      <c r="L86">
-        <v>6</v>
-      </c>
-      <c r="M86">
-        <v>11</v>
-      </c>
-      <c r="N86">
-        <v>1.166</v>
-      </c>
       <c r="O86">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6950225</v>
+        <v>6950325</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N87">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>13</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
         <v>2.025</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.775</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>1.925</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6950226</v>
+        <v>6950225</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
+        <v>2.4</v>
+      </c>
+      <c r="L88">
+        <v>3.3</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>2.15</v>
+      </c>
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
         <v>2.75</v>
       </c>
-      <c r="L88">
-        <v>3.2</v>
-      </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>3.3</v>
-      </c>
-      <c r="P88">
-        <v>2.1</v>
-      </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45206.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8472,10 +8472,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8653,7 +8653,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6950232</v>
+        <v>6950236</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,19 +8739,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>1.909</v>
@@ -8763,16 +8763,16 @@
         <v>3.6</v>
       </c>
       <c r="N93">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
         <v>1.825</v>
@@ -8781,34 +8781,34 @@
         <v>1.975</v>
       </c>
       <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
+        <v>1.95</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>2.25</v>
       </c>
-      <c r="U93">
-        <v>1.775</v>
-      </c>
-      <c r="V93">
-        <v>2.025</v>
-      </c>
-      <c r="W93">
-        <v>1.05</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950236</v>
+        <v>6950234</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N94">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q94">
+        <v>0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.775</v>
+      </c>
+      <c r="V94">
+        <v>2.025</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z94">
         <v>-0.5</v>
       </c>
-      <c r="R94">
-        <v>1.825</v>
-      </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>2.25</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6950234</v>
+        <v>6950233</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.4625</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>0.45</v>
-      </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6950233</v>
+        <v>6950232</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,13 +9006,13 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -9021,43 +9021,43 @@
         <v>51</v>
       </c>
       <c r="K96">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
+        <v>3.2</v>
+      </c>
+      <c r="M96">
         <v>3.6</v>
       </c>
-      <c r="M96">
-        <v>5</v>
-      </c>
       <c r="N96">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9066,16 +9066,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
         <v>-0.5</v>
       </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,10 +9095,10 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6950235</v>
+        <v>6950237</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,58 +9184,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>51</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P98">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9244,16 +9244,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6950237</v>
+        <v>6950235</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,58 +9273,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>51</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
         <v>2.5</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9333,16 +9333,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>40</v>
@@ -9454,7 +9454,7 @@
         <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>45225.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>45</v>
@@ -9632,7 +9632,7 @@
         <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9718,10 +9718,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6950240</v>
+        <v>6950242</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,16 +9807,16 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>51</v>
@@ -9825,40 +9825,40 @@
         <v>1.55</v>
       </c>
       <c r="L105">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N105">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O105">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>0.55</v>
+        <v>0.571</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950239</v>
+        <v>6950240</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M106">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P106">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950238</v>
+        <v>6950239</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
+        <v>2.45</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="L107">
-        <v>2.9</v>
-      </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6950242</v>
+        <v>6950238</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M108">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P108">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA108">
         <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10341,10 +10341,10 @@
         <v>45229.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10522,7 +10522,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950330</v>
+        <v>6950253</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45234.25</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10623,34 +10623,34 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q114">
         <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
         <v>1.875</v>
@@ -10662,13 +10662,13 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6950253</v>
+        <v>6950329</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10697,76 @@
         <v>45234.25</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L115">
+        <v>3.1</v>
+      </c>
+      <c r="M115">
+        <v>3.4</v>
+      </c>
+      <c r="N115">
+        <v>1.95</v>
+      </c>
+      <c r="O115">
         <v>3.2</v>
       </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
-      <c r="N115">
-        <v>3.4</v>
-      </c>
-      <c r="O115">
-        <v>3.3</v>
-      </c>
       <c r="P115">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
         <v>1.8</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950329</v>
+        <v>6950330</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45234.25</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>43</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L116">
         <v>3.1</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>3.25</v>
+      </c>
+      <c r="P116">
+        <v>1.85</v>
+      </c>
+      <c r="Q116">
+        <v>0.5</v>
+      </c>
+      <c r="R116">
         <v>1.95</v>
       </c>
-      <c r="O116">
-        <v>3.2</v>
-      </c>
-      <c r="P116">
-        <v>3.5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>2</v>
-      </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>2.25</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>0.95</v>
       </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>1</v>
-      </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>48</v>
@@ -11053,10 +11053,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>40</v>
@@ -11412,7 +11412,7 @@
         <v>48</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11498,10 +11498,10 @@
         <v>45241.25</v>
       </c>
       <c r="F124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
         <v>34</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>45241.25</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
         <v>47</v>
@@ -11676,7 +11676,7 @@
         <v>45241.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950331</v>
+        <v>6950255</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L127">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N127">
+        <v>4.75</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>1.615</v>
+      </c>
+      <c r="Q127">
+        <v>0.75</v>
+      </c>
+      <c r="R127">
+        <v>1.9</v>
+      </c>
+      <c r="S127">
+        <v>1.9</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
+        <v>2.05</v>
+      </c>
+      <c r="V127">
         <v>1.75</v>
       </c>
-      <c r="O127">
-        <v>2.875</v>
-      </c>
-      <c r="P127">
-        <v>5</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.85</v>
-      </c>
-      <c r="S127">
-        <v>1.95</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-      <c r="U127">
-        <v>1.925</v>
-      </c>
-      <c r="V127">
-        <v>1.875</v>
-      </c>
       <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>2.4</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.75</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>0.925</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950255</v>
+        <v>6950331</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q128">
+        <v>-0.5</v>
+      </c>
+      <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
+        <v>1.875</v>
+      </c>
+      <c r="W128">
         <v>0.75</v>
       </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>2.05</v>
-      </c>
-      <c r="V128">
-        <v>1.75</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12032,10 +12032,10 @@
         <v>45243.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12302,7 +12302,7 @@
         <v>47</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12391,7 +12391,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>46</v>
@@ -12566,10 +12566,10 @@
         <v>45255.25</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12747,7 +12747,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12836,7 +12836,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12922,10 +12922,10 @@
         <v>45258.5</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13011,10 +13011,10 @@
         <v>45260.375</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13100,7 +13100,7 @@
         <v>45260.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13281,7 +13281,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950273</v>
+        <v>6950275</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,40 +13367,40 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M145">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13412,19 +13412,19 @@
         <v>2.25</v>
       </c>
       <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
         <v>1.8</v>
       </c>
-      <c r="V145">
-        <v>2</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13433,10 +13433,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950274</v>
+        <v>6950273</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950275</v>
+        <v>6950274</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,10 +13545,10 @@
         <v>45262.25</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13560,40 +13560,40 @@
         <v>50</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O147">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13602,19 +13602,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>45262.25</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
         <v>47</v>
@@ -13723,7 +13723,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
         <v>45</v>
@@ -13815,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6950281</v>
+        <v>6950288</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,55 +13990,55 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>50</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>2.1</v>
+      </c>
+      <c r="O152">
         <v>3.2</v>
       </c>
-      <c r="M152">
-        <v>1.909</v>
-      </c>
-      <c r="N152">
-        <v>4.2</v>
-      </c>
-      <c r="O152">
-        <v>3.25</v>
-      </c>
       <c r="P152">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14047,19 +14047,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.7270000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950288</v>
+        <v>6950285</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L153">
+        <v>3.25</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
         <v>3.4</v>
       </c>
-      <c r="M153">
-        <v>3</v>
-      </c>
-      <c r="N153">
-        <v>2.1</v>
-      </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
         <v>1.775</v>
@@ -14121,34 +14121,34 @@
         <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6950285</v>
+        <v>6950284</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,7 +14168,7 @@
         <v>45346.25</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>44</v>
@@ -14177,49 +14177,49 @@
         <v>3</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>51</v>
       </c>
       <c r="K154">
+        <v>1.666</v>
+      </c>
+      <c r="L154">
         <v>3.4</v>
       </c>
-      <c r="L154">
-        <v>3.25</v>
-      </c>
       <c r="M154">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>2.4</v>
+        <v>0.571</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,13 +14228,13 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950284</v>
+        <v>6950281</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,40 +14257,40 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N155">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
         <v>2</v>
@@ -14302,31 +14302,31 @@
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14616,7 +14616,7 @@
         <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>45348.5</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>48</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6950295</v>
+        <v>6950292</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45353.25</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>2.4</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N162">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6950337</v>
+        <v>6950295</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45353.25</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M163">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N163">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O163">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6950292</v>
+        <v>6950337</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,40 +15058,40 @@
         <v>45353.25</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N164">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P164">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
         <v>1.85</v>
@@ -15103,31 +15103,31 @@
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.95</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>45353.25</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>37</v>
@@ -15236,10 +15236,10 @@
         <v>45353.25</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15325,10 +15325,10 @@
         <v>45353.27083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15503,7 +15503,7 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -15592,10 +15592,10 @@
         <v>45358.5</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15681,7 +15681,7 @@
         <v>45360.25</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
         <v>40</v>
@@ -15773,7 +15773,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15859,10 +15859,10 @@
         <v>45360.25</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16037,10 +16037,10 @@
         <v>45360.25</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16215,7 +16215,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16307,7 +16307,7 @@
         <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7964083</v>
+        <v>7964082</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,73 +16396,73 @@
         <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M179">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
+        <v>0.45</v>
+      </c>
+      <c r="AB179">
+        <v>0.475</v>
+      </c>
+      <c r="AC179">
         <v>-0.5</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7964082</v>
+        <v>7964083</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,73 +16485,73 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N180">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>1.75</v>
+      </c>
+      <c r="V180">
+        <v>2.05</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
         <v>1.9</v>
       </c>
-      <c r="S180">
-        <v>1.9</v>
-      </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
-      <c r="V180">
-        <v>1.85</v>
-      </c>
-      <c r="W180">
-        <v>0.363</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.4125</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="AA180">
-        <v>0.45</v>
-      </c>
       <c r="AB180">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45367.375</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
         <v>35</v>
@@ -16663,7 +16663,7 @@
         <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16838,10 +16838,10 @@
         <v>45367.375</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>45367.375</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -17016,10 +17016,10 @@
         <v>45367.375</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17108,7 +17108,7 @@
         <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>45381.25</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>37</v>
@@ -17357,10 +17357,10 @@
         <v>45381.25</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K190">
         <v>1.727</v>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Romania Liga 2</t>
   </si>
   <si>
-    <t>ACS Viitorul Pandurii Targu Jiu</t>
+    <t>Scolar Resita</t>
   </si>
   <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
@@ -118,7 +118,7 @@
     <t>Unirea Dej</t>
   </si>
   <si>
-    <t>Scolar Resita</t>
+    <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
     <t>CS Hunedoara</t>
@@ -163,13 +163,13 @@
     <t>FC Arges Pitesti</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6950156</v>
+        <v>6950155</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,37 +643,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1.975</v>
@@ -685,31 +685,31 @@
         <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.8</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -741,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>2.5</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>2.3</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.5</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6950155</v>
+        <v>6950156</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,37 +1088,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>4.8</v>
+      </c>
+      <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>1.571</v>
+      </c>
+      <c r="N7">
+        <v>5.75</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>1.45</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7">
-        <v>2.6</v>
-      </c>
-      <c r="L7">
-        <v>3.2</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>2.6</v>
-      </c>
-      <c r="O7">
-        <v>3.2</v>
-      </c>
-      <c r="P7">
-        <v>2.4</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
       <c r="R7">
         <v>1.975</v>
@@ -1130,31 +1130,31 @@
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>2.2</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>3.75</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>1.571</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>2.3</v>
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>1.444</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>1.615</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2156,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>4.5</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.45</v>
@@ -2420,7 +2420,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950171</v>
+        <v>6950164</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,40 +2509,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
         <v>1.85</v>
@@ -2551,34 +2551,34 @@
         <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950167</v>
+        <v>6950171</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950164</v>
+        <v>6950167</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,55 +2687,55 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2744,19 +2744,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3055,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>2.9</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950176</v>
+        <v>6950174</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,56 +3221,56 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
+        <v>1.571</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.775</v>
+      </c>
+      <c r="S31">
+        <v>2.025</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.85</v>
+      </c>
+      <c r="V31">
         <v>1.95</v>
       </c>
-      <c r="O31">
-        <v>2.9</v>
-      </c>
-      <c r="P31">
-        <v>3.8</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.975</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>1.75</v>
-      </c>
-      <c r="U31">
-        <v>1.75</v>
-      </c>
-      <c r="V31">
-        <v>2.05</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3278,19 +3278,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB31">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950174</v>
+        <v>6950177</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,34 +3310,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>50</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.65</v>
+      </c>
+      <c r="O32">
         <v>3.3</v>
-      </c>
-      <c r="N32">
-        <v>1.571</v>
-      </c>
-      <c r="O32">
-        <v>3.6</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -3346,40 +3346,40 @@
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950177</v>
+        <v>6950178</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,34 +3399,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -3435,22 +3435,22 @@
         <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
         <v>1.95</v>
       </c>
-      <c r="S33">
-        <v>1.85</v>
-      </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,16 +3459,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950179</v>
+        <v>6950176</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,55 +3488,55 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3545,19 +3545,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3580,7 +3580,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35">
         <v>2.25</v>
@@ -3669,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>1.8</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.25</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950178</v>
+        <v>6950179</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,76 +3844,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N38">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
+        <v>1.875</v>
+      </c>
+      <c r="V38">
         <v>1.925</v>
       </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
       <c r="W38">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.925</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>1.571</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>5.5</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.4</v>
@@ -4212,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K42">
         <v>2.6</v>
@@ -4289,7 +4289,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K43">
         <v>1.333</v>
@@ -4378,7 +4378,7 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4479,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>3.3</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2.625</v>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>2.75</v>
@@ -5013,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>3.1</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K52">
         <v>2.6</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>1.85</v>
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6950199</v>
+        <v>6950201</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>49</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6950198</v>
+        <v>6950199</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>51</v>
       </c>
       <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>3.6</v>
+      </c>
+      <c r="N55">
+        <v>1.8</v>
+      </c>
+      <c r="O55">
+        <v>3.1</v>
+      </c>
+      <c r="P55">
+        <v>4.333</v>
+      </c>
+      <c r="Q55">
+        <v>-0.5</v>
+      </c>
+      <c r="R55">
+        <v>1.8</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.75</v>
-      </c>
-      <c r="N55">
-        <v>2.2</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6950195</v>
+        <v>6950202</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,58 +5446,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5506,16 +5506,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6950202</v>
+        <v>6950195</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,58 +5535,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
+        <v>3.25</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>1.533</v>
+      </c>
+      <c r="O57">
         <v>3.4</v>
       </c>
-      <c r="M57">
-        <v>3.4</v>
-      </c>
-      <c r="N57">
-        <v>1.727</v>
-      </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5595,16 +5595,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950201</v>
+        <v>6950194</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>3.2</v>
       </c>
-      <c r="M58">
-        <v>1.85</v>
-      </c>
       <c r="N58">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
         <v>3.2</v>
       </c>
-      <c r="P58">
-        <v>1.85</v>
-      </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.925</v>
+      </c>
+      <c r="S58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.925</v>
-      </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950194</v>
+        <v>6950198</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
         <v>3</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>1.7</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K61">
         <v>2.625</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2.75</v>
@@ -6170,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.875</v>
@@ -6259,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>1.222</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>3.4</v>
@@ -6425,7 +6425,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>41</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>3.3</v>
@@ -6514,7 +6514,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K70">
         <v>2.875</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K71">
         <v>1.8</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6950211</v>
+        <v>6950218</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,40 +6959,40 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
         <v>1.975</v>
@@ -7001,34 +7001,34 @@
         <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6950220</v>
+        <v>6950217</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N74">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2.25</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950218</v>
+        <v>6950220</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
+        <v>3.1</v>
+      </c>
+      <c r="M75">
         <v>3.2</v>
       </c>
-      <c r="M75">
-        <v>2.3</v>
-      </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.95</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.825</v>
-      </c>
-      <c r="AB75">
-        <v>0.825</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950217</v>
+        <v>6950211</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,10 +7226,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7238,37 +7238,37 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N76">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <v>1.95</v>
@@ -7277,7 +7277,7 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>2.2</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>1.666</v>
@@ -7594,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7683,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950222</v>
+        <v>6950224</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>51</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950221</v>
+        <v>6950222</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
         <v>29</v>
       </c>
-      <c r="G84" t="s">
-        <v>41</v>
-      </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950224</v>
+        <v>6950221</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,46 +8027,46 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>2.25</v>
@@ -8081,22 +8081,22 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950226</v>
+        <v>6950325</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N86">
+        <v>1.166</v>
+      </c>
+      <c r="O86">
+        <v>6</v>
+      </c>
+      <c r="P86">
+        <v>13</v>
+      </c>
+      <c r="Q86">
+        <v>-2</v>
+      </c>
+      <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
         <v>3</v>
       </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
-      <c r="P86">
-        <v>2.1</v>
-      </c>
-      <c r="Q86">
-        <v>0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6950325</v>
+        <v>6950225</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K87">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6950225</v>
+        <v>6950226</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
+        <v>3.2</v>
+      </c>
+      <c r="M88">
+        <v>2.3</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
         <v>3.3</v>
       </c>
-      <c r="M88">
-        <v>2.5</v>
-      </c>
-      <c r="N88">
-        <v>2.15</v>
-      </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
       <c r="P88">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y88">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA88">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8395,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.9</v>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>2.9</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K92">
         <v>2.625</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6950236</v>
+        <v>6950232</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,19 +8739,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>1.909</v>
@@ -8763,16 +8763,16 @@
         <v>3.6</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O93">
+        <v>3.1</v>
+      </c>
+      <c r="P93">
         <v>3.25</v>
       </c>
-      <c r="P93">
-        <v>4</v>
-      </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
         <v>1.825</v>
@@ -8781,34 +8781,34 @@
         <v>1.975</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X93">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950234</v>
+        <v>6950236</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
+        <v>1.909</v>
+      </c>
+      <c r="L94">
+        <v>3.2</v>
+      </c>
+      <c r="M94">
+        <v>3.6</v>
+      </c>
+      <c r="N94">
+        <v>1.75</v>
+      </c>
+      <c r="O94">
+        <v>3.25</v>
+      </c>
+      <c r="P94">
         <v>4</v>
       </c>
-      <c r="L94">
-        <v>3.5</v>
-      </c>
-      <c r="M94">
-        <v>1.727</v>
-      </c>
-      <c r="N94">
-        <v>4.75</v>
-      </c>
-      <c r="O94">
-        <v>3.5</v>
-      </c>
-      <c r="P94">
-        <v>1.666</v>
-      </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.25</v>
       </c>
-      <c r="U94">
-        <v>1.775</v>
-      </c>
-      <c r="V94">
-        <v>2.025</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6950233</v>
+        <v>6950234</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N95">
+        <v>4.75</v>
+      </c>
+      <c r="O95">
+        <v>3.5</v>
+      </c>
+      <c r="P95">
         <v>1.666</v>
       </c>
-      <c r="O95">
-        <v>3.4</v>
-      </c>
-      <c r="P95">
-        <v>4.5</v>
-      </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
         <v>0.6659999999999999</v>
       </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
       <c r="Z95">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6950232</v>
+        <v>6950233</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,58 +9006,58 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9066,16 +9066,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>2.4</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6950237</v>
+        <v>6950235</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,58 +9184,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M98">
         <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9244,16 +9244,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6950235</v>
+        <v>6950237</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,58 +9273,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M99">
         <v>2.5</v>
       </c>
       <c r="N99">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9333,16 +9333,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K101">
         <v>1.666</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9641,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103">
         <v>4.2</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6950242</v>
+        <v>6950240</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,58 +9807,58 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
         <v>1.55</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M105">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N105">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>51</v>
       </c>
       <c r="K106">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L106">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N106">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
         <v>1.95</v>
-      </c>
-      <c r="S106">
-        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>-0.5</v>
+      </c>
+      <c r="AA106">
+        <v>0.475</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.95</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>1</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950239</v>
+        <v>6950238</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M107">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.025</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="S107">
-        <v>1.95</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.3875</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="AA107">
-        <v>0.475</v>
-      </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6950238</v>
+        <v>6950242</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="N108">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X108">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.3875</v>
+        <v>0.375</v>
       </c>
       <c r="AA108">
         <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10175,7 +10175,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>2.8</v>
@@ -10264,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>3.5</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>1.571</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950253</v>
+        <v>6950330</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,10 +10608,10 @@
         <v>45234.25</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10620,37 +10620,37 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q114">
         <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
         <v>1.875</v>
@@ -10662,13 +10662,13 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6950329</v>
+        <v>6950253</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,13 +10697,13 @@
         <v>45234.25</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10712,61 +10712,61 @@
         <v>51</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
         <v>3.4</v>
       </c>
-      <c r="N115">
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
         <v>1.95</v>
       </c>
-      <c r="O115">
-        <v>3.2</v>
-      </c>
-      <c r="P115">
-        <v>3.5</v>
-      </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950330</v>
+        <v>6950329</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45234.25</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X116">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>3.4</v>
@@ -11065,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.2</v>
@@ -11243,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>2.25</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>3.25</v>
@@ -11501,7 +11501,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>3.1</v>
@@ -11599,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>1.3</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>2.7</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950255</v>
+        <v>6950258</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>49</v>
       </c>
       <c r="K127">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M127">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N127">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="Q127">
         <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950331</v>
+        <v>6950255</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,76 +11854,76 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>51</v>
       </c>
       <c r="K128">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
+        <v>4.75</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
+        <v>1.615</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
         <v>1.75</v>
       </c>
-      <c r="O128">
-        <v>2.875</v>
-      </c>
-      <c r="P128">
-        <v>5</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>1.95</v>
-      </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
-      <c r="U128">
-        <v>1.925</v>
-      </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>2.4</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.75</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.925</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6950258</v>
+        <v>6950331</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45241.25</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>6.2</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>4.1</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P129">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
+        <v>1.875</v>
+      </c>
+      <c r="W129">
         <v>0.75</v>
       </c>
-      <c r="R129">
-        <v>1.875</v>
-      </c>
-      <c r="S129">
-        <v>1.925</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.975</v>
-      </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0.925</v>
       </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K130">
         <v>1.615</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>3.1</v>
@@ -12311,7 +12311,7 @@
         <v>6</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>8.5</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12477,7 +12477,7 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>46</v>
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>1.833</v>
@@ -12667,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>3.75</v>
@@ -12744,7 +12744,7 @@
         <v>45256.25</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>33</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K139">
         <v>2.25</v>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>1.909</v>
@@ -13014,7 +13014,7 @@
         <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>1.8</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>2.2</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13290,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.75</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950275</v>
+        <v>6950273</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,40 +13367,40 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="L145">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O145">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13412,19 +13412,19 @@
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
@@ -13433,10 +13433,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950273</v>
+        <v>6950274</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>49</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950274</v>
+        <v>6950275</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,10 +13545,10 @@
         <v>45262.25</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13557,43 +13557,43 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M147">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13602,19 +13602,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>1.363</v>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K150">
         <v>2.4</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.85</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>2.1</v>
@@ -14079,7 +14079,7 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>3.4</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
         <v>1.666</v>
@@ -14269,7 +14269,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>3.75</v>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <v>1.5</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K157">
         <v>1.8</v>
@@ -14536,7 +14536,7 @@
         <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>11</v>
@@ -14613,7 +14613,7 @@
         <v>45347.5</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>42</v>
@@ -14625,7 +14625,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>3.1</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>2.6</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>2.4</v>
@@ -14972,7 +14972,7 @@
         <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K163">
         <v>2.4</v>
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>1.444</v>
@@ -15159,7 +15159,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>3.6</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>3.1</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.85</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
         <v>2.25</v>
@@ -15506,7 +15506,7 @@
         <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K169">
         <v>1.6</v>
@@ -15604,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>1.5</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950302</v>
+        <v>6950303</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,73 +15684,73 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M171">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N171">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
+        <v>1.775</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
         <v>1.975</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB171">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6950303</v>
+        <v>6950305</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45360.25</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O172">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>2.025</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.775</v>
       </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6950305</v>
+        <v>6950306</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45360.25</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6950306</v>
+        <v>6950307</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,58 +15948,58 @@
         <v>45360.25</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
         <v>4.333</v>
       </c>
-      <c r="P174">
-        <v>6.5</v>
-      </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16008,13 +16008,13 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950307</v>
+        <v>6950302</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,58 +16037,58 @@
         <v>45360.25</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O175">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
         <v>1.825</v>
       </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16097,16 +16097,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>2.7</v>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
         <v>1.444</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K180">
         <v>3</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.3</v>
@@ -16663,7 +16663,7 @@
         <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16752,7 +16752,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>5</v>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
         <v>1.4</v>
@@ -16850,7 +16850,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>3</v>
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>2.8</v>
@@ -17028,7 +17028,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K186">
         <v>3.8</v>
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K187">
         <v>3.25</v>
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K188">
         <v>2.45</v>
@@ -17264,154 +17264,6 @@
       </c>
       <c r="AC188">
         <v>-0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>7984586</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45381.25</v>
-      </c>
-      <c r="F189" t="s">
-        <v>32</v>
-      </c>
-      <c r="G189" t="s">
-        <v>37</v>
-      </c>
-      <c r="K189">
-        <v>2.75</v>
-      </c>
-      <c r="L189">
-        <v>3</v>
-      </c>
-      <c r="M189">
-        <v>2.375</v>
-      </c>
-      <c r="N189">
-        <v>4.2</v>
-      </c>
-      <c r="O189">
-        <v>3.1</v>
-      </c>
-      <c r="P189">
-        <v>1.833</v>
-      </c>
-      <c r="Q189">
-        <v>0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.9</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.875</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>7984182</v>
-      </c>
-      <c r="C190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45381.25</v>
-      </c>
-      <c r="F190" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" t="s">
-        <v>33</v>
-      </c>
-      <c r="K190">
-        <v>1.727</v>
-      </c>
-      <c r="L190">
-        <v>3.4</v>
-      </c>
-      <c r="M190">
-        <v>4.2</v>
-      </c>
-      <c r="N190">
-        <v>1.727</v>
-      </c>
-      <c r="O190">
-        <v>3.5</v>
-      </c>
-      <c r="P190">
-        <v>4.333</v>
-      </c>
-      <c r="Q190">
-        <v>-0.75</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>1.95</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950268</v>
+        <v>6950264</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,34 +12388,34 @@
         <v>45255.25</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P134">
         <v>3.5</v>
@@ -12424,40 +12424,40 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950264</v>
+        <v>6950268</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,34 +12477,34 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
+        <v>3.25</v>
+      </c>
+      <c r="M135">
+        <v>4.333</v>
+      </c>
+      <c r="N135">
+        <v>1.95</v>
+      </c>
+      <c r="O135">
         <v>3.1</v>
-      </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135">
-        <v>2</v>
-      </c>
-      <c r="O135">
-        <v>3</v>
       </c>
       <c r="P135">
         <v>3.5</v>
@@ -12513,40 +12513,40 @@
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6950281</v>
+        <v>6950285</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N152">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O152">
         <v>3.25</v>
       </c>
       <c r="P152">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="Q152">
         <v>0.5</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950287</v>
+        <v>6950281</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N153">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
         <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6950284</v>
+        <v>6950287</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,13 +14168,13 @@
         <v>45346.25</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14183,43 +14183,43 @@
         <v>51</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q154">
         <v>-1</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>0.571</v>
+        <v>0.45</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>-0</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>1</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.925</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950288</v>
+        <v>6950284</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950285</v>
+        <v>6950288</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,40 +14346,40 @@
         <v>45346.25</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K156">
+        <v>2.1</v>
+      </c>
+      <c r="L156">
         <v>3.4</v>
       </c>
-      <c r="L156">
-        <v>3.25</v>
-      </c>
       <c r="M156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.775</v>
@@ -14388,34 +14388,34 @@
         <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950302</v>
+        <v>6950303</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45360.25</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M171">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N171">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
+        <v>1.775</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
         <v>1.975</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB171">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6950303</v>
+        <v>6950302</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45360.25</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
+        <v>2.875</v>
+      </c>
+      <c r="L172">
+        <v>3.2</v>
+      </c>
+      <c r="M172">
         <v>2.2</v>
       </c>
-      <c r="L172">
-        <v>3.1</v>
-      </c>
-      <c r="M172">
-        <v>3</v>
-      </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O172">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
+        <v>2.1</v>
+      </c>
+      <c r="Q172">
+        <v>0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
+        <v>1.825</v>
+      </c>
+      <c r="T172">
         <v>2.5</v>
       </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.025</v>
-      </c>
-      <c r="S172">
-        <v>1.775</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA172">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7964086</v>
+        <v>7964085</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,58 +16393,58 @@
         <v>45367.375</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W179">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7964085</v>
+        <v>7964087</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45367.375</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P180">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7964087</v>
+        <v>7964080</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,10 +16571,10 @@
         <v>45367.375</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16586,61 +16586,61 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M181">
+        <v>2.1</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>3.2</v>
+      </c>
+      <c r="P181">
         <v>1.833</v>
       </c>
-      <c r="N181">
-        <v>2.9</v>
-      </c>
-      <c r="O181">
-        <v>3</v>
-      </c>
-      <c r="P181">
-        <v>2.3</v>
-      </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
         <v>-0.5</v>
       </c>
-      <c r="AB181">
-        <v>0</v>
-      </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7964079</v>
+        <v>7964081</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45367.375</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
+        <v>2.8</v>
+      </c>
+      <c r="L182">
         <v>3</v>
       </c>
-      <c r="L182">
-        <v>3.1</v>
-      </c>
       <c r="M182">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N182">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P182">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R182">
+        <v>1.975</v>
+      </c>
+      <c r="S182">
         <v>1.825</v>
       </c>
-      <c r="S182">
-        <v>1.975</v>
-      </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7964080</v>
+        <v>7964082</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,40 +16749,40 @@
         <v>45367.375</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M183">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
         <v>1.9</v>
@@ -16791,34 +16791,34 @@
         <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X183">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB183">
+        <v>0.475</v>
+      </c>
+      <c r="AC183">
         <v>-0.5</v>
-      </c>
-      <c r="AC183">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7964081</v>
+        <v>7964083</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45367.375</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L184">
         <v>3</v>
       </c>
       <c r="M184">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N184">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O184">
         <v>2.9</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
+        <v>1.825</v>
+      </c>
+      <c r="S184">
         <v>1.975</v>
       </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7964082</v>
+        <v>7964084</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,58 +16927,58 @@
         <v>45367.375</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>51</v>
       </c>
       <c r="K185">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N185">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O185">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q185">
         <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16987,16 +16987,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA185">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7964083</v>
+        <v>7964079</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,40 +17016,40 @@
         <v>45367.375</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>3</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N186">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O186">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
         <v>1.825</v>
@@ -17058,34 +17058,34 @@
         <v>1.975</v>
       </c>
       <c r="T186">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z186">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7964084</v>
+        <v>7964086</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,58 +17105,58 @@
         <v>45367.375</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P187">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
         <v>1.825</v>
       </c>
-      <c r="S187">
-        <v>1.975</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.8</v>
-      </c>
-      <c r="V187">
-        <v>2</v>
-      </c>
       <c r="W187">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17165,13 +17165,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17887,6 +17887,80 @@
       </c>
       <c r="AC195">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7983279</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45386.45833333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>36</v>
+      </c>
+      <c r="G196" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196">
+        <v>2.6</v>
+      </c>
+      <c r="L196">
+        <v>2.875</v>
+      </c>
+      <c r="M196">
+        <v>2.6</v>
+      </c>
+      <c r="N196">
+        <v>2.625</v>
+      </c>
+      <c r="O196">
+        <v>2.9</v>
+      </c>
+      <c r="P196">
+        <v>2.7</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>1.85</v>
+      </c>
+      <c r="V196">
+        <v>1.95</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950264</v>
+        <v>6950268</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,34 +12388,34 @@
         <v>45255.25</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
+        <v>3.25</v>
+      </c>
+      <c r="M134">
+        <v>4.333</v>
+      </c>
+      <c r="N134">
+        <v>1.95</v>
+      </c>
+      <c r="O134">
         <v>3.1</v>
-      </c>
-      <c r="M134">
-        <v>4</v>
-      </c>
-      <c r="N134">
-        <v>2</v>
-      </c>
-      <c r="O134">
-        <v>3</v>
       </c>
       <c r="P134">
         <v>3.5</v>
@@ -12424,40 +12424,40 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950268</v>
+        <v>6950264</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,34 +12477,34 @@
         <v>45255.25</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P135">
         <v>3.5</v>
@@ -12513,40 +12513,40 @@
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6950285</v>
+        <v>6950281</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,76 +13990,76 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
         <v>3.25</v>
       </c>
       <c r="P152">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="Q152">
         <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z152">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950281</v>
+        <v>6950287</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45346.25</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M153">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6950287</v>
+        <v>6950284</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,13 +14168,13 @@
         <v>45346.25</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14183,43 +14183,43 @@
         <v>51</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L154">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.571</v>
+      </c>
+      <c r="O154">
+        <v>3.6</v>
+      </c>
+      <c r="P154">
         <v>5.5</v>
       </c>
-      <c r="N154">
-        <v>1.45</v>
-      </c>
-      <c r="O154">
-        <v>4</v>
-      </c>
-      <c r="P154">
-        <v>6</v>
-      </c>
       <c r="Q154">
         <v>-1</v>
       </c>
       <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
         <v>1.8</v>
-      </c>
-      <c r="S154">
-        <v>2</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>0.45</v>
+        <v>0.571</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950284</v>
+        <v>6950288</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P155">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950288</v>
+        <v>6950285</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,40 +14346,40 @@
         <v>45346.25</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L156">
+        <v>3.25</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
         <v>3.4</v>
       </c>
-      <c r="M156">
-        <v>3</v>
-      </c>
-      <c r="N156">
-        <v>2.1</v>
-      </c>
       <c r="O156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
         <v>1.775</v>
@@ -14388,34 +14388,34 @@
         <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950303</v>
+        <v>6950302</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45360.25</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
+        <v>2.875</v>
+      </c>
+      <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
         <v>2.2</v>
       </c>
-      <c r="L171">
-        <v>3.1</v>
-      </c>
-      <c r="M171">
-        <v>3</v>
-      </c>
       <c r="N171">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O171">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
+        <v>2.1</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
         <v>2.5</v>
       </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>2.025</v>
-      </c>
-      <c r="S171">
-        <v>1.775</v>
-      </c>
-      <c r="T171">
-        <v>2</v>
-      </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6950302</v>
+        <v>6950303</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45360.25</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
+        <v>2.025</v>
+      </c>
+      <c r="S172">
+        <v>1.775</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
         <v>1.975</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>1.95</v>
-      </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB172">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7964085</v>
+        <v>7964086</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,58 +16393,58 @@
         <v>45367.375</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>1</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P179">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.75</v>
-      </c>
-      <c r="V179">
-        <v>2.05</v>
-      </c>
       <c r="W179">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7964087</v>
+        <v>7964085</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45367.375</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>51</v>
+      </c>
+      <c r="K180">
+        <v>1.909</v>
+      </c>
+      <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.6</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180">
+        <v>3.25</v>
+      </c>
+      <c r="P180">
+        <v>3.3</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.75</v>
+      </c>
+      <c r="V180">
+        <v>2.05</v>
+      </c>
+      <c r="W180">
         <v>1</v>
       </c>
-      <c r="J180" t="s">
-        <v>49</v>
-      </c>
-      <c r="K180">
-        <v>3.8</v>
-      </c>
-      <c r="L180">
-        <v>3.25</v>
-      </c>
-      <c r="M180">
-        <v>1.833</v>
-      </c>
-      <c r="N180">
-        <v>2.9</v>
-      </c>
-      <c r="O180">
-        <v>3</v>
-      </c>
-      <c r="P180">
-        <v>2.3</v>
-      </c>
-      <c r="Q180">
-        <v>0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.775</v>
-      </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
-      <c r="U180">
-        <v>1.775</v>
-      </c>
-      <c r="V180">
-        <v>2.025</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
       <c r="X180">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7964080</v>
+        <v>7964087</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,10 +16571,10 @@
         <v>45367.375</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16586,61 +16586,61 @@
         <v>49</v>
       </c>
       <c r="K181">
+        <v>3.8</v>
+      </c>
+      <c r="L181">
         <v>3.25</v>
       </c>
-      <c r="L181">
+      <c r="M181">
+        <v>1.833</v>
+      </c>
+      <c r="N181">
+        <v>2.9</v>
+      </c>
+      <c r="O181">
         <v>3</v>
       </c>
-      <c r="M181">
-        <v>2.1</v>
-      </c>
-      <c r="N181">
-        <v>4</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
       <c r="P181">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7964081</v>
+        <v>7964079</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45367.375</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M182">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N182">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
         <v>1.975</v>
       </c>
-      <c r="S182">
-        <v>1.825</v>
-      </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7964082</v>
+        <v>7964080</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,40 +16749,40 @@
         <v>45367.375</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L183">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O183">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
         <v>1.9</v>
@@ -16791,34 +16791,34 @@
         <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
         <v>-0.5</v>
       </c>
-      <c r="AA183">
-        <v>0.45</v>
-      </c>
-      <c r="AB183">
-        <v>0.475</v>
-      </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7964083</v>
+        <v>7964081</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45367.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L184">
         <v>3</v>
       </c>
       <c r="M184">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N184">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O184">
         <v>2.9</v>
       </c>
       <c r="P184">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
         <v>1.825</v>
       </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
       <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>1.8</v>
+      </c>
+      <c r="V184">
+        <v>2</v>
+      </c>
+      <c r="W184">
         <v>1.75</v>
       </c>
-      <c r="U184">
-        <v>1.75</v>
-      </c>
-      <c r="V184">
-        <v>2.05</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
       <c r="X184">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7964084</v>
+        <v>7964082</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,58 +16927,58 @@
         <v>45367.375</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>51</v>
       </c>
       <c r="K185">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L185">
         <v>4.2</v>
       </c>
       <c r="M185">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N185">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q185">
         <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16987,16 +16987,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7964079</v>
+        <v>7964083</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,40 +17016,40 @@
         <v>45367.375</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K186">
         <v>3</v>
       </c>
       <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>2.25</v>
+      </c>
+      <c r="N186">
         <v>3.1</v>
       </c>
-      <c r="M186">
-        <v>2.2</v>
-      </c>
-      <c r="N186">
-        <v>3.75</v>
-      </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P186">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q186">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
         <v>1.825</v>
@@ -17058,34 +17058,34 @@
         <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y186">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7964086</v>
+        <v>7964084</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,58 +17105,58 @@
         <v>45367.375</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>51</v>
       </c>
       <c r="K187">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L187">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O187">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17165,13 +17165,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7983279</v>
+        <v>7984184</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,43 +17903,43 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45386.45833333334</v>
+        <v>45388.20833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K196">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L196">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N196">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O196">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
         <v>1.85</v>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>Scolar Resita</t>
   </si>
   <si>
-    <t>CS Tunari</t>
+    <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
-    <t>FK Csikszereda Miercurea Ciuc</t>
+    <t>ACS Viitorul Pandurii Targu Jiu</t>
+  </si>
+  <si>
+    <t>Unirea Dej</t>
   </si>
   <si>
     <t>Metaloglobus Bucuresti</t>
   </si>
   <si>
-    <t>Unirea Dej</t>
-  </si>
-  <si>
-    <t>ACS Viitorul Pandurii Targu Jiu</t>
+    <t>CS Tunari</t>
   </si>
   <si>
     <t>CS Hunedoara</t>
@@ -130,13 +130,13 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
+    <t>CSC 1599 Selimbar</t>
+  </si>
+  <si>
     <t>CS Concordia Chiajna</t>
   </si>
   <si>
     <t>CSC Dumbravita</t>
-  </si>
-  <si>
-    <t>CSC 1599 Selimbar</t>
   </si>
   <si>
     <t>FC Unirea 2004 Slobozia</t>
@@ -166,10 +166,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950151</v>
+        <v>6950153</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -747,55 +747,55 @@
         <v>2.5</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.9</v>
+      </c>
+      <c r="V3">
+        <v>1.9</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.8</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>1.6</v>
-      </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6950153</v>
+        <v>6950156</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>4.8</v>
+      </c>
+      <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>1.571</v>
+      </c>
+      <c r="N4">
+        <v>5.75</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>1.45</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
+        <v>1.825</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>1.8</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>2.5</v>
-      </c>
-      <c r="L4">
-        <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.2</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>2.8</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.8</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.9</v>
-      </c>
-      <c r="V4">
-        <v>1.9</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950152</v>
+        <v>6949463</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.875</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>0.7</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0.475</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="R5">
-        <v>1.975</v>
-      </c>
-      <c r="S5">
-        <v>1.825</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>2.6</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>0.825</v>
-      </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6949463</v>
+        <v>6950152</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
+        <v>1.925</v>
+      </c>
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="V6">
-        <v>1.925</v>
-      </c>
       <c r="W6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z6">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6950156</v>
+        <v>6950151</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,46 +1088,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1139,22 +1139,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>2.2</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>3.75</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6949941</v>
+        <v>6949942</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,73 +1444,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
+        <v>2.05</v>
+      </c>
+      <c r="O11">
+        <v>3.1</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>1.363</v>
-      </c>
-      <c r="O11">
-        <v>4.2</v>
-      </c>
-      <c r="P11">
-        <v>7.5</v>
-      </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.775</v>
+      </c>
+      <c r="V11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.775</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.925</v>
-      </c>
-      <c r="V11">
-        <v>1.875</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6950162</v>
+        <v>6949941</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,73 +1533,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
+        <v>2.025</v>
+      </c>
+      <c r="S12">
         <v>1.775</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.571</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6949942</v>
+        <v>6950162</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,10 +1711,10 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1723,61 +1723,61 @@
         <v>50</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>1.571</v>
@@ -1889,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
         <v>1.444</v>
@@ -1978,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>4.5</v>
@@ -2334,7 +2334,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950167</v>
+        <v>6950171</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y23">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950173</v>
+        <v>6950167</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,46 +2598,46 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>2.625</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2655,19 +2655,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950171</v>
+        <v>6950173</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25">
+        <v>2.45</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.75</v>
+      </c>
+      <c r="O25">
+        <v>2.9</v>
+      </c>
+      <c r="P25">
+        <v>2.55</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>1.825</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>2.05</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3.3</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>2.7</v>
@@ -2954,7 +2954,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>48</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3043,7 +3043,7 @@
         <v>45158.25</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>43</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950179</v>
+        <v>6950321</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M31">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
+        <v>2.075</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
+        <v>1.975</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>1.875</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>2.2</v>
-      </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>1.075</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950177</v>
+        <v>6950176</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,7 +3310,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3319,67 +3319,67 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950176</v>
+        <v>6950177</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,7 +3399,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3408,67 +3408,67 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N33">
+        <v>1.65</v>
+      </c>
+      <c r="O33">
+        <v>3.3</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>-0.75</v>
+      </c>
+      <c r="R33">
         <v>1.95</v>
       </c>
-      <c r="O33">
-        <v>2.9</v>
-      </c>
-      <c r="P33">
-        <v>3.8</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
+        <v>1.85</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
+        <v>1.85</v>
+      </c>
+      <c r="W33">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>0.475</v>
+      </c>
+      <c r="AA33">
         <v>-0.5</v>
       </c>
-      <c r="R33">
-        <v>1.975</v>
-      </c>
-      <c r="S33">
-        <v>1.825</v>
-      </c>
-      <c r="T33">
-        <v>1.75</v>
-      </c>
-      <c r="U33">
-        <v>1.75</v>
-      </c>
-      <c r="V33">
-        <v>2.05</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>2.8</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
-      <c r="AA33">
-        <v>0.825</v>
-      </c>
       <c r="AB33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950321</v>
+        <v>6950181</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O34">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950181</v>
+        <v>6950180</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,10 +3577,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3589,34 +3589,34 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N35">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.5</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950180</v>
+        <v>6950179</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
         <v>2.15</v>
       </c>
       <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
         <v>3.2</v>
-      </c>
-      <c r="P36">
-        <v>3</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
         <v>2.2</v>
       </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>1.727</v>
@@ -3844,10 +3844,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
         <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,76 +3933,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>1.571</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
         <v>5.5</v>
       </c>
-      <c r="L39">
-        <v>3.5</v>
-      </c>
-      <c r="M39">
-        <v>1.533</v>
-      </c>
       <c r="N39">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q39">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y39">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>2.6</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950185</v>
+        <v>6950191</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Q42">
         <v>0.25</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z42">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6950191</v>
+        <v>6950184</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,76 +4289,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>1.333</v>
+      </c>
+      <c r="L43">
+        <v>4.5</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <v>1.333</v>
+      </c>
+      <c r="O43">
+        <v>4.75</v>
+      </c>
+      <c r="P43">
+        <v>6.5</v>
+      </c>
+      <c r="Q43">
+        <v>-1.5</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.8</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>3.75</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.8</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43">
-        <v>2.4</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>2.75</v>
-      </c>
-      <c r="N43">
-        <v>2.875</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>2.3</v>
-      </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.75</v>
-      </c>
-      <c r="S43">
-        <v>2.05</v>
-      </c>
-      <c r="T43">
-        <v>1.75</v>
-      </c>
-      <c r="U43">
-        <v>1.75</v>
-      </c>
-      <c r="V43">
-        <v>2.05</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>1.3</v>
-      </c>
-      <c r="Z43">
-        <v>-1</v>
-      </c>
-      <c r="AA43">
-        <v>1.05</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>1.05</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6950184</v>
+        <v>6950185</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,76 +4378,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N44">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>45171.25</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6950188</v>
+        <v>6950189</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>2.5</v>
+      </c>
+      <c r="N46">
+        <v>2.8</v>
+      </c>
+      <c r="O46">
         <v>3.1</v>
       </c>
-      <c r="M46">
-        <v>3.4</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
+        <v>1.775</v>
+      </c>
+      <c r="S46">
+        <v>2.025</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>2.05</v>
+      </c>
+      <c r="V46">
         <v>1.75</v>
       </c>
-      <c r="S46">
-        <v>2.05</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.825</v>
-      </c>
-      <c r="V46">
-        <v>1.975</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA46">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6950189</v>
+        <v>6950188</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,76 +4645,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
+        <v>3.4</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="M47">
-        <v>2.5</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>3.1</v>
-      </c>
       <c r="P47">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z47">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4737,7 +4737,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4912,7 +4912,7 @@
         <v>45174.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>43</v>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>2.75</v>
@@ -5004,7 +5004,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>43</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>2.6</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6950198</v>
+        <v>6950194</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>50</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
         <v>3.2</v>
       </c>
-      <c r="M53">
-        <v>3.75</v>
-      </c>
       <c r="N53">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q53">
         <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6950194</v>
+        <v>6950198</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>51</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q54">
         <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6950197</v>
+        <v>6950199</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,13 +5446,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5461,61 +5461,61 @@
         <v>50</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q56">
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T56">
         <v>2.25</v>
       </c>
       <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.95</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-0.5</v>
-      </c>
-      <c r="AC56">
-        <v>0.425</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5538,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950202</v>
+        <v>6950197</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5636,37 +5636,37 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N58">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
         <v>1.95</v>
@@ -5675,7 +5675,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,16 +5684,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950199</v>
+        <v>6950202</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,13 +5713,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5728,61 +5728,61 @@
         <v>51</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
+        <v>3.4</v>
+      </c>
+      <c r="N59">
+        <v>1.727</v>
+      </c>
+      <c r="O59">
         <v>3.6</v>
       </c>
-      <c r="N59">
-        <v>1.8</v>
-      </c>
-      <c r="O59">
-        <v>3.1</v>
-      </c>
       <c r="P59">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X59">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5805,7 +5805,7 @@
         <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60">
         <v>1.7</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.625</v>
@@ -5980,7 +5980,7 @@
         <v>45191.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>42</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950323</v>
+        <v>6950209</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,73 +6069,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
+        <v>2.875</v>
+      </c>
+      <c r="L63">
+        <v>2.875</v>
+      </c>
+      <c r="M63">
+        <v>2.375</v>
+      </c>
+      <c r="N63">
+        <v>5.25</v>
+      </c>
+      <c r="O63">
+        <v>3.1</v>
+      </c>
+      <c r="P63">
+        <v>1.727</v>
+      </c>
+      <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
         <v>1.8</v>
       </c>
-      <c r="L63">
-        <v>3.4</v>
-      </c>
-      <c r="M63">
-        <v>3.75</v>
-      </c>
-      <c r="N63">
-        <v>1.571</v>
-      </c>
-      <c r="O63">
-        <v>3.75</v>
-      </c>
-      <c r="P63">
-        <v>4.75</v>
-      </c>
-      <c r="Q63">
-        <v>-1</v>
-      </c>
-      <c r="R63">
-        <v>2.025</v>
-      </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6950209</v>
+        <v>6950203</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,73 +6158,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q64">
         <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950203</v>
+        <v>6950204</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,58 +6247,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,13 +6307,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0.875</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.925</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6950204</v>
+        <v>6950323</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,58 +6336,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N66">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>2.8</v>
+        <v>0.571</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6396,13 +6396,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950205</v>
+        <v>6950207</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,58 +6425,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.85</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
         <v>1.9</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.9</v>
       </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>1.925</v>
-      </c>
-      <c r="V67">
-        <v>1.875</v>
-      </c>
       <c r="W67">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950207</v>
+        <v>6950205</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,58 +6514,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68">
+        <v>1.222</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>10</v>
+      </c>
+      <c r="N68">
+        <v>1.25</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>8</v>
+      </c>
+      <c r="Q68">
+        <v>-1.5</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
         <v>2.75</v>
       </c>
-      <c r="L68">
-        <v>2.875</v>
-      </c>
-      <c r="M68">
-        <v>2.5</v>
-      </c>
-      <c r="N68">
-        <v>2.1</v>
-      </c>
-      <c r="O68">
-        <v>3</v>
-      </c>
-      <c r="P68">
-        <v>3.4</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.85</v>
-      </c>
-      <c r="S68">
-        <v>1.95</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6574,13 +6574,13 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6603,10 +6603,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>3.4</v>
@@ -6692,7 +6692,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>2.875</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>1.8</v>
@@ -6873,7 +6873,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6962,7 +6962,7 @@
         <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74">
         <v>1.727</v>
@@ -7137,7 +7137,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7229,7 +7229,7 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7315,10 +7315,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.2</v>
@@ -7407,7 +7407,7 @@
         <v>48</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>1.666</v>
@@ -7594,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950222</v>
+        <v>6950226</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,73 +7849,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>3.5</v>
-      </c>
-      <c r="N83">
-        <v>1.727</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
       <c r="P83">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950221</v>
+        <v>6950222</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>51</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950224</v>
+        <v>6950221</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,46 +8027,46 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N85">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>2.25</v>
@@ -8081,22 +8081,22 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950225</v>
+        <v>6950224</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,73 +8119,73 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
         <v>1.2</v>
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6950226</v>
+        <v>6950225</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K88">
+        <v>2.4</v>
+      </c>
+      <c r="L88">
+        <v>3.3</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>2.15</v>
+      </c>
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
         <v>2.75</v>
       </c>
-      <c r="L88">
-        <v>3.2</v>
-      </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>3.3</v>
-      </c>
-      <c r="P88">
-        <v>2.1</v>
-      </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>41</v>
@@ -8561,7 +8561,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>2.9</v>
@@ -8653,7 +8653,7 @@
         <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>2.625</v>
@@ -8739,7 +8739,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>47</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.909</v>
@@ -8831,7 +8831,7 @@
         <v>46</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8929,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>1.909</v>
@@ -9006,10 +9006,10 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>1.571</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97">
         <v>2.4</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6950235</v>
+        <v>6950237</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,58 +9184,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P98">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9244,16 +9244,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6950237</v>
+        <v>6950235</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,58 +9273,58 @@
         <v>45221.20833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
         <v>2.5</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9333,16 +9333,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>42</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>1.666</v>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6950238</v>
+        <v>6950239</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,76 +9629,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
+        <v>2.45</v>
+      </c>
+      <c r="L103">
         <v>3</v>
       </c>
-      <c r="L103">
-        <v>2.9</v>
-      </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O103">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
+        <v>1.85</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6950239</v>
+        <v>6950238</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>1.775</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
-      <c r="V104">
-        <v>1.95</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.3875</v>
+      </c>
+      <c r="AA104">
         <v>-0.5</v>
       </c>
-      <c r="AA104">
-        <v>0.475</v>
-      </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>1.55</v>
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950241</v>
+        <v>6950242</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950244</v>
+        <v>6950243</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6950243</v>
+        <v>6950244</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>3.6</v>
+      </c>
+      <c r="N108">
+        <v>1.8</v>
+      </c>
+      <c r="O108">
+        <v>3.4</v>
+      </c>
+      <c r="P108">
         <v>4.2</v>
       </c>
-      <c r="L108">
-        <v>3.25</v>
-      </c>
-      <c r="M108">
+      <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
         <v>1.8</v>
-      </c>
-      <c r="N108">
-        <v>4</v>
-      </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
-      <c r="P108">
-        <v>1.85</v>
-      </c>
-      <c r="Q108">
-        <v>0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.85</v>
-      </c>
-      <c r="S108">
-        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6950242</v>
+        <v>6950241</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,73 +10166,73 @@
         <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>3.5</v>
@@ -10430,7 +10430,7 @@
         <v>45234.25</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>3.3</v>
@@ -10522,7 +10522,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113">
         <v>1.75</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10697,7 +10697,7 @@
         <v>45234.25</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K115">
         <v>2.8</v>
@@ -10789,7 +10789,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K116">
         <v>1.571</v>
@@ -10875,7 +10875,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
         <v>48</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -11053,10 +11053,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950259</v>
+        <v>6950255</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,13 +11498,13 @@
         <v>45241.25</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11513,61 +11513,61 @@
         <v>50</v>
       </c>
       <c r="K124">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N124">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6950331</v>
+        <v>6950263</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,73 +11587,73 @@
         <v>45241.25</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L125">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
+        <v>2.4</v>
+      </c>
+      <c r="O125">
+        <v>3.25</v>
+      </c>
+      <c r="P125">
+        <v>2.6</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
         <v>1.75</v>
       </c>
-      <c r="O125">
-        <v>2.875</v>
-      </c>
-      <c r="P125">
-        <v>5</v>
-      </c>
-      <c r="Q125">
-        <v>-0.5</v>
-      </c>
-      <c r="R125">
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.85</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
       <c r="W125">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950257</v>
+        <v>6950331</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,73 +11765,73 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L127">
         <v>2.875</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N127">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>1.95</v>
+      </c>
+      <c r="T127">
+        <v>2</v>
+      </c>
+      <c r="U127">
         <v>1.925</v>
       </c>
-      <c r="S127">
+      <c r="V127">
         <v>1.875</v>
       </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.8</v>
-      </c>
       <c r="W127">
+        <v>0.75</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
         <v>0.925</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950263</v>
+        <v>6950259</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,73 +11854,73 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>1</v>
       </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6950255</v>
+        <v>6950257</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45241.25</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11958,61 +11958,61 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>1.615</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -12210,7 +12210,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>42</v>
@@ -12302,7 +12302,7 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12388,7 +12388,7 @@
         <v>45255.25</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>1.833</v>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12655,7 +12655,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12744,10 +12744,10 @@
         <v>45256.25</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12836,7 +12836,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>2.25</v>
@@ -12922,7 +12922,7 @@
         <v>45258.5</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>41</v>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>1.909</v>
@@ -13011,7 +13011,7 @@
         <v>45260.375</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13023,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>1.8</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13281,7 +13281,7 @@
         <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13367,10 +13367,10 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13379,7 +13379,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>1.666</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950274</v>
+        <v>6950334</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>9.5</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
         <v>1.825</v>
       </c>
-      <c r="S146">
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.975</v>
       </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.85</v>
-      </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950334</v>
+        <v>6950275</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45262.25</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
         <v>1</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M147">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P147">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950275</v>
+        <v>6950274</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,10 +13634,10 @@
         <v>45262.25</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13649,40 +13649,40 @@
         <v>49</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N148">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O148">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13691,19 +13691,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13815,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2.4</v>
@@ -13901,7 +13901,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13990,7 +13990,7 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
         <v>1.666</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.5</v>
@@ -14257,10 +14257,10 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
         <v>3.4</v>
@@ -14438,7 +14438,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
         <v>1.8</v>
@@ -14613,10 +14613,10 @@
         <v>45347.5</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>45348.5</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>48</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>2.6</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>2.4</v>
@@ -14972,7 +14972,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>45353.25</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>37</v>
@@ -15147,10 +15147,10 @@
         <v>45353.25</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
         <v>3.1</v>
@@ -15239,7 +15239,7 @@
         <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>1.444</v>
@@ -15328,7 +15328,7 @@
         <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>45354.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
         <v>2.25</v>
@@ -15506,7 +15506,7 @@
         <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K169">
         <v>1.6</v>
@@ -15592,10 +15592,10 @@
         <v>45358.5</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950306</v>
+        <v>6950305</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,13 +15681,13 @@
         <v>45360.25</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15696,61 +15696,61 @@
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="L171">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W171">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6950307</v>
+        <v>6950306</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,58 +15770,58 @@
         <v>45360.25</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
+        <v>1.9</v>
+      </c>
+      <c r="S172">
+        <v>1.9</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.775</v>
-      </c>
-      <c r="V172">
-        <v>2.025</v>
-      </c>
       <c r="W172">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15830,13 +15830,13 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6950305</v>
+        <v>6950307</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45360.25</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>51</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P173">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
+        <v>1.775</v>
+      </c>
+      <c r="V173">
         <v>2.025</v>
       </c>
-      <c r="V173">
-        <v>1.775</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6950302</v>
+        <v>6950303</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45360.25</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R174">
+        <v>2.025</v>
+      </c>
+      <c r="S174">
+        <v>1.775</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
         <v>1.975</v>
       </c>
-      <c r="S174">
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.95</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
       <c r="W174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB174">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950303</v>
+        <v>6950302</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45360.25</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K175">
+        <v>2.875</v>
+      </c>
+      <c r="L175">
+        <v>3.2</v>
+      </c>
+      <c r="M175">
         <v>2.2</v>
       </c>
-      <c r="L175">
-        <v>3.1</v>
-      </c>
-      <c r="M175">
-        <v>3</v>
-      </c>
       <c r="N175">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P175">
+        <v>2.1</v>
+      </c>
+      <c r="Q175">
+        <v>0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
+        <v>1.825</v>
+      </c>
+      <c r="T175">
         <v>2.5</v>
       </c>
-      <c r="Q175">
-        <v>0</v>
-      </c>
-      <c r="R175">
-        <v>2.025</v>
-      </c>
-      <c r="S175">
-        <v>1.775</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16215,7 +16215,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>2.3</v>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>2.7</v>
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -16485,7 +16485,7 @@
         <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>5</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K180">
         <v>1.4</v>
@@ -16574,7 +16574,7 @@
         <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>1.444</v>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
         <v>1.909</v>
@@ -16761,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
         <v>2.3</v>
@@ -16838,10 +16838,10 @@
         <v>45367.375</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>3.8</v>
@@ -16927,10 +16927,10 @@
         <v>45367.375</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>47</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17028,7 +17028,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>3.25</v>
@@ -17105,7 +17105,7 @@
         <v>45367.375</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>37</v>
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K187">
         <v>2.8</v>
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>2.45</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7983804</v>
+        <v>7983405</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,49 +17283,49 @@
         <v>45381.25</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
         <v>2</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N189">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U189">
         <v>1.925</v>
@@ -17334,25 +17334,25 @@
         <v>1.875</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17375,7 +17375,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17384,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>1.727</v>
@@ -17461,7 +17461,7 @@
         <v>45381.25</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>43</v>
@@ -17553,7 +17553,7 @@
         <v>47</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
         <v>2.45</v>
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7983405</v>
+        <v>7983804</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,49 +17639,49 @@
         <v>45381.25</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>2</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N193">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O193">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
         <v>1.925</v>
@@ -17690,25 +17690,25 @@
         <v>1.875</v>
       </c>
       <c r="W193">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB193">
         <v>0.925</v>
       </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17728,7 +17728,7 @@
         <v>45381.25</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>37</v>
@@ -17817,10 +17817,10 @@
         <v>45383.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>2.25</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>2.6</v>
@@ -17976,450 +17976,6 @@
       </c>
       <c r="AC196">
         <v>-0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>7984183</v>
-      </c>
-      <c r="C197" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" t="s">
-        <v>28</v>
-      </c>
-      <c r="E197" s="2">
-        <v>45388.20833333334</v>
-      </c>
-      <c r="F197" t="s">
-        <v>48</v>
-      </c>
-      <c r="G197" t="s">
-        <v>45</v>
-      </c>
-      <c r="K197">
-        <v>2.2</v>
-      </c>
-      <c r="L197">
-        <v>3.1</v>
-      </c>
-      <c r="M197">
-        <v>3</v>
-      </c>
-      <c r="N197">
-        <v>2</v>
-      </c>
-      <c r="O197">
-        <v>3.1</v>
-      </c>
-      <c r="P197">
-        <v>3.4</v>
-      </c>
-      <c r="Q197">
-        <v>-0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.775</v>
-      </c>
-      <c r="S197">
-        <v>2.025</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.775</v>
-      </c>
-      <c r="V197">
-        <v>2.025</v>
-      </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <v>0</v>
-      </c>
-      <c r="Y197">
-        <v>0</v>
-      </c>
-      <c r="Z197">
-        <v>0</v>
-      </c>
-      <c r="AA197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>7984198</v>
-      </c>
-      <c r="C198" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" t="s">
-        <v>28</v>
-      </c>
-      <c r="E198" s="2">
-        <v>45388.20833333334</v>
-      </c>
-      <c r="F198" t="s">
-        <v>32</v>
-      </c>
-      <c r="G198" t="s">
-        <v>47</v>
-      </c>
-      <c r="K198">
-        <v>1.727</v>
-      </c>
-      <c r="L198">
-        <v>3.25</v>
-      </c>
-      <c r="M198">
-        <v>4.333</v>
-      </c>
-      <c r="N198">
-        <v>1.727</v>
-      </c>
-      <c r="O198">
-        <v>3.25</v>
-      </c>
-      <c r="P198">
-        <v>4.333</v>
-      </c>
-      <c r="Q198">
-        <v>-0.75</v>
-      </c>
-      <c r="R198">
-        <v>1.95</v>
-      </c>
-      <c r="S198">
-        <v>1.85</v>
-      </c>
-      <c r="T198">
-        <v>2.25</v>
-      </c>
-      <c r="U198">
-        <v>1.95</v>
-      </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
-      <c r="AA198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>7984211</v>
-      </c>
-      <c r="C199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" t="s">
-        <v>28</v>
-      </c>
-      <c r="E199" s="2">
-        <v>45388.20833333334</v>
-      </c>
-      <c r="F199" t="s">
-        <v>44</v>
-      </c>
-      <c r="G199" t="s">
-        <v>30</v>
-      </c>
-      <c r="K199">
-        <v>2</v>
-      </c>
-      <c r="L199">
-        <v>3.1</v>
-      </c>
-      <c r="M199">
-        <v>3.4</v>
-      </c>
-      <c r="N199">
-        <v>1.85</v>
-      </c>
-      <c r="O199">
-        <v>3.2</v>
-      </c>
-      <c r="P199">
-        <v>3.75</v>
-      </c>
-      <c r="Q199">
-        <v>-0.5</v>
-      </c>
-      <c r="R199">
-        <v>1.95</v>
-      </c>
-      <c r="S199">
-        <v>1.85</v>
-      </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>2.025</v>
-      </c>
-      <c r="V199">
-        <v>1.775</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
-      </c>
-      <c r="AA199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>7984212</v>
-      </c>
-      <c r="C200" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" t="s">
-        <v>28</v>
-      </c>
-      <c r="E200" s="2">
-        <v>45388.20833333334</v>
-      </c>
-      <c r="F200" t="s">
-        <v>37</v>
-      </c>
-      <c r="G200" t="s">
-        <v>38</v>
-      </c>
-      <c r="K200">
-        <v>2.25</v>
-      </c>
-      <c r="L200">
-        <v>3</v>
-      </c>
-      <c r="M200">
-        <v>3</v>
-      </c>
-      <c r="N200">
-        <v>2.25</v>
-      </c>
-      <c r="O200">
-        <v>3</v>
-      </c>
-      <c r="P200">
-        <v>3</v>
-      </c>
-      <c r="Q200">
-        <v>-0.25</v>
-      </c>
-      <c r="R200">
-        <v>2</v>
-      </c>
-      <c r="S200">
-        <v>1.8</v>
-      </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>1.95</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
-      </c>
-      <c r="AA200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>7984184</v>
-      </c>
-      <c r="C201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" t="s">
-        <v>28</v>
-      </c>
-      <c r="E201" s="2">
-        <v>45388.20833333334</v>
-      </c>
-      <c r="F201" t="s">
-        <v>39</v>
-      </c>
-      <c r="G201" t="s">
-        <v>29</v>
-      </c>
-      <c r="K201">
-        <v>2.7</v>
-      </c>
-      <c r="L201">
-        <v>3.1</v>
-      </c>
-      <c r="M201">
-        <v>2.4</v>
-      </c>
-      <c r="N201">
-        <v>3</v>
-      </c>
-      <c r="O201">
-        <v>3.1</v>
-      </c>
-      <c r="P201">
-        <v>2.2</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.85</v>
-      </c>
-      <c r="S201">
-        <v>1.95</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
-      <c r="AA201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>7983406</v>
-      </c>
-      <c r="C202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" t="s">
-        <v>28</v>
-      </c>
-      <c r="E202" s="2">
-        <v>45388.22916666666</v>
-      </c>
-      <c r="F202" t="s">
-        <v>40</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
-      </c>
-      <c r="K202">
-        <v>2.375</v>
-      </c>
-      <c r="L202">
-        <v>3</v>
-      </c>
-      <c r="M202">
-        <v>2.75</v>
-      </c>
-      <c r="N202">
-        <v>2.875</v>
-      </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>2.3</v>
-      </c>
-      <c r="Q202">
-        <v>0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.75</v>
-      </c>
-      <c r="S202">
-        <v>2.05</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6950162</v>
+        <v>6950163</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,76 +1797,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="P15">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>-0</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6950163</v>
+        <v>6950162</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,76 +1886,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N16">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R16">
+        <v>1.775</v>
+      </c>
+      <c r="S16">
+        <v>2.025</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="S16">
-        <v>1.85</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>-0</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.95</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6950173</v>
+        <v>6950166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
         <v>3.1</v>
       </c>
       <c r="M21">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N21">
+        <v>2.25</v>
+      </c>
+      <c r="O21">
+        <v>3.25</v>
+      </c>
+      <c r="P21">
         <v>2.75</v>
       </c>
-      <c r="O21">
-        <v>2.9</v>
-      </c>
-      <c r="P21">
-        <v>2.55</v>
-      </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>1.75</v>
+      </c>
+      <c r="S21">
+        <v>2.05</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.975</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6950166</v>
+        <v>6950173</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,76 +2420,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L22">
         <v>3.1</v>
       </c>
       <c r="M22">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
+        <v>2.75</v>
+      </c>
+      <c r="O22">
+        <v>2.9</v>
+      </c>
+      <c r="P22">
+        <v>2.55</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
         <v>2.25</v>
       </c>
-      <c r="O22">
-        <v>3.25</v>
-      </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1.75</v>
-      </c>
-      <c r="S22">
-        <v>2.05</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6950205</v>
+        <v>6950209</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,73 +6336,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>2.875</v>
+      </c>
+      <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>5.25</v>
+      </c>
+      <c r="O66">
+        <v>3.1</v>
+      </c>
+      <c r="P66">
+        <v>1.727</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
+        <v>1.8</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>1.975</v>
+      </c>
+      <c r="V66">
+        <v>1.825</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
         <v>1</v>
       </c>
-      <c r="J66" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66">
-        <v>1.222</v>
-      </c>
-      <c r="L66">
-        <v>5</v>
-      </c>
-      <c r="M66">
-        <v>10</v>
-      </c>
-      <c r="N66">
-        <v>1.25</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>8</v>
-      </c>
-      <c r="Q66">
-        <v>-1.5</v>
-      </c>
-      <c r="R66">
-        <v>1.9</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.925</v>
-      </c>
-      <c r="V66">
-        <v>1.875</v>
-      </c>
-      <c r="W66">
-        <v>0.25</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
       <c r="AB66">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950209</v>
+        <v>6950205</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,73 +6425,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="L67">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N67">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6950218</v>
+        <v>6950217</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950220</v>
+        <v>6950218</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
+        <v>3.2</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
         <v>3.1</v>
       </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.833</v>
-      </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950216</v>
+        <v>6950220</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,10 +7226,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7241,61 +7241,61 @@
         <v>51</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3.1</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6950217</v>
+        <v>6950216</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,76 +7315,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="M77">
-        <v>2.6</v>
-      </c>
       <c r="N77">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
         <v>2.25</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950222</v>
+        <v>6950226</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,73 +8027,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L85">
+        <v>3.2</v>
+      </c>
+      <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
         <v>3.3</v>
       </c>
-      <c r="M85">
-        <v>3.5</v>
-      </c>
-      <c r="N85">
-        <v>1.727</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
       <c r="P85">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6950226</v>
+        <v>6950222</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,73 +8116,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K86">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950275</v>
+        <v>6950334</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45262.25</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M145">
+        <v>7.5</v>
+      </c>
+      <c r="N145">
+        <v>1.25</v>
+      </c>
+      <c r="O145">
+        <v>4.5</v>
+      </c>
+      <c r="P145">
+        <v>9.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>1.975</v>
+      </c>
+      <c r="S145">
+        <v>1.825</v>
+      </c>
+      <c r="T145">
         <v>2.5</v>
       </c>
-      <c r="N145">
-        <v>2.625</v>
-      </c>
-      <c r="O145">
-        <v>2.875</v>
-      </c>
-      <c r="P145">
-        <v>2.625</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.9</v>
-      </c>
-      <c r="S145">
-        <v>1.9</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950334</v>
+        <v>6950275</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45262.25</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G146" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M146">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P146">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950273</v>
+        <v>6950274</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45262.25</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6950274</v>
+        <v>6950273</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45262.25</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950288</v>
+        <v>6950284</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45346.25</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950284</v>
+        <v>6950288</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45346.25</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
         <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N156">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6950290</v>
+        <v>6950295</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45353.25</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O162">
         <v>3</v>
       </c>
       <c r="P162">
+        <v>3.1</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
         <v>2.25</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.8</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6950295</v>
+        <v>6950290</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45353.25</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L165">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O165">
         <v>3</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X165">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7983803</v>
+        <v>7984203</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,49 +17372,49 @@
         <v>45381.25</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>2.55</v>
+        <v>1.952</v>
       </c>
       <c r="N190">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
         <v>1.85</v>
@@ -17423,25 +17423,25 @@
         <v>1.95</v>
       </c>
       <c r="W190">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7984203</v>
+        <v>7983405</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45381.25</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K191">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>1.952</v>
+        <v>3.4</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P191">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7983405</v>
+        <v>7983804</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,49 +17550,49 @@
         <v>45381.25</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2</v>
       </c>
       <c r="L192">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O192">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
         <v>1.925</v>
@@ -17601,25 +17601,25 @@
         <v>1.875</v>
       </c>
       <c r="W192">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB192">
         <v>0.925</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7983804</v>
+        <v>7984182</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,31 +17639,31 @@
         <v>45381.25</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N193">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O193">
         <v>3.5</v>
@@ -17684,19 +17684,19 @@
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y193">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
         <v>-1</v>
@@ -17705,10 +17705,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7984182</v>
+        <v>7983803</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,76 +17728,76 @@
         <v>45381.25</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K194">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N194">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB194">
-        <v>-0.5</v>
-      </c>
       <c r="AC194">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7984212</v>
+        <v>7984211</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,76 +18173,76 @@
         <v>45388.20833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N199">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O199">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P199">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>1.85</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
         <v>1.825</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>1.9</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y199">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7984211</v>
+        <v>7984212</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,76 +18351,76 @@
         <v>45388.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -130,16 +130,16 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
-    <t>CSC Dumbravita</t>
+    <t>CS Concordia Chiajna</t>
+  </si>
+  <si>
+    <t>FC Buzau</t>
   </si>
   <si>
     <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
-    <t>CS Concordia Chiajna</t>
-  </si>
-  <si>
-    <t>FC Buzau</t>
+    <t>CSC Dumbravita</t>
   </si>
   <si>
     <t>CSC 1599 Selimbar</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6950163</v>
+        <v>6949941</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,76 +1441,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
         <v>5</v>
       </c>
       <c r="N11">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="O11">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6950162</v>
+        <v>6950158</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,40 +1530,40 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <v>1.775</v>
@@ -1575,16 +1575,16 @@
         <v>2.5</v>
       </c>
       <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
         <v>1.85</v>
       </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1596,10 +1596,10 @@
         <v>-0</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6949941</v>
+        <v>6950162</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,76 +1708,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N14">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.775</v>
+      </c>
+      <c r="S14">
         <v>2.025</v>
-      </c>
-      <c r="S14">
-        <v>1.775</v>
       </c>
       <c r="T14">
         <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6950158</v>
+        <v>6950163</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,58 +1797,58 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>1.181</v>
+      </c>
+      <c r="O15">
         <v>5.75</v>
       </c>
-      <c r="N15">
-        <v>1.444</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
       <c r="P15">
-        <v>5.75</v>
+        <v>13</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>0.181</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>-0</v>
-      </c>
-      <c r="AB15">
-        <v>0.95</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2601,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950177</v>
+        <v>6950178</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,34 +3221,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
         <v>5</v>
@@ -3257,22 +3257,22 @@
         <v>-0.75</v>
       </c>
       <c r="R31">
+        <v>1.85</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3281,16 +3281,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950174</v>
+        <v>6950177</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,34 +3310,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.65</v>
+      </c>
+      <c r="O32">
         <v>3.3</v>
-      </c>
-      <c r="N32">
-        <v>1.571</v>
-      </c>
-      <c r="O32">
-        <v>3.6</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -3346,40 +3346,40 @@
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA32">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950178</v>
+        <v>6950174</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,34 +3399,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N33">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -3435,40 +3435,40 @@
         <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.775</v>
+      </c>
+      <c r="S33">
+        <v>2.025</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>1.85</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950321</v>
+        <v>6950176</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,13 +3577,13 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -3592,61 +3592,61 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
+        <v>2.9</v>
+      </c>
+      <c r="P35">
+        <v>3.8</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
+        <v>1.75</v>
+      </c>
+      <c r="U35">
+        <v>1.75</v>
+      </c>
+      <c r="V35">
+        <v>2.05</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
         <v>2.8</v>
       </c>
-      <c r="P35">
-        <v>2.875</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>1.725</v>
-      </c>
-      <c r="S35">
-        <v>2.075</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.825</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>1.875</v>
-      </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950181</v>
+        <v>6950321</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6950180</v>
+        <v>6950181</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,10 +3755,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3770,31 +3770,31 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.5</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
         <v>-1</v>
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950176</v>
+        <v>6950180</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,76 +3844,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>3.2</v>
+      </c>
+      <c r="M38">
+        <v>2.8</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
+        <v>3.2</v>
+      </c>
+      <c r="P38">
         <v>3</v>
       </c>
-      <c r="M38">
-        <v>2.75</v>
-      </c>
-      <c r="N38">
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.9</v>
+      </c>
+      <c r="S38">
+        <v>1.9</v>
+      </c>
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
         <v>1.95</v>
       </c>
-      <c r="O38">
-        <v>2.9</v>
-      </c>
-      <c r="P38">
-        <v>3.8</v>
-      </c>
-      <c r="Q38">
+      <c r="V38">
+        <v>1.85</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.2</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>1.75</v>
-      </c>
-      <c r="U38">
-        <v>1.75</v>
-      </c>
-      <c r="V38">
-        <v>2.05</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>2.8</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4470,7 +4470,7 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6950188</v>
+        <v>6950186</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,10 +4556,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4574,37 +4574,37 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4613,19 +4613,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6950186</v>
+        <v>6950188</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,10 +4645,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4663,37 +4663,37 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
         <v>3.6</v>
       </c>
-      <c r="P47">
-        <v>4.5</v>
-      </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4702,19 +4702,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>43</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6950194</v>
+        <v>6950195</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6950201</v>
+        <v>6950194</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,76 +5357,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
         <v>3.2</v>
       </c>
-      <c r="M55">
-        <v>1.85</v>
-      </c>
       <c r="N55">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
         <v>3.2</v>
       </c>
-      <c r="P55">
-        <v>1.85</v>
-      </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
         <v>1.875</v>
       </c>
-      <c r="S55">
-        <v>1.925</v>
-      </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5624,7 +5624,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950195</v>
+        <v>6950201</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N59">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>2.5</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5983,7 +5983,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6072,7 +6072,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6950206</v>
+        <v>6950205</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,58 +6158,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6218,16 +6218,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950203</v>
+        <v>6950209</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,73 +6247,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N65">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q65">
         <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950204</v>
+        <v>6950203</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,58 +6425,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L67">
         <v>3.2</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950209</v>
+        <v>6950206</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N68">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O68">
         <v>3.1</v>
       </c>
       <c r="P68">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6950205</v>
+        <v>6950204</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,13 +6603,13 @@
         <v>45192.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6618,43 +6618,43 @@
         <v>49</v>
       </c>
       <c r="K69">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="N69">
-        <v>1.25</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
+        <v>1.875</v>
+      </c>
+      <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
         <v>1.9</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.9</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6663,13 +6663,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>0.875</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.925</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6695,7 +6695,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7315,7 +7315,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
         <v>44</v>
@@ -7493,7 +7493,7 @@
         <v>45200.20833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7582,7 +7582,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950325</v>
+        <v>6950225</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950226</v>
+        <v>6950222</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X84">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950222</v>
+        <v>6950226</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,73 +8027,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L85">
+        <v>3.2</v>
+      </c>
+      <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
         <v>3.3</v>
       </c>
-      <c r="M85">
-        <v>3.5</v>
-      </c>
-      <c r="N85">
-        <v>1.727</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
       <c r="P85">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6950224</v>
+        <v>6950325</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N87">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P87">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6950225</v>
+        <v>6950224</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.20833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8386,7 +8386,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8475,7 +8475,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>45220.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -9095,7 +9095,7 @@
         <v>45220.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9362,10 +9362,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9810,7 +9810,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950239</v>
+        <v>6950240</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="M106">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P106">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
-      </c>
-      <c r="S106">
-        <v>1.95</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N107">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
         <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>-0.5</v>
+      </c>
+      <c r="AA107">
+        <v>0.475</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>48</v>
@@ -10344,7 +10344,7 @@
         <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6950254</v>
+        <v>6950251</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,10 +10430,10 @@
         <v>45234.25</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10445,43 +10445,43 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q112">
         <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="V112">
-        <v>1.85</v>
-      </c>
       <c r="W112">
-        <v>0.6499999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,13 +10490,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6950253</v>
+        <v>6950330</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,10 +10519,10 @@
         <v>45234.25</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10534,34 +10534,34 @@
         <v>50</v>
       </c>
       <c r="K113">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q113">
         <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
         <v>1.875</v>
@@ -10573,13 +10573,13 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950330</v>
+        <v>6950329</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45234.25</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.1</v>
       </c>
       <c r="M114">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6950329</v>
+        <v>6950254</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,10 +10697,10 @@
         <v>45234.25</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10712,58 +10712,58 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N115">
+        <v>1.65</v>
+      </c>
+      <c r="O115">
+        <v>3.5</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
         <v>1.95</v>
       </c>
-      <c r="O115">
-        <v>3.2</v>
-      </c>
-      <c r="P115">
-        <v>3.5</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.875</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.95</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.825</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6950251</v>
+        <v>6950253</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,40 +10786,40 @@
         <v>45234.25</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
         <v>1.8</v>
@@ -10831,16 +10831,16 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10852,10 +10852,10 @@
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>48</v>
@@ -11142,10 +11142,10 @@
         <v>45236.41666666666</v>
       </c>
       <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
-      </c>
-      <c r="G120" t="s">
-        <v>41</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>45240.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11412,7 +11412,7 @@
         <v>48</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950259</v>
+        <v>6950258</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45241.25</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="N124">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950258</v>
+        <v>6950259</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,76 +11765,76 @@
         <v>45241.25</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="L127">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950263</v>
+        <v>6950331</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,73 +11854,73 @@
         <v>45241.25</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6950331</v>
+        <v>6950263</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,73 +11943,73 @@
         <v>45241.25</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L129">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
+        <v>2.4</v>
+      </c>
+      <c r="O129">
+        <v>3.25</v>
+      </c>
+      <c r="P129">
+        <v>2.6</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
         <v>1.75</v>
       </c>
-      <c r="O129">
-        <v>2.875</v>
-      </c>
-      <c r="P129">
-        <v>5</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12210,10 +12210,10 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12922,10 +12922,10 @@
         <v>45258.5</v>
       </c>
       <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
         <v>40</v>
-      </c>
-      <c r="G140" t="s">
-        <v>39</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13192,7 +13192,7 @@
         <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13278,7 +13278,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>32</v>
@@ -13723,7 +13723,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>45</v>
@@ -13815,7 +13815,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -13990,10 +13990,10 @@
         <v>45346.25</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14527,7 +14527,7 @@
         <v>47</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>45352.5</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -14972,7 +14972,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15150,7 +15150,7 @@
         <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15325,7 +15325,7 @@
         <v>45353.27083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15592,10 +15592,10 @@
         <v>45358.5</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6950303</v>
+        <v>6950305</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45360.25</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O172">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>2.025</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.775</v>
       </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y172">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6950302</v>
+        <v>6950303</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45360.25</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
+        <v>2.025</v>
+      </c>
+      <c r="S173">
+        <v>1.775</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
-      <c r="U173">
-        <v>1.95</v>
-      </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB173">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6950307</v>
+        <v>6950302</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,58 +15948,58 @@
         <v>45360.25</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
         <v>1.825</v>
       </c>
-      <c r="S174">
-        <v>1.975</v>
-      </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16008,16 +16008,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950305</v>
+        <v>6950307</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45360.25</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N175">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P175">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
+        <v>1.775</v>
+      </c>
+      <c r="V175">
         <v>2.025</v>
       </c>
-      <c r="V175">
-        <v>1.775</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X175">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7964081</v>
+        <v>7964082</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,10 +16393,10 @@
         <v>45367.375</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16408,43 +16408,43 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N179">
+        <v>1.363</v>
+      </c>
+      <c r="O179">
+        <v>4.5</v>
+      </c>
+      <c r="P179">
+        <v>6.5</v>
+      </c>
+      <c r="Q179">
+        <v>-1.25</v>
+      </c>
+      <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
         <v>2.75</v>
       </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
-      <c r="P179">
-        <v>2.45</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7964082</v>
+        <v>7964081</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,10 +16482,10 @@
         <v>45367.375</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16497,43 +16497,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16542,16 +16542,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45367.375</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -16749,7 +16749,7 @@
         <v>45367.375</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
         <v>35</v>
@@ -16838,7 +16838,7 @@
         <v>45367.375</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -17019,7 +17019,7 @@
         <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17197,7 +17197,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7984203</v>
+        <v>7984182</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45381.25</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>1.952</v>
+        <v>4.2</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.5</v>
       </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>1.95</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
       <c r="Y189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7984182</v>
+        <v>7984586</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45381.25</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7984586</v>
+        <v>7984203</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,40 +17461,40 @@
         <v>45381.25</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>51</v>
       </c>
       <c r="K191">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>2.375</v>
+        <v>1.952</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
         <v>1.975</v>
@@ -17503,13 +17503,13 @@
         <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17518,7 +17518,7 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z191">
         <v>-1</v>
@@ -17527,10 +17527,10 @@
         <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17553,7 +17553,7 @@
         <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17728,7 +17728,7 @@
         <v>45381.25</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -17909,7 +17909,7 @@
         <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>45388.20833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7984198</v>
+        <v>7984212</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,49 +18262,49 @@
         <v>45388.20833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N200">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O200">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P200">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
         <v>1.975</v>
       </c>
-      <c r="S200">
-        <v>1.825</v>
-      </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U200">
         <v>1.9</v>
@@ -18316,16 +18316,16 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB200">
         <v>-1</v>
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7984212</v>
+        <v>7984198</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,49 +18351,49 @@
         <v>45388.20833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
+        <v>1.727</v>
+      </c>
+      <c r="L201">
+        <v>3.25</v>
+      </c>
+      <c r="M201">
+        <v>4.333</v>
+      </c>
+      <c r="N201">
+        <v>1.7</v>
+      </c>
+      <c r="O201">
+        <v>3.25</v>
+      </c>
+      <c r="P201">
+        <v>4.5</v>
+      </c>
+      <c r="Q201">
+        <v>-0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.825</v>
+      </c>
+      <c r="T201">
         <v>2.25</v>
-      </c>
-      <c r="L201">
-        <v>3</v>
-      </c>
-      <c r="M201">
-        <v>3</v>
-      </c>
-      <c r="N201">
-        <v>2.5</v>
-      </c>
-      <c r="O201">
-        <v>2.9</v>
-      </c>
-      <c r="P201">
-        <v>2.7</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
       </c>
       <c r="U201">
         <v>1.9</v>
@@ -18405,16 +18405,16 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y201">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
         <v>-1</v>
@@ -18529,7 +18529,7 @@
         <v>45389.25</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
         <v>32</v>
@@ -18710,7 +18710,7 @@
         <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18796,7 +18796,7 @@
         <v>45393.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
         <v>42</v>
@@ -18977,7 +18977,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19063,7 +19063,7 @@
         <v>45395.20833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>44</v>
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7984200</v>
+        <v>7984215</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,76 +19152,76 @@
         <v>45395.20833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N210">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="Q210">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7984215</v>
+        <v>7984200</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45395.20833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K211">
+        <v>4.2</v>
+      </c>
+      <c r="L211">
         <v>3.4</v>
       </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
       <c r="M211">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="Q211">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R211">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z211">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19489,524 +19489,6 @@
       </c>
       <c r="AC213">
         <v>0.9750000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>7984218</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F214" t="s">
-        <v>44</v>
-      </c>
-      <c r="G214" t="s">
-        <v>30</v>
-      </c>
-      <c r="K214">
-        <v>1.8</v>
-      </c>
-      <c r="L214">
-        <v>3.1</v>
-      </c>
-      <c r="M214">
-        <v>4.25</v>
-      </c>
-      <c r="N214">
-        <v>1.7</v>
-      </c>
-      <c r="O214">
-        <v>3.2</v>
-      </c>
-      <c r="P214">
-        <v>5</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>1.975</v>
-      </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>7984587</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F215" t="s">
-        <v>37</v>
-      </c>
-      <c r="G215" t="s">
-        <v>43</v>
-      </c>
-      <c r="K215">
-        <v>2.25</v>
-      </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
-      <c r="M215">
-        <v>2.875</v>
-      </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>2.5</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.925</v>
-      </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>7984186</v>
-      </c>
-      <c r="C216" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F216" t="s">
-        <v>45</v>
-      </c>
-      <c r="G216" t="s">
-        <v>46</v>
-      </c>
-      <c r="K216">
-        <v>1.3</v>
-      </c>
-      <c r="L216">
-        <v>4.2</v>
-      </c>
-      <c r="M216">
-        <v>9</v>
-      </c>
-      <c r="N216">
-        <v>1.444</v>
-      </c>
-      <c r="O216">
-        <v>3.75</v>
-      </c>
-      <c r="P216">
-        <v>7</v>
-      </c>
-      <c r="Q216">
-        <v>-1.25</v>
-      </c>
-      <c r="R216">
-        <v>2.05</v>
-      </c>
-      <c r="S216">
-        <v>1.75</v>
-      </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>2</v>
-      </c>
-      <c r="V216">
-        <v>1.8</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>7984187</v>
-      </c>
-      <c r="C217" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" t="s">
-        <v>28</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F217" t="s">
-        <v>48</v>
-      </c>
-      <c r="G217" t="s">
-        <v>31</v>
-      </c>
-      <c r="K217">
-        <v>1.727</v>
-      </c>
-      <c r="L217">
-        <v>3.25</v>
-      </c>
-      <c r="M217">
-        <v>4.5</v>
-      </c>
-      <c r="N217">
-        <v>1.727</v>
-      </c>
-      <c r="O217">
-        <v>3.25</v>
-      </c>
-      <c r="P217">
-        <v>4.5</v>
-      </c>
-      <c r="Q217">
-        <v>-0.5</v>
-      </c>
-      <c r="R217">
-        <v>1.8</v>
-      </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
-      <c r="T217">
-        <v>2.25</v>
-      </c>
-      <c r="U217">
-        <v>1.925</v>
-      </c>
-      <c r="V217">
-        <v>1.875</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>7984205</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F218" t="s">
-        <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>29</v>
-      </c>
-      <c r="K218">
-        <v>1.615</v>
-      </c>
-      <c r="L218">
-        <v>3.4</v>
-      </c>
-      <c r="M218">
-        <v>5</v>
-      </c>
-      <c r="N218">
-        <v>1.909</v>
-      </c>
-      <c r="O218">
-        <v>3</v>
-      </c>
-      <c r="P218">
-        <v>4.2</v>
-      </c>
-      <c r="Q218">
-        <v>-0.5</v>
-      </c>
-      <c r="R218">
-        <v>1.925</v>
-      </c>
-      <c r="S218">
-        <v>1.875</v>
-      </c>
-      <c r="T218">
-        <v>2</v>
-      </c>
-      <c r="U218">
-        <v>1.9</v>
-      </c>
-      <c r="V218">
-        <v>1.9</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>7984217</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45402.20833333334</v>
-      </c>
-      <c r="F219" t="s">
-        <v>33</v>
-      </c>
-      <c r="G219" t="s">
-        <v>40</v>
-      </c>
-      <c r="K219">
-        <v>4.333</v>
-      </c>
-      <c r="L219">
-        <v>3.3</v>
-      </c>
-      <c r="M219">
-        <v>1.727</v>
-      </c>
-      <c r="N219">
-        <v>3.75</v>
-      </c>
-      <c r="O219">
-        <v>3.1</v>
-      </c>
-      <c r="P219">
-        <v>1.909</v>
-      </c>
-      <c r="Q219">
-        <v>0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.825</v>
-      </c>
-      <c r="S219">
-        <v>1.975</v>
-      </c>
-      <c r="T219">
-        <v>2.25</v>
-      </c>
-      <c r="U219">
-        <v>1.9</v>
-      </c>
-      <c r="V219">
-        <v>1.9</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7983411</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45402.27083333334</v>
-      </c>
-      <c r="F220" t="s">
-        <v>35</v>
-      </c>
-      <c r="G220" t="s">
-        <v>36</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3</v>
-      </c>
-      <c r="M220">
-        <v>3.9</v>
-      </c>
-      <c r="N220">
-        <v>2.3</v>
-      </c>
-      <c r="O220">
-        <v>2.875</v>
-      </c>
-      <c r="P220">
-        <v>3</v>
-      </c>
-      <c r="Q220">
-        <v>-0.25</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
-      <c r="S220">
-        <v>1.775</v>
-      </c>
-      <c r="T220">
-        <v>2</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7983285</t>
+  </si>
+  <si>
     <t>Romania Liga 2</t>
+  </si>
+  <si>
+    <t>Metaloglobus Bucuresti</t>
   </si>
   <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
-    <t>Metaloglobus Bucuresti</t>
-  </si>
-  <si>
     <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
-    <t>Unirea Dej</t>
+    <t>CS Tunari</t>
   </si>
   <si>
-    <t>CS Tunari</t>
+    <t>Unirea Dej</t>
   </si>
   <si>
     <t>Scolar Resita</t>
@@ -531,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB227"/>
+  <dimension ref="A1:AB228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,64 +628,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6950153</v>
+        <v>6950152</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L2">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
         <v>3.25</v>
       </c>
       <c r="O2">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
         <v>2.25</v>
       </c>
       <c r="T2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
         <v>-1</v>
@@ -691,19 +694,19 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -711,64 +714,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950152</v>
+        <v>6950153</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N3">
         <v>3.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
         <v>2.25</v>
       </c>
       <c r="T3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
         <v>-1</v>
@@ -777,19 +780,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -800,16 +803,16 @@
         <v>6950156</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>4.8</v>
@@ -883,85 +886,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6949463</v>
+        <v>6950151</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q5">
+        <v>1.85</v>
+      </c>
+      <c r="R5">
         <v>1.95</v>
       </c>
-      <c r="R5">
-        <v>1.85</v>
-      </c>
       <c r="S5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -969,85 +972,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6950151</v>
+        <v>6949463</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3.2</v>
+      </c>
+      <c r="L6">
+        <v>3.3</v>
+      </c>
+      <c r="M6">
+        <v>1.7</v>
+      </c>
+      <c r="N6">
+        <v>3.5</v>
+      </c>
+      <c r="O6">
+        <v>4.2</v>
+      </c>
+      <c r="P6">
+        <v>-0.75</v>
+      </c>
+      <c r="Q6">
+        <v>1.95</v>
+      </c>
+      <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>2.5</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>2.6</v>
-      </c>
-      <c r="M6">
-        <v>2.5</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>2.6</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1.85</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>2.25</v>
-      </c>
       <c r="T6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1058,16 +1061,16 @@
         <v>6950155</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1076,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1144,16 +1147,16 @@
         <v>6950154</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45144.25</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1162,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>2.2</v>
@@ -1230,16 +1233,16 @@
         <v>6950150</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45146.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>3.75</v>
@@ -1316,16 +1319,16 @@
         <v>6950318</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45146.625</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1334,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>2.3</v>
@@ -1402,16 +1405,16 @@
         <v>6950160</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1420,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1488,16 +1491,16 @@
         <v>6949941</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1506,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>1.615</v>
@@ -1574,16 +1577,16 @@
         <v>6950163</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>1.571</v>
@@ -1660,16 +1663,16 @@
         <v>6950162</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1678,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>2.3</v>
@@ -1746,13 +1749,13 @@
         <v>6950158</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1832,16 +1835,16 @@
         <v>6949942</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1918,16 +1921,16 @@
         <v>6950320</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45150.25</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>3.2</v>
@@ -2004,13 +2007,13 @@
         <v>6950157</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45150.25</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -2022,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2090,16 +2093,16 @@
         <v>6950161</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45151.25</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>2.2</v>
@@ -2176,16 +2179,16 @@
         <v>7062921</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45152.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>4.5</v>
@@ -2262,16 +2265,16 @@
         <v>6950173</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2280,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.45</v>
@@ -2348,7 +2351,7 @@
         <v>6950171</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45157.20833333334</v>
@@ -2357,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2366,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>2.25</v>
@@ -2434,16 +2437,16 @@
         <v>6950166</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2452,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>2.375</v>
@@ -2520,16 +2523,16 @@
         <v>6950167</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2538,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.5</v>
@@ -2606,16 +2609,16 @@
         <v>6950164</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2624,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>7</v>
@@ -2692,16 +2695,16 @@
         <v>6950165</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45157.25</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2710,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2778,16 +2781,16 @@
         <v>6950168</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45158.20833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2796,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>2.7</v>
@@ -2864,7 +2867,7 @@
         <v>6950169</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45158.20833333334</v>
@@ -2873,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2882,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2950,16 +2953,16 @@
         <v>6950172</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45158.25</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2968,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.9</v>
@@ -3036,16 +3039,16 @@
         <v>7049392</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45160.54166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3054,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3122,16 +3125,16 @@
         <v>6950180</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3140,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>2.25</v>
@@ -3208,16 +3211,16 @@
         <v>6950174</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3226,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -3294,16 +3297,16 @@
         <v>6950181</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3312,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J33">
         <v>1.8</v>
@@ -3380,16 +3383,16 @@
         <v>6950321</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3398,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>2.25</v>
@@ -3466,13 +3469,13 @@
         <v>6950177</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
@@ -3484,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3549,82 +3552,82 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950176</v>
+        <v>6950178</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J36">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L36">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M36">
+        <v>1.615</v>
+      </c>
+      <c r="N36">
+        <v>3.25</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>-0.75</v>
+      </c>
+      <c r="Q36">
+        <v>1.85</v>
+      </c>
+      <c r="R36">
         <v>1.95</v>
       </c>
-      <c r="N36">
-        <v>2.9</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>-0.5</v>
-      </c>
-      <c r="Q36">
-        <v>1.975</v>
-      </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3638,16 +3641,16 @@
         <v>6950179</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3656,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3721,82 +3724,82 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950178</v>
+        <v>6950176</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>2.375</v>
+      </c>
+      <c r="K38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38">
-        <v>1.727</v>
-      </c>
-      <c r="K38">
-        <v>3.25</v>
-      </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M38">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N38">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V38">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3810,16 +3813,16 @@
         <v>6950182</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45165.20833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3828,7 +3831,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>5.5</v>
@@ -3896,16 +3899,16 @@
         <v>6950175</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45165.20833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3914,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>1.571</v>
@@ -3982,16 +3985,16 @@
         <v>6950184</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4000,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>1.333</v>
@@ -4065,85 +4068,85 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950191</v>
+        <v>6950185</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J42">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O42">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <v>0.25</v>
       </c>
       <c r="Q42">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T42">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U42">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X42">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z42">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4154,16 +4157,16 @@
         <v>6950183</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4172,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>2.6</v>
@@ -4237,22 +4240,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6950185</v>
+        <v>6950191</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4261,61 +4264,61 @@
         <v>50</v>
       </c>
       <c r="J44">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M44">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P44">
         <v>0.25</v>
       </c>
       <c r="Q44">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V44">
         <v>-1</v>
       </c>
       <c r="W44">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y44">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4326,16 +4329,16 @@
         <v>6950190</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45171.25</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4344,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45">
         <v>3.3</v>
@@ -4412,16 +4415,16 @@
         <v>6950186</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4430,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -4498,7 +4501,7 @@
         <v>6950187</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45172.20833333334</v>
@@ -4507,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4516,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4584,7 +4587,7 @@
         <v>6950189</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45172.20833333334</v>
@@ -4593,7 +4596,7 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4602,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4670,16 +4673,16 @@
         <v>6950188</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4688,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4756,16 +4759,16 @@
         <v>6950192</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45174.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4774,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4842,16 +4845,16 @@
         <v>7167356</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45181.20833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4860,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>3.1</v>
@@ -4928,16 +4931,16 @@
         <v>6950193</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45183.60416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4946,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5014,17 +5017,17 @@
         <v>6950202</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
         <v>34</v>
       </c>
-      <c r="F53" t="s">
-        <v>33</v>
-      </c>
       <c r="G53">
         <v>2</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>1.909</v>
@@ -5100,16 +5103,16 @@
         <v>6950199</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5118,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -5186,16 +5189,16 @@
         <v>6950195</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5204,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5272,13 +5275,13 @@
         <v>6950198</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
         <v>32</v>
@@ -5290,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>1.85</v>
@@ -5358,13 +5361,13 @@
         <v>6950197</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
         <v>29</v>
@@ -5376,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>1.85</v>
@@ -5441,85 +5444,85 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950201</v>
+        <v>6950194</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J58">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
         <v>3.2</v>
       </c>
-      <c r="L58">
-        <v>1.85</v>
-      </c>
       <c r="M58">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
         <v>3.2</v>
       </c>
-      <c r="O58">
-        <v>1.85</v>
-      </c>
       <c r="P58">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
+        <v>1.925</v>
+      </c>
+      <c r="R58">
         <v>1.875</v>
       </c>
-      <c r="R58">
-        <v>1.925</v>
-      </c>
       <c r="S58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
         <v>-1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5527,85 +5530,85 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950194</v>
+        <v>6950201</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>50</v>
       </c>
       <c r="J59">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
+        <v>1.85</v>
+      </c>
+      <c r="M59">
+        <v>3.8</v>
+      </c>
+      <c r="N59">
         <v>3.2</v>
       </c>
-      <c r="M59">
-        <v>2.15</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q59">
+        <v>1.875</v>
+      </c>
+      <c r="R59">
         <v>1.925</v>
       </c>
-      <c r="R59">
-        <v>1.875</v>
-      </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5616,16 +5619,16 @@
         <v>7180898</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45187.42708333334</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5634,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -5702,16 +5705,16 @@
         <v>7180897</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45188.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5720,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J61">
         <v>2.625</v>
@@ -5788,16 +5791,16 @@
         <v>6950210</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45191.41666666666</v>
       </c>
       <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
         <v>41</v>
-      </c>
-      <c r="F62" t="s">
-        <v>40</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5806,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5871,67 +5874,67 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950206</v>
+        <v>6950205</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
         <v>1</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J63">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="K63">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="M63">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -5940,16 +5943,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5960,16 +5963,16 @@
         <v>6950203</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5978,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>3.3</v>
@@ -6043,67 +6046,67 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950205</v>
+        <v>6950206</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J65">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="M65">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O65">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="P65">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6112,16 +6115,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6132,16 +6135,16 @@
         <v>6950323</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6150,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>1.8</v>
@@ -6215,19 +6218,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950204</v>
+        <v>6950207</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6236,34 +6239,34 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J67">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L67">
+        <v>2.5</v>
+      </c>
+      <c r="M67">
         <v>2.1</v>
       </c>
-      <c r="M67">
-        <v>3.8</v>
-      </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
         <v>2.25</v>
@@ -6275,7 +6278,7 @@
         <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6284,7 +6287,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6301,82 +6304,82 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950207</v>
+        <v>6950209</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J68">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="K68">
         <v>2.875</v>
       </c>
       <c r="L68">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="M68">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="P68">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S68">
         <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6387,82 +6390,82 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6950209</v>
+        <v>6950204</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J69">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N69">
         <v>3.1</v>
       </c>
       <c r="O69">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="P69">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6476,16 +6479,16 @@
         <v>6950208</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45193.22916666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6494,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2.875</v>
@@ -6562,16 +6565,16 @@
         <v>7212017</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45194.5</v>
       </c>
       <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
         <v>43</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6580,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>1.8</v>
@@ -6648,16 +6651,16 @@
         <v>6950215</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45198.5</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6666,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6734,16 +6737,16 @@
         <v>6950220</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6752,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6820,13 +6823,13 @@
         <v>6950218</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
         <v>32</v>
@@ -6838,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>2.75</v>
@@ -6903,85 +6906,85 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950211</v>
+        <v>6950216</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>51</v>
       </c>
       <c r="J75">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="P75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T75">
+        <v>1.85</v>
+      </c>
+      <c r="U75">
         <v>1.95</v>
       </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
       <c r="V75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>-0.5</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6989,10 +6992,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950216</v>
+        <v>6950211</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45199.20833333334</v>
@@ -7001,73 +7004,73 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J76">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K76">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
+        <v>1.95</v>
+      </c>
+      <c r="U76">
         <v>1.85</v>
       </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W76">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7078,16 +7081,16 @@
         <v>6950217</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7096,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>2.5</v>
@@ -7164,16 +7167,16 @@
         <v>6950213</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.25</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7182,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7250,16 +7253,16 @@
         <v>6950214</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45200.20833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7268,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>1.666</v>
@@ -7336,16 +7339,16 @@
         <v>6950212</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45200.27083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -7354,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7422,16 +7425,16 @@
         <v>7247667</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45201.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7440,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7508,16 +7511,16 @@
         <v>7247668</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45204.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7526,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7594,16 +7597,16 @@
         <v>6950225</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7612,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>2.4</v>
@@ -7680,16 +7683,16 @@
         <v>6950221</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7698,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J84">
         <v>3.5</v>
@@ -7766,17 +7769,17 @@
         <v>6950226</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
         <v>45</v>
       </c>
-      <c r="F85" t="s">
-        <v>44</v>
-      </c>
       <c r="G85">
         <v>2</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <v>2.75</v>
@@ -7852,16 +7855,16 @@
         <v>6950325</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7870,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>1.2</v>
@@ -7938,16 +7941,16 @@
         <v>6950222</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7956,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8024,7 +8027,7 @@
         <v>6950224</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45206.20833333334</v>
@@ -8033,7 +8036,7 @@
         <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8042,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>2.8</v>
@@ -8110,16 +8113,16 @@
         <v>6950228</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45206.22916666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8128,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>2.9</v>
@@ -8196,16 +8199,16 @@
         <v>6950227</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45207.22916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8214,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.5</v>
@@ -8282,7 +8285,7 @@
         <v>7247669</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45208.41666666666</v>
@@ -8291,7 +8294,7 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8300,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J91">
         <v>2.9</v>
@@ -8368,16 +8371,16 @@
         <v>6950231</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45219.5</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8386,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J92">
         <v>2.625</v>
@@ -8454,13 +8457,13 @@
         <v>6950236</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
         <v>32</v>
@@ -8472,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>1.909</v>
@@ -8540,13 +8543,13 @@
         <v>6950234</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
         <v>29</v>
@@ -8558,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>4</v>
@@ -8626,16 +8629,16 @@
         <v>6950233</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8644,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>1.571</v>
@@ -8712,16 +8715,16 @@
         <v>6950232</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8730,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>1.909</v>
@@ -8798,16 +8801,16 @@
         <v>6950230</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45220.22916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8816,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>2.4</v>
@@ -8884,16 +8887,16 @@
         <v>6950237</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8902,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8970,16 +8973,16 @@
         <v>6950235</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9056,16 +9059,16 @@
         <v>7335189</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9074,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>2.4</v>
@@ -9142,16 +9145,16 @@
         <v>7335362</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45223.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9160,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>1.666</v>
@@ -9228,16 +9231,16 @@
         <v>6950328</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45225.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9246,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>1.85</v>
@@ -9314,16 +9317,16 @@
         <v>6950238</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9332,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -9400,16 +9403,16 @@
         <v>6950240</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -9418,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.55</v>
@@ -9486,16 +9489,16 @@
         <v>6950242</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9504,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1.55</v>
@@ -9572,7 +9575,7 @@
         <v>6950241</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45227.20833333334</v>
@@ -9581,7 +9584,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9590,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>2.8</v>
@@ -9658,7 +9661,7 @@
         <v>6950239</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45227.20833333334</v>
@@ -9667,7 +9670,7 @@
         <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9676,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J107">
         <v>2.45</v>
@@ -9744,16 +9747,16 @@
         <v>6950244</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -9830,16 +9833,16 @@
         <v>6950243</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9848,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>4.2</v>
@@ -9916,16 +9919,16 @@
         <v>6950246</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45228.27083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9934,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -10002,16 +10005,16 @@
         <v>7335361</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45229.4375</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10020,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10088,16 +10091,16 @@
         <v>6950253</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45234.25</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10106,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J112">
         <v>3.3</v>
@@ -10174,16 +10177,16 @@
         <v>6950330</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45234.25</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10192,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>2.8</v>
@@ -10260,13 +10263,13 @@
         <v>6950254</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45234.25</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
         <v>32</v>
@@ -10278,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.75</v>
@@ -10346,16 +10349,16 @@
         <v>6950329</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45234.25</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10364,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -10432,16 +10435,16 @@
         <v>6950251</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45234.25</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10450,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>1.571</v>
@@ -10518,16 +10521,16 @@
         <v>6950247</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45234.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10536,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10604,16 +10607,16 @@
         <v>6950250</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45235.25</v>
       </c>
       <c r="E118" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" t="s">
         <v>46</v>
-      </c>
-      <c r="F118" t="s">
-        <v>45</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10622,7 +10625,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>3.4</v>
@@ -10690,16 +10693,16 @@
         <v>6950249</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10708,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10776,16 +10779,16 @@
         <v>7335190</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10794,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10862,17 +10865,17 @@
         <v>6950256</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45239.60416666666</v>
       </c>
       <c r="E121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" t="s">
         <v>36</v>
       </c>
-      <c r="F121" t="s">
-        <v>35</v>
-      </c>
       <c r="G121">
         <v>0</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>2.25</v>
@@ -10948,16 +10951,16 @@
         <v>6950261</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45240.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10966,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11034,16 +11037,16 @@
         <v>6950262</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45240.54166666666</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11052,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>3.25</v>
@@ -11120,16 +11123,16 @@
         <v>6950331</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45241.25</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11138,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>2.15</v>
@@ -11206,7 +11209,7 @@
         <v>6950257</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45241.25</v>
@@ -11215,7 +11218,7 @@
         <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11224,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>2.7</v>
@@ -11292,16 +11295,16 @@
         <v>6950263</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45241.25</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11310,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>3.1</v>
@@ -11378,7 +11381,7 @@
         <v>6950255</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45241.25</v>
@@ -11387,7 +11390,7 @@
         <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11396,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11464,16 +11467,16 @@
         <v>6950258</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45241.25</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11482,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>6.2</v>
@@ -11550,16 +11553,16 @@
         <v>6950259</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45241.25</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11568,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.3</v>
@@ -11636,16 +11639,16 @@
         <v>7432100</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45243.52083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11654,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1.615</v>
@@ -11722,16 +11725,16 @@
         <v>6950333</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45253.60416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11740,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.7</v>
@@ -11808,16 +11811,16 @@
         <v>6950271</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45254.39583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11826,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>3.1</v>
@@ -11894,16 +11897,16 @@
         <v>6950332</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45255.25</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11912,7 +11915,7 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>8.5</v>
@@ -11980,13 +11983,13 @@
         <v>6950268</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45255.25</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
         <v>29</v>
@@ -11998,7 +12001,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12066,16 +12069,16 @@
         <v>6950266</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45255.25</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12084,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J135">
         <v>1.85</v>
@@ -12152,16 +12155,16 @@
         <v>6950264</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45255.25</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12170,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>1.833</v>
@@ -12238,7 +12241,7 @@
         <v>6950269</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45255.27083333334</v>
@@ -12247,7 +12250,7 @@
         <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12256,7 +12259,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>3.75</v>
@@ -12324,16 +12327,16 @@
         <v>7510258</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45256.25</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12342,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>2</v>
@@ -12410,16 +12413,16 @@
         <v>6950265</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45256.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12428,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12496,17 +12499,17 @@
         <v>7482813</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45258.5</v>
       </c>
       <c r="E140" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" t="s">
         <v>38</v>
       </c>
-      <c r="F140" t="s">
-        <v>37</v>
-      </c>
       <c r="G140">
         <v>0</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J140">
         <v>1.909</v>
@@ -12582,16 +12585,16 @@
         <v>6950276</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45260.375</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12600,7 +12603,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>1.8</v>
@@ -12668,16 +12671,16 @@
         <v>6950277</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45260.52083333334</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12686,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J142">
         <v>2.2</v>
@@ -12754,16 +12757,16 @@
         <v>6950335</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45260.625</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12772,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12840,16 +12843,16 @@
         <v>6950278</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45261.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12858,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.75</v>
@@ -12926,16 +12929,16 @@
         <v>6950334</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45262.25</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13012,7 +13015,7 @@
         <v>6950273</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45262.25</v>
@@ -13030,7 +13033,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J146">
         <v>1.666</v>
@@ -13098,16 +13101,16 @@
         <v>6950274</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45262.25</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13116,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>3.75</v>
@@ -13184,16 +13187,16 @@
         <v>6950275</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45262.25</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13202,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>2.7</v>
@@ -13270,16 +13273,16 @@
         <v>6950279</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45262.27083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13288,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.2</v>
@@ -13356,16 +13359,16 @@
         <v>6950272</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45263.27083333334</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13374,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>2.4</v>
@@ -13442,16 +13445,16 @@
         <v>6950280</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45344.60416666666</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13460,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>1.85</v>
@@ -13528,16 +13531,16 @@
         <v>6950281</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45346.25</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13546,7 +13549,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>3.75</v>
@@ -13614,7 +13617,7 @@
         <v>6950288</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45346.25</v>
@@ -13623,7 +13626,7 @@
         <v>32</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13632,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.1</v>
@@ -13700,16 +13703,16 @@
         <v>6950284</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45346.25</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>3</v>
@@ -13718,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13786,16 +13789,16 @@
         <v>6950285</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45346.25</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -13804,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>3.4</v>
@@ -13872,16 +13875,16 @@
         <v>6950287</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45346.25</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13890,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.5</v>
@@ -13958,13 +13961,13 @@
         <v>6950289</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45346.27083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
         <v>29</v>
@@ -13976,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14044,16 +14047,16 @@
         <v>6950283</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45347.375</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14062,7 +14065,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>11</v>
@@ -14130,16 +14133,16 @@
         <v>6950286</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45347.5</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14148,7 +14151,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>3.1</v>
@@ -14216,16 +14219,16 @@
         <v>7820668</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45348.5</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14234,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>2.6</v>
@@ -14302,16 +14305,16 @@
         <v>6950296</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45352.5</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14320,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14388,16 +14391,16 @@
         <v>6950295</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45353.25</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14406,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>2.4</v>
@@ -14474,16 +14477,16 @@
         <v>6950337</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45353.25</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14492,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>1.444</v>
@@ -14560,13 +14563,13 @@
         <v>6950292</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45353.25</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
         <v>32</v>
@@ -14578,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.4</v>
@@ -14646,16 +14649,16 @@
         <v>6950291</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45353.25</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14664,7 +14667,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>3.6</v>
@@ -14732,7 +14735,7 @@
         <v>6950290</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45353.25</v>
@@ -14741,7 +14744,7 @@
         <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14750,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>3.1</v>
@@ -14818,16 +14821,16 @@
         <v>6950297</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45353.27083333334</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14836,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>1.85</v>
@@ -14904,16 +14907,16 @@
         <v>6950293</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45354.29166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14922,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14990,16 +14993,16 @@
         <v>7820669</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45356.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -15008,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>1.6</v>
@@ -15076,16 +15079,16 @@
         <v>6950298</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45358.5</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15094,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>1.5</v>
@@ -15159,67 +15162,67 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950306</v>
+        <v>6950307</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45360.25</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J171">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="K171">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L171">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
+        <v>3.1</v>
+      </c>
+      <c r="O171">
         <v>4.333</v>
       </c>
-      <c r="O171">
-        <v>6.5</v>
-      </c>
       <c r="P171">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15228,13 +15231,13 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB171">
         <v>-1</v>
@@ -15248,16 +15251,16 @@
         <v>6950303</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45360.25</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15266,7 +15269,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>2.2</v>
@@ -15334,16 +15337,16 @@
         <v>6950302</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45360.25</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15352,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J173">
         <v>2.875</v>
@@ -15420,7 +15423,7 @@
         <v>6950305</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45360.25</v>
@@ -15429,7 +15432,7 @@
         <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15438,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>3.5</v>
@@ -15503,67 +15506,67 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950307</v>
+        <v>6950306</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45360.25</v>
       </c>
       <c r="E175" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J175">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="K175">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P175">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q175">
+        <v>1.9</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>2.5</v>
+      </c>
+      <c r="T175">
+        <v>1.975</v>
+      </c>
+      <c r="U175">
         <v>1.825</v>
       </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>1.775</v>
-      </c>
-      <c r="U175">
-        <v>2.025</v>
-      </c>
       <c r="V175">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15572,13 +15575,13 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -15592,16 +15595,16 @@
         <v>6950301</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45360.29166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15610,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>1.909</v>
@@ -15678,16 +15681,16 @@
         <v>6950299</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45361.29166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15696,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15764,16 +15767,16 @@
         <v>7917238</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45362.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15782,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15850,16 +15853,16 @@
         <v>7964079</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45367.375</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15868,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>3</v>
@@ -15936,16 +15939,16 @@
         <v>7964087</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45367.375</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15954,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J180">
         <v>3.8</v>
@@ -16022,16 +16025,16 @@
         <v>7964086</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45367.375</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16040,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>2.3</v>
@@ -16108,16 +16111,16 @@
         <v>7964085</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45367.375</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16126,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>1.909</v>
@@ -16194,13 +16197,13 @@
         <v>7964082</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45367.375</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
         <v>32</v>
@@ -16212,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16280,16 +16283,16 @@
         <v>7964081</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45367.375</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16298,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>2.8</v>
@@ -16366,16 +16369,16 @@
         <v>7964083</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45367.375</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16384,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>3</v>
@@ -16452,16 +16455,16 @@
         <v>7964084</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45367.375</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186">
         <v>5</v>
@@ -16470,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>1.4</v>
@@ -16538,13 +16541,13 @@
         <v>7964080</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45367.375</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
         <v>29</v>
@@ -16556,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>3.25</v>
@@ -16624,16 +16627,16 @@
         <v>7983278</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45379.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16642,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>2.45</v>
@@ -16710,7 +16713,7 @@
         <v>7984586</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45381.25</v>
@@ -16719,7 +16722,7 @@
         <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16728,7 +16731,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.75</v>
@@ -16796,16 +16799,16 @@
         <v>7984203</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45381.25</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16814,7 +16817,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J190">
         <v>3.3</v>
@@ -16882,13 +16885,13 @@
         <v>7983804</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45381.25</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
         <v>29</v>
@@ -16900,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>2</v>
@@ -16968,16 +16971,16 @@
         <v>7984182</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45381.25</v>
       </c>
       <c r="E192" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" t="s">
         <v>33</v>
-      </c>
-      <c r="F192" t="s">
-        <v>31</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16986,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>1.727</v>
@@ -17054,16 +17057,16 @@
         <v>7983803</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45381.25</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17072,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>2.45</v>
@@ -17140,16 +17143,16 @@
         <v>7983405</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45381.25</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17158,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>2</v>
@@ -17226,16 +17229,16 @@
         <v>7983802</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45383.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17244,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>2.25</v>
@@ -17312,16 +17315,16 @@
         <v>7983279</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17330,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>2.6</v>
@@ -17395,67 +17398,67 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7984183</v>
+        <v>7984184</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J197">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K197">
         <v>3.1</v>
       </c>
       <c r="L197">
+        <v>2.4</v>
+      </c>
+      <c r="M197">
         <v>3</v>
       </c>
-      <c r="M197">
+      <c r="N197">
+        <v>3.1</v>
+      </c>
+      <c r="O197">
+        <v>2.2</v>
+      </c>
+      <c r="P197">
+        <v>0.25</v>
+      </c>
+      <c r="Q197">
+        <v>1.85</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
         <v>2.25</v>
       </c>
-      <c r="N197">
-        <v>3</v>
-      </c>
-      <c r="O197">
-        <v>3</v>
-      </c>
-      <c r="P197">
-        <v>-0.25</v>
-      </c>
-      <c r="Q197">
-        <v>2</v>
-      </c>
-      <c r="R197">
-        <v>1.8</v>
-      </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
       <c r="T197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -17464,16 +17467,16 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17484,7 +17487,7 @@
         <v>7984198</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45388.20833333334</v>
@@ -17493,7 +17496,7 @@
         <v>29</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17502,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J198">
         <v>1.727</v>
@@ -17567,85 +17570,85 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7984184</v>
+        <v>7984211</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="s">
         <v>51</v>
       </c>
       <c r="J199">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K199">
         <v>3.1</v>
       </c>
       <c r="L199">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N199">
         <v>3.1</v>
       </c>
       <c r="O199">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q199">
+        <v>1.95</v>
+      </c>
+      <c r="R199">
         <v>1.85</v>
       </c>
-      <c r="R199">
-        <v>1.95</v>
-      </c>
       <c r="S199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z199">
-        <v>-1</v>
-      </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB199">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17653,85 +17656,85 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7984211</v>
+        <v>7984183</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J200">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K200">
         <v>3.1</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N200">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q200">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
         <v>2</v>
       </c>
       <c r="T200">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB200">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17742,16 +17745,16 @@
         <v>7984212</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -17760,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>2.25</v>
@@ -17828,16 +17831,16 @@
         <v>7983406</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45388.22916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17846,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17914,16 +17917,16 @@
         <v>7984180</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45389.25</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17932,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>2</v>
@@ -18000,16 +18003,16 @@
         <v>7983408</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18018,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J204">
         <v>2.1</v>
@@ -18086,16 +18089,16 @@
         <v>8074523</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18104,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J205">
         <v>2.375</v>
@@ -18172,16 +18175,16 @@
         <v>7983280</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45393.54166666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18190,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>1.909</v>
@@ -18258,16 +18261,16 @@
         <v>7984215</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18276,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18344,16 +18347,16 @@
         <v>7984216</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18362,7 +18365,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>1.833</v>
@@ -18430,16 +18433,16 @@
         <v>7984200</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18448,7 +18451,7 @@
         <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>4.2</v>
@@ -18516,16 +18519,16 @@
         <v>7984199</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18534,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>2.5</v>
@@ -18602,13 +18605,13 @@
         <v>7984185</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
         <v>29</v>
@@ -18620,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>2.25</v>
@@ -18688,16 +18691,16 @@
         <v>7983410</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45395.25</v>
       </c>
       <c r="E212" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18706,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>2.55</v>
@@ -18774,16 +18777,16 @@
         <v>8061349</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18792,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>2.625</v>
@@ -18860,16 +18863,16 @@
         <v>7984218</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18878,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J214">
         <v>1.8</v>
@@ -18946,7 +18949,7 @@
         <v>7984205</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45402.20833333334</v>
@@ -18955,7 +18958,7 @@
         <v>29</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18964,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>1.615</v>
@@ -19029,22 +19032,22 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7984186</v>
+        <v>7984587</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E216" t="s">
+        <v>37</v>
+      </c>
+      <c r="F216" t="s">
         <v>44</v>
       </c>
-      <c r="F216" t="s">
-        <v>45</v>
-      </c>
       <c r="G216">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19053,61 +19056,61 @@
         <v>51</v>
       </c>
       <c r="J216">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="K216">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="M216">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="N216">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O216">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="P216">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T216">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19115,85 +19118,85 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7984587</v>
+        <v>7984186</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E217" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J217">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="K217">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L217">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="M217">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="N217">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O217">
+        <v>7</v>
+      </c>
+      <c r="P217">
+        <v>-1.25</v>
+      </c>
+      <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
+        <v>1.8</v>
+      </c>
+      <c r="S217">
         <v>2.5</v>
       </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>1.925</v>
-      </c>
-      <c r="R217">
-        <v>1.875</v>
-      </c>
-      <c r="S217">
-        <v>2.25</v>
-      </c>
       <c r="T217">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W217">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19201,64 +19204,64 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7984187</v>
+        <v>7984217</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J218">
+        <v>4.333</v>
+      </c>
+      <c r="K218">
+        <v>3.3</v>
+      </c>
+      <c r="L218">
         <v>1.727</v>
       </c>
-      <c r="K218">
-        <v>3.25</v>
-      </c>
-      <c r="L218">
-        <v>4.5</v>
-      </c>
       <c r="M218">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N218">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="P218">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q218">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
         <v>2.25</v>
       </c>
       <c r="T218">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
         <v>-1</v>
@@ -19267,19 +19270,19 @@
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19287,64 +19290,64 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7984217</v>
+        <v>7984187</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
         <v>1</v>
       </c>
-      <c r="H219">
-        <v>2</v>
-      </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J219">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="K219">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L219">
+        <v>4.5</v>
+      </c>
+      <c r="M219">
         <v>1.727</v>
       </c>
-      <c r="M219">
-        <v>3.75</v>
-      </c>
       <c r="N219">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O219">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P219">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S219">
         <v>2.25</v>
       </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
         <v>-1</v>
@@ -19353,19 +19356,19 @@
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19376,16 +19379,16 @@
         <v>7983411</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19394,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J220">
         <v>1.909</v>
@@ -19462,16 +19465,16 @@
         <v>7983412</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45403.20833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19480,7 +19483,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J221">
         <v>2.6</v>
@@ -19548,16 +19551,16 @@
         <v>7983282</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19566,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J222">
         <v>2.1</v>
@@ -19634,16 +19637,16 @@
         <v>7983414</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19652,7 +19655,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J223">
         <v>2.5</v>
@@ -19720,16 +19723,16 @@
         <v>8135626</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19738,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J224">
         <v>3</v>
@@ -19806,16 +19809,16 @@
         <v>7983283</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19824,7 +19827,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J225">
         <v>2.2</v>
@@ -19892,16 +19895,16 @@
         <v>7983284</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45410.20833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19910,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J226">
         <v>1.833</v>
@@ -19978,16 +19981,16 @@
         <v>8130880</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45411.375</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19996,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>1.909</v>
@@ -20054,6 +20057,71 @@
       </c>
       <c r="AB227">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45415.45833333334</v>
+      </c>
+      <c r="E228" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" t="s">
+        <v>41</v>
+      </c>
+      <c r="J228">
+        <v>2.625</v>
+      </c>
+      <c r="K228">
+        <v>3.2</v>
+      </c>
+      <c r="L228">
+        <v>2.4</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>3.2</v>
+      </c>
+      <c r="O228">
+        <v>2.15</v>
+      </c>
+      <c r="P228">
+        <v>0.25</v>
+      </c>
+      <c r="Q228">
+        <v>1.85</v>
+      </c>
+      <c r="R228">
+        <v>1.95</v>
+      </c>
+      <c r="S228">
+        <v>2.25</v>
+      </c>
+      <c r="T228">
+        <v>2.025</v>
+      </c>
+      <c r="U228">
+        <v>1.775</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -97,25 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7983285</t>
+    <t>7983417</t>
   </si>
   <si>
     <t>Romania Liga 2</t>
   </si>
   <si>
-    <t>Metaloglobus Bucuresti</t>
+    <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
-    <t>FK Csikszereda Miercurea Ciuc</t>
+    <t>Metaloglobus Bucuresti</t>
   </si>
   <si>
     <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
-    <t>CS Tunari</t>
+    <t>Unirea Dej</t>
   </si>
   <si>
-    <t>Unirea Dej</t>
+    <t>CS Tunari</t>
   </si>
   <si>
     <t>Scolar Resita</t>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6950152</v>
+        <v>6950153</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,52 +640,52 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>50</v>
       </c>
       <c r="J2">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L2">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M2">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N2">
         <v>3.25</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P2">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q2">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
         <v>2.25</v>
       </c>
       <c r="T2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
         <v>-1</v>
@@ -694,19 +694,19 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950153</v>
+        <v>6950152</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,52 +726,52 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
         <v>3.25</v>
       </c>
       <c r="O3">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
         <v>2.25</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
         <v>-1</v>
@@ -780,19 +780,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950151</v>
+        <v>6949463</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3.2</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>1.7</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>4.2</v>
+      </c>
+      <c r="P5">
+        <v>-0.75</v>
+      </c>
+      <c r="Q5">
+        <v>1.95</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>2.5</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>2.6</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>2.6</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1.85</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>2.25</v>
-      </c>
       <c r="T5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6949463</v>
+        <v>6950151</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +984,73 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q6">
+        <v>1.85</v>
+      </c>
+      <c r="R6">
         <v>1.95</v>
       </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y6">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1583,7 +1583,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1758,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2704,7 +2704,7 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2873,7 +2873,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>48</v>
@@ -2959,7 +2959,7 @@
         <v>45158.25</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -3303,7 +3303,7 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -3478,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950178</v>
+        <v>6950176</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3561,73 +3561,73 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>2.375</v>
+      </c>
+      <c r="K36">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36">
-        <v>1.727</v>
-      </c>
-      <c r="K36">
-        <v>3.25</v>
-      </c>
       <c r="L36">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M36">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N36">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V36">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3724,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950176</v>
+        <v>6950178</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3733,73 +3733,73 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
         <v>33</v>
       </c>
       <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L38">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M38">
+        <v>1.615</v>
+      </c>
+      <c r="N38">
+        <v>3.25</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>-0.75</v>
+      </c>
+      <c r="Q38">
+        <v>1.85</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="N38">
-        <v>2.9</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
-      <c r="P38">
-        <v>-0.5</v>
-      </c>
-      <c r="Q38">
-        <v>1.975</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -4068,7 +4068,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950185</v>
+        <v>6950191</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4077,76 +4077,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J42">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P42">
         <v>0.25</v>
       </c>
       <c r="Q42">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y42">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4240,7 +4240,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6950191</v>
+        <v>6950185</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4249,76 +4249,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O44">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P44">
         <v>0.25</v>
       </c>
       <c r="Q44">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
         <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z44">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4335,7 +4335,7 @@
         <v>45171.25</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -4507,7 +4507,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
@@ -4593,7 +4593,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
         <v>48</v>
@@ -5109,7 +5109,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -5284,7 +5284,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -5370,7 +5370,7 @@
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5444,7 +5444,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6950194</v>
+        <v>6950201</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5453,76 +5453,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J58">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L58">
+        <v>1.85</v>
+      </c>
+      <c r="M58">
+        <v>3.8</v>
+      </c>
+      <c r="N58">
         <v>3.2</v>
       </c>
-      <c r="M58">
-        <v>2.15</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="P58">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q58">
+        <v>1.875</v>
+      </c>
+      <c r="R58">
         <v>1.925</v>
       </c>
-      <c r="R58">
-        <v>1.875</v>
-      </c>
       <c r="S58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
         <v>-1</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5530,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6950201</v>
+        <v>6950194</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5539,76 +5539,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J59">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
         <v>3.2</v>
       </c>
-      <c r="L59">
-        <v>1.85</v>
-      </c>
       <c r="M59">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
         <v>3.2</v>
       </c>
-      <c r="O59">
-        <v>1.85</v>
-      </c>
       <c r="P59">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
+        <v>1.925</v>
+      </c>
+      <c r="R59">
         <v>1.875</v>
       </c>
-      <c r="R59">
-        <v>1.925</v>
-      </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5628,7 +5628,7 @@
         <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5874,7 +5874,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6950205</v>
+        <v>6950206</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -5883,58 +5883,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
       </c>
       <c r="J63">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="M63">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O63">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="P63">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -5943,16 +5943,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6046,7 +6046,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950206</v>
+        <v>6950205</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6055,58 +6055,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
         <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="K65">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="M65">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="N65">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6115,16 +6115,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6218,7 +6218,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950207</v>
+        <v>6950204</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6227,10 +6227,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6242,31 +6242,31 @@
         <v>52</v>
       </c>
       <c r="J67">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K67">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
         <v>2.25</v>
@@ -6278,7 +6278,7 @@
         <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6287,7 +6287,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6304,7 +6304,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950209</v>
+        <v>6950207</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6313,73 +6313,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J68">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="K68">
         <v>2.875</v>
       </c>
       <c r="L68">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M68">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
         <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6390,7 +6390,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6950204</v>
+        <v>6950209</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6399,73 +6399,73 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L69">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M69">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N69">
         <v>3.1</v>
       </c>
       <c r="O69">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P69">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6485,7 +6485,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
         <v>38</v>
@@ -6660,7 +6660,7 @@
         <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950216</v>
+        <v>6950211</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -6915,76 +6915,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J75">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T75">
+        <v>1.95</v>
+      </c>
+      <c r="U75">
         <v>1.85</v>
       </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6992,7 +6992,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950211</v>
+        <v>6950216</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7001,76 +7001,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J76">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="P76">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T76">
+        <v>1.85</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
         <v>-0.5</v>
       </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7087,7 +7087,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -7603,7 +7603,7 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -8033,10 +8033,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="s">
         <v>29</v>
-      </c>
-      <c r="F88" t="s">
-        <v>30</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8635,10 +8635,10 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9495,7 +9495,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
         <v>47</v>
@@ -9581,7 +9581,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
         <v>35</v>
@@ -9667,7 +9667,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
         <v>31</v>
@@ -9842,7 +9842,7 @@
         <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10272,7 +10272,7 @@
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10444,7 +10444,7 @@
         <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10699,7 +10699,7 @@
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -11215,7 +11215,7 @@
         <v>45241.25</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
         <v>31</v>
@@ -11301,7 +11301,7 @@
         <v>45241.25</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
         <v>34</v>
@@ -11387,7 +11387,7 @@
         <v>45241.25</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
         <v>39</v>
@@ -11648,7 +11648,7 @@
         <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11992,7 +11992,7 @@
         <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>45255.25</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
         <v>43</v>
@@ -12247,7 +12247,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -12336,7 +12336,7 @@
         <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12852,7 +12852,7 @@
         <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -13021,10 +13021,10 @@
         <v>45262.25</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13107,7 +13107,7 @@
         <v>45262.25</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
         <v>36</v>
@@ -13623,10 +13623,10 @@
         <v>45346.25</v>
       </c>
       <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
         <v>32</v>
-      </c>
-      <c r="F153" t="s">
-        <v>33</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -14225,7 +14225,7 @@
         <v>45348.5</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
         <v>48</v>
@@ -14572,7 +14572,7 @@
         <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14655,7 +14655,7 @@
         <v>45353.25</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
         <v>37</v>
@@ -14741,7 +14741,7 @@
         <v>45353.25</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
         <v>39</v>
@@ -14830,7 +14830,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15162,7 +15162,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6950307</v>
+        <v>6950306</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15171,58 +15171,58 @@
         <v>45360.25</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>52</v>
       </c>
       <c r="J171">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="M171">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N171">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P171">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q171">
+        <v>1.9</v>
+      </c>
+      <c r="R171">
+        <v>1.9</v>
+      </c>
+      <c r="S171">
+        <v>2.5</v>
+      </c>
+      <c r="T171">
+        <v>1.975</v>
+      </c>
+      <c r="U171">
         <v>1.825</v>
       </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>2</v>
-      </c>
-      <c r="T171">
-        <v>1.775</v>
-      </c>
-      <c r="U171">
-        <v>2.025</v>
-      </c>
       <c r="V171">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15231,13 +15231,13 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
         <v>-1</v>
@@ -15429,7 +15429,7 @@
         <v>45360.25</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
         <v>42</v>
@@ -15506,7 +15506,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950306</v>
+        <v>6950307</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -15515,58 +15515,58 @@
         <v>45360.25</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="s">
         <v>52</v>
       </c>
       <c r="J175">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
+        <v>3.1</v>
+      </c>
+      <c r="O175">
         <v>4.333</v>
       </c>
-      <c r="O175">
-        <v>6.5</v>
-      </c>
       <c r="P175">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V175">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15575,13 +15575,13 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -15687,7 +15687,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F177" t="s">
         <v>45</v>
@@ -15859,7 +15859,7 @@
         <v>45367.375</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F179" t="s">
         <v>39</v>
@@ -15948,7 +15948,7 @@
         <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16550,7 +16550,7 @@
         <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16719,7 +16719,7 @@
         <v>45381.25</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
         <v>37</v>
@@ -16894,7 +16894,7 @@
         <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16980,7 +16980,7 @@
         <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17235,7 +17235,7 @@
         <v>45383.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
         <v>42</v>
@@ -17484,7 +17484,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7984198</v>
+        <v>7984183</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -17493,76 +17493,76 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J198">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K198">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L198">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M198">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P198">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V198">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W198">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17570,7 +17570,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7984211</v>
+        <v>7984198</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -17579,61 +17579,61 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>51</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M199">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="N199">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
         <v>-1</v>
       </c>
       <c r="W199">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -17642,13 +17642,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17656,7 +17656,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7984183</v>
+        <v>7984211</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -17665,76 +17665,76 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J200">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K200">
         <v>3.1</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
         <v>2</v>
       </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA200">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17926,7 +17926,7 @@
         <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -18009,7 +18009,7 @@
         <v>45392.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F204" t="s">
         <v>36</v>
@@ -18525,7 +18525,7 @@
         <v>45395.20833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F210" t="s">
         <v>40</v>
@@ -18614,7 +18614,7 @@
         <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18697,7 +18697,7 @@
         <v>45395.25</v>
       </c>
       <c r="E212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
         <v>35</v>
@@ -18955,10 +18955,10 @@
         <v>45402.20833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -19213,7 +19213,7 @@
         <v>45402.20833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
         <v>39</v>
@@ -19560,7 +19560,7 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19646,7 +19646,7 @@
         <v>42</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -20070,49 +20070,49 @@
         <v>28</v>
       </c>
       <c r="D228" s="2">
-        <v>45415.45833333334</v>
+        <v>45416.25</v>
       </c>
       <c r="E228" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J228">
+        <v>2.1</v>
+      </c>
+      <c r="K228">
+        <v>3.25</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>2.45</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228">
         <v>2.625</v>
       </c>
-      <c r="K228">
-        <v>3.2</v>
-      </c>
-      <c r="L228">
-        <v>2.4</v>
-      </c>
-      <c r="M228">
-        <v>3</v>
-      </c>
-      <c r="N228">
-        <v>3.2</v>
-      </c>
-      <c r="O228">
-        <v>2.15</v>
-      </c>
       <c r="P228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R228">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S228">
         <v>2.25</v>
       </c>
       <c r="T228">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
         <v>0</v>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7983418</t>
-  </si>
-  <si>
-    <t>7983419</t>
   </si>
   <si>
     <t>Romania Liga 2</t>
@@ -537,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB231"/>
+  <dimension ref="A1:AB229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,25 +628,25 @@
         <v>6950156</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
       </c>
       <c r="J2">
         <v>4.8</v>
@@ -720,16 +714,16 @@
         <v>6949463</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -738,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -806,16 +800,16 @@
         <v>6950151</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -824,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>2.5</v>
@@ -892,16 +886,16 @@
         <v>6950152</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -910,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>2.3</v>
@@ -978,16 +972,16 @@
         <v>6950153</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -996,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>2.5</v>
@@ -1064,16 +1058,16 @@
         <v>6950155</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45143.20833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1082,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1150,16 +1144,16 @@
         <v>6950154</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45144.25</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1168,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>2.2</v>
@@ -1236,16 +1230,16 @@
         <v>6950150</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45146.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1254,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>3.75</v>
@@ -1322,16 +1316,16 @@
         <v>6950318</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45146.625</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1340,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2.3</v>
@@ -1408,16 +1402,16 @@
         <v>6950163</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1494,16 +1488,16 @@
         <v>6949942</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1512,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1580,16 +1574,16 @@
         <v>6950160</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1598,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1.571</v>
@@ -1666,16 +1660,16 @@
         <v>6950158</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1684,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>1.444</v>
@@ -1752,16 +1746,16 @@
         <v>6950162</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1770,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>2.3</v>
@@ -1838,16 +1832,16 @@
         <v>6949941</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45150.20833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1856,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1924,16 +1918,16 @@
         <v>6950320</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45150.25</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1942,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>3.2</v>
@@ -2010,16 +2004,16 @@
         <v>6950157</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45150.25</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2028,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2096,16 +2090,16 @@
         <v>6950161</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45151.25</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2114,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2.2</v>
@@ -2182,25 +2176,25 @@
         <v>7062921</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45152.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>49</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
       </c>
       <c r="J20">
         <v>4.5</v>
@@ -2268,16 +2262,16 @@
         <v>6950171</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2286,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2354,16 +2348,16 @@
         <v>6950167</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2372,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2440,16 +2434,16 @@
         <v>6950166</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2458,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.375</v>
@@ -2526,16 +2520,16 @@
         <v>6950164</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2544,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -2612,16 +2606,16 @@
         <v>6950173</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45157.20833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2630,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>2.45</v>
@@ -2698,16 +2692,16 @@
         <v>6950165</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45157.25</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2716,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2784,16 +2778,16 @@
         <v>6950168</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45158.20833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2802,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>2.7</v>
@@ -2870,16 +2864,16 @@
         <v>6950169</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45158.20833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2888,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2956,16 +2950,16 @@
         <v>6950172</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45158.25</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2974,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J29">
         <v>2.9</v>
@@ -3042,16 +3036,16 @@
         <v>7049392</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45160.54166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3060,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3128,16 +3122,16 @@
         <v>6950181</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3146,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>1.8</v>
@@ -3214,16 +3208,16 @@
         <v>6950176</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3232,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3300,16 +3294,16 @@
         <v>6950180</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3318,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3386,16 +3380,16 @@
         <v>6950179</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3404,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <v>2.5</v>
@@ -3472,16 +3466,16 @@
         <v>6950178</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3490,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>1.727</v>
@@ -3558,16 +3552,16 @@
         <v>6950177</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3576,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3644,16 +3638,16 @@
         <v>6950174</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3662,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3730,16 +3724,16 @@
         <v>6950321</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45164.20833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3748,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>2.25</v>
@@ -3816,16 +3810,16 @@
         <v>6950182</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45165.20833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>5.5</v>
@@ -3902,16 +3896,16 @@
         <v>6950175</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45165.20833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3920,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>1.571</v>
@@ -3988,16 +3982,16 @@
         <v>6950191</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4006,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>2.4</v>
@@ -4074,16 +4068,16 @@
         <v>6950183</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4092,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>2.6</v>
@@ -4160,16 +4154,16 @@
         <v>6950185</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4178,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>2.75</v>
@@ -4246,16 +4240,16 @@
         <v>6950184</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45171.20833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4264,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>1.333</v>
@@ -4332,16 +4326,16 @@
         <v>6950190</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45171.25</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4350,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>3.3</v>
@@ -4418,16 +4412,16 @@
         <v>6950187</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4436,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4504,16 +4498,16 @@
         <v>6950186</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4522,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4590,16 +4584,16 @@
         <v>6950189</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4608,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4676,16 +4670,16 @@
         <v>6950188</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45172.20833333334</v>
       </c>
       <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>38</v>
-      </c>
-      <c r="F49" t="s">
-        <v>40</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4694,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -4762,16 +4756,16 @@
         <v>6950192</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45174.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4780,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4848,16 +4842,16 @@
         <v>7167356</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45181.20833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>3.1</v>
@@ -4934,17 +4928,17 @@
         <v>6950193</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45183.60416666666</v>
       </c>
       <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
         <v>43</v>
       </c>
-      <c r="F52" t="s">
-        <v>45</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
@@ -4952,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5020,16 +5014,16 @@
         <v>6950199</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5038,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5106,16 +5100,16 @@
         <v>6950195</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5124,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5192,16 +5186,16 @@
         <v>6950197</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5210,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.85</v>
@@ -5278,16 +5272,16 @@
         <v>6950202</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5296,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5364,16 +5358,16 @@
         <v>6950198</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -5382,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>1.85</v>
@@ -5450,16 +5444,16 @@
         <v>6950194</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5468,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>2.15</v>
@@ -5536,16 +5530,16 @@
         <v>6950201</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45185.20833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5554,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>3.8</v>
@@ -5622,16 +5616,16 @@
         <v>7180898</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45187.42708333334</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5640,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>1.7</v>
@@ -5708,16 +5702,16 @@
         <v>7180897</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45188.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5726,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.625</v>
@@ -5794,16 +5788,16 @@
         <v>6950210</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45191.41666666666</v>
       </c>
       <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
         <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>41</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5812,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>2.625</v>
@@ -5880,16 +5874,16 @@
         <v>6950323</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5898,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5966,16 +5960,16 @@
         <v>6950209</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5984,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>2.875</v>
@@ -6052,16 +6046,16 @@
         <v>6950207</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>2.75</v>
@@ -6138,16 +6132,16 @@
         <v>6950203</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6156,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6224,16 +6218,16 @@
         <v>6950205</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6242,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>1.222</v>
@@ -6310,16 +6304,16 @@
         <v>6950206</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6328,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6396,16 +6390,16 @@
         <v>6950204</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45192.20833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6414,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <v>3.1</v>
@@ -6482,16 +6476,16 @@
         <v>6950208</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45193.22916666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6500,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2.875</v>
@@ -6568,16 +6562,16 @@
         <v>7212017</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45194.5</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6586,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>1.8</v>
@@ -6654,16 +6648,16 @@
         <v>6950215</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45198.5</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6672,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6740,16 +6734,16 @@
         <v>6950216</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6758,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6826,16 +6820,16 @@
         <v>6950211</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6844,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.727</v>
@@ -6912,16 +6906,16 @@
         <v>6950217</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6930,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <v>2.5</v>
@@ -6998,16 +6992,16 @@
         <v>6950220</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7016,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7084,16 +7078,16 @@
         <v>6950218</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45199.20833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7102,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>2.75</v>
@@ -7170,25 +7164,25 @@
         <v>6950213</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.25</v>
       </c>
       <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
         <v>49</v>
-      </c>
-      <c r="F78" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>51</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7256,16 +7250,16 @@
         <v>6950214</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45200.20833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7274,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>1.666</v>
@@ -7342,16 +7336,16 @@
         <v>6950212</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45200.27083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -7360,7 +7354,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.15</v>
@@ -7428,16 +7422,16 @@
         <v>7247667</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45201.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7446,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7514,16 +7508,16 @@
         <v>7247668</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45204.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7532,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7600,16 +7594,16 @@
         <v>6950225</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7618,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>2.4</v>
@@ -7686,16 +7680,16 @@
         <v>6950224</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7704,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.8</v>
@@ -7772,16 +7766,16 @@
         <v>6950222</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7790,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7858,16 +7852,16 @@
         <v>6950226</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7876,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2.75</v>
@@ -7944,16 +7938,16 @@
         <v>6950221</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>3.5</v>
@@ -8030,16 +8024,16 @@
         <v>6950325</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45206.20833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8048,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>1.2</v>
@@ -8116,16 +8110,16 @@
         <v>6950228</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45206.22916666666</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8134,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>2.9</v>
@@ -8202,16 +8196,16 @@
         <v>6950227</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45207.22916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8220,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>2.5</v>
@@ -8288,16 +8282,16 @@
         <v>7247669</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45208.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8306,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>2.9</v>
@@ -8374,16 +8368,16 @@
         <v>6950231</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45219.5</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>2.625</v>
@@ -8460,16 +8454,16 @@
         <v>6950233</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8478,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>1.571</v>
@@ -8546,16 +8540,16 @@
         <v>6950234</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8564,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>4</v>
@@ -8632,16 +8626,16 @@
         <v>6950236</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8650,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>1.909</v>
@@ -8718,16 +8712,16 @@
         <v>6950232</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45220.20833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8736,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>1.909</v>
@@ -8804,16 +8798,16 @@
         <v>6950230</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45220.22916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.4</v>
@@ -8890,16 +8884,16 @@
         <v>6950237</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8908,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>2.625</v>
@@ -8976,16 +8970,16 @@
         <v>6950235</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
         <v>36</v>
-      </c>
-      <c r="F99" t="s">
-        <v>38</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8994,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9062,16 +9056,16 @@
         <v>7335189</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9080,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>2.4</v>
@@ -9148,16 +9142,16 @@
         <v>7335362</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45223.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9166,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.666</v>
@@ -9234,16 +9228,16 @@
         <v>6950328</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45225.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9252,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>1.85</v>
@@ -9320,16 +9314,16 @@
         <v>6950244</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9338,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -9406,16 +9400,16 @@
         <v>6950242</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9424,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>1.55</v>
@@ -9492,16 +9486,16 @@
         <v>6950241</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9510,7 +9504,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J105">
         <v>2.8</v>
@@ -9578,16 +9572,16 @@
         <v>6950239</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9596,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>2.45</v>
@@ -9664,16 +9658,16 @@
         <v>6950240</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9682,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>1.55</v>
@@ -9750,16 +9744,16 @@
         <v>6950238</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -9836,16 +9830,16 @@
         <v>6950243</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45227.20833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9854,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J109">
         <v>4.2</v>
@@ -9922,16 +9916,16 @@
         <v>6950246</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45228.27083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9940,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -10008,16 +10002,16 @@
         <v>7335361</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45229.4375</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10026,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10094,16 +10088,16 @@
         <v>6950329</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45234.25</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10112,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>2</v>
@@ -10180,16 +10174,16 @@
         <v>6950330</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45234.25</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10198,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2.8</v>
@@ -10266,16 +10260,16 @@
         <v>6950253</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45234.25</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10284,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>3.3</v>
@@ -10352,16 +10346,16 @@
         <v>6950254</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45234.25</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10370,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J115">
         <v>1.75</v>
@@ -10438,16 +10432,16 @@
         <v>6950251</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45234.25</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10456,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>1.571</v>
@@ -10524,16 +10518,16 @@
         <v>6950247</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45234.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10610,16 +10604,16 @@
         <v>6950250</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45235.25</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10628,7 +10622,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>3.4</v>
@@ -10696,16 +10690,16 @@
         <v>6950249</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10714,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10782,16 +10776,16 @@
         <v>7335190</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10800,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10868,16 +10862,16 @@
         <v>6950256</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45239.60416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10886,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.25</v>
@@ -10954,16 +10948,16 @@
         <v>6950261</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45240.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11040,16 +11034,16 @@
         <v>6950262</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45240.54166666666</v>
       </c>
       <c r="E123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11058,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>3.25</v>
@@ -11126,16 +11120,16 @@
         <v>6950259</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45241.25</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11144,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>1.3</v>
@@ -11212,16 +11206,16 @@
         <v>6950263</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45241.25</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11230,7 +11224,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11298,16 +11292,16 @@
         <v>6950331</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45241.25</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11316,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>2.15</v>
@@ -11384,16 +11378,16 @@
         <v>6950255</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45241.25</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11402,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11470,16 +11464,16 @@
         <v>6950257</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45241.25</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11488,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>2.7</v>
@@ -11556,16 +11550,16 @@
         <v>6950258</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45241.25</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11574,7 +11568,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J129">
         <v>6.2</v>
@@ -11642,16 +11636,16 @@
         <v>7432100</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45243.52083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11660,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>1.615</v>
@@ -11728,16 +11722,16 @@
         <v>6950333</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45253.60416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11746,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J131">
         <v>2.7</v>
@@ -11814,16 +11808,16 @@
         <v>6950271</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45254.39583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11832,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J132">
         <v>3.1</v>
@@ -11900,16 +11894,16 @@
         <v>6950264</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45255.25</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11918,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11986,16 +11980,16 @@
         <v>6950266</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45255.25</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12004,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>1.85</v>
@@ -12072,16 +12066,16 @@
         <v>6950332</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45255.25</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12090,7 +12084,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>8.5</v>
@@ -12158,16 +12152,16 @@
         <v>6950268</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45255.25</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12176,7 +12170,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>1.727</v>
@@ -12244,16 +12238,16 @@
         <v>6950269</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45255.27083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12262,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>3.75</v>
@@ -12330,16 +12324,16 @@
         <v>7510258</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45256.25</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>2</v>
@@ -12416,16 +12410,16 @@
         <v>6950265</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45256.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12434,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12502,16 +12496,16 @@
         <v>7482813</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45258.5</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12520,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>1.909</v>
@@ -12588,16 +12582,16 @@
         <v>6950276</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45260.375</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12606,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>1.8</v>
@@ -12674,16 +12668,16 @@
         <v>6950277</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45260.52083333334</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12692,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>2.2</v>
@@ -12760,16 +12754,16 @@
         <v>6950335</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45260.625</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12778,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12846,16 +12840,16 @@
         <v>6950278</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45261.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12864,7 +12858,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>1.75</v>
@@ -12932,16 +12926,16 @@
         <v>6950273</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45262.25</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -12950,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>1.666</v>
@@ -13018,16 +13012,16 @@
         <v>6950274</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45262.25</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13036,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J146">
         <v>3.75</v>
@@ -13104,16 +13098,16 @@
         <v>6950275</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45262.25</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13122,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>2.7</v>
@@ -13190,16 +13184,16 @@
         <v>6950334</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45262.25</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13208,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>1.363</v>
@@ -13276,16 +13270,16 @@
         <v>6950279</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45262.27083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>2.2</v>
@@ -13362,16 +13356,16 @@
         <v>6950272</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45263.27083333334</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13380,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>2.4</v>
@@ -13448,16 +13442,16 @@
         <v>6950280</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45344.60416666666</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13466,7 +13460,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>1.85</v>
@@ -13534,16 +13528,16 @@
         <v>6950285</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45346.25</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13552,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>3.4</v>
@@ -13620,16 +13614,16 @@
         <v>6950287</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45346.25</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13638,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>1.5</v>
@@ -13706,16 +13700,16 @@
         <v>6950288</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45346.25</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13724,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J154">
         <v>2.1</v>
@@ -13792,16 +13786,16 @@
         <v>6950281</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45346.25</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13810,7 +13804,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J155">
         <v>3.75</v>
@@ -13878,16 +13872,16 @@
         <v>6950284</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45346.25</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13896,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>1.666</v>
@@ -13964,16 +13958,16 @@
         <v>6950289</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45346.27083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13982,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14050,16 +14044,16 @@
         <v>6950283</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45347.375</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14068,7 +14062,7 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>11</v>
@@ -14136,16 +14130,16 @@
         <v>6950286</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45347.5</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14154,7 +14148,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J159">
         <v>3.1</v>
@@ -14222,16 +14216,16 @@
         <v>7820668</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45348.5</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14240,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>2.6</v>
@@ -14308,16 +14302,16 @@
         <v>6950296</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45352.5</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14326,7 +14320,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14394,16 +14388,16 @@
         <v>6950291</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45353.25</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14412,7 +14406,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>3.6</v>
@@ -14480,16 +14474,16 @@
         <v>6950290</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45353.25</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14498,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>3.1</v>
@@ -14566,16 +14560,16 @@
         <v>6950292</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45353.25</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14584,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>2.4</v>
@@ -14652,16 +14646,16 @@
         <v>6950295</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45353.25</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14670,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>2.4</v>
@@ -14738,16 +14732,16 @@
         <v>6950337</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45353.25</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14756,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.444</v>
@@ -14824,16 +14818,16 @@
         <v>6950297</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45353.27083333334</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14842,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>1.85</v>
@@ -14910,16 +14904,16 @@
         <v>6950293</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45354.29166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14928,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14996,16 +14990,16 @@
         <v>7820669</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45356.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -15014,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>1.6</v>
@@ -15082,16 +15076,16 @@
         <v>6950298</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45358.5</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15100,7 +15094,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J170">
         <v>1.5</v>
@@ -15168,16 +15162,16 @@
         <v>6950306</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45360.25</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15186,7 +15180,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>1.285</v>
@@ -15254,16 +15248,16 @@
         <v>6950307</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45360.25</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15272,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>1.727</v>
@@ -15340,16 +15334,16 @@
         <v>6950305</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45360.25</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15358,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>3.5</v>
@@ -15426,16 +15420,16 @@
         <v>6950302</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45360.25</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15444,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>2.875</v>
@@ -15512,16 +15506,16 @@
         <v>6950303</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45360.25</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15530,7 +15524,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>2.2</v>
@@ -15598,16 +15592,16 @@
         <v>6950301</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45360.29166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15616,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>1.909</v>
@@ -15684,16 +15678,16 @@
         <v>6950299</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45361.29166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15702,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15770,16 +15764,16 @@
         <v>7917238</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45362.5</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15788,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15856,16 +15850,16 @@
         <v>7964083</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45367.375</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15874,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>3</v>
@@ -15942,16 +15936,16 @@
         <v>7964079</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45367.375</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15960,7 +15954,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16028,16 +16022,16 @@
         <v>7964080</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45367.375</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16046,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>3.25</v>
@@ -16114,16 +16108,16 @@
         <v>7964082</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45367.375</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16132,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>1.444</v>
@@ -16200,16 +16194,16 @@
         <v>7964081</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45367.375</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16286,16 +16280,16 @@
         <v>7964087</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45367.375</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16304,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>3.8</v>
@@ -16372,16 +16366,16 @@
         <v>7964086</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45367.375</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16390,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>2.3</v>
@@ -16458,16 +16452,16 @@
         <v>7964085</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45367.375</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16476,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16544,16 +16538,16 @@
         <v>7964084</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45367.375</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -16562,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16630,16 +16624,16 @@
         <v>7983278</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45379.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16648,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2.45</v>
@@ -16716,16 +16710,16 @@
         <v>7983405</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45381.25</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16734,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16802,16 +16796,16 @@
         <v>7983803</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45381.25</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16820,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J190">
         <v>2.45</v>
@@ -16888,16 +16882,16 @@
         <v>7984182</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45381.25</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16906,7 +16900,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>1.727</v>
@@ -16974,16 +16968,16 @@
         <v>7984586</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45381.25</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16992,7 +16986,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>2.75</v>
@@ -17060,16 +17054,16 @@
         <v>7984203</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45381.25</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17078,7 +17072,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17146,16 +17140,16 @@
         <v>7983804</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45381.25</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17158,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>2</v>
@@ -17232,16 +17226,16 @@
         <v>7983802</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45383.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17250,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>2.25</v>
@@ -17318,16 +17312,16 @@
         <v>7983279</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17336,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>2.6</v>
@@ -17404,16 +17398,16 @@
         <v>7984212</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17422,7 +17416,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J197">
         <v>2.25</v>
@@ -17490,16 +17484,16 @@
         <v>7984211</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17508,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -17576,16 +17570,16 @@
         <v>7984198</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17594,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>1.727</v>
@@ -17662,16 +17656,16 @@
         <v>7984183</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17680,7 +17674,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J200">
         <v>2.2</v>
@@ -17748,16 +17742,16 @@
         <v>7984184</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45388.20833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17766,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>2.7</v>
@@ -17834,16 +17828,16 @@
         <v>7983406</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45388.22916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17852,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17920,16 +17914,16 @@
         <v>7984180</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45389.25</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17938,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>2</v>
@@ -18006,16 +18000,16 @@
         <v>7983408</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18024,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.1</v>
@@ -18092,16 +18086,16 @@
         <v>8074523</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18110,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>2.375</v>
@@ -18178,16 +18172,16 @@
         <v>7983280</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45393.54166666666</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18196,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J206">
         <v>1.909</v>
@@ -18264,16 +18258,16 @@
         <v>7984200</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18282,7 +18276,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>4.2</v>
@@ -18350,16 +18344,16 @@
         <v>7984185</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18368,7 +18362,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J208">
         <v>2.25</v>
@@ -18436,16 +18430,16 @@
         <v>7984216</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18454,7 +18448,7 @@
         <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>1.833</v>
@@ -18522,16 +18516,16 @@
         <v>7984215</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18540,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J210">
         <v>3.4</v>
@@ -18608,16 +18602,16 @@
         <v>7984199</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45395.20833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18626,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J211">
         <v>2.5</v>
@@ -18694,16 +18688,16 @@
         <v>7983410</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45395.25</v>
       </c>
       <c r="E212" t="s">
+        <v>32</v>
+      </c>
+      <c r="F212" t="s">
         <v>34</v>
-      </c>
-      <c r="F212" t="s">
-        <v>36</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18712,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>2.55</v>
@@ -18780,17 +18774,17 @@
         <v>8061349</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E213" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213" t="s">
         <v>37</v>
       </c>
-      <c r="F213" t="s">
-        <v>39</v>
-      </c>
       <c r="G213">
         <v>0</v>
       </c>
@@ -18798,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>2.625</v>
@@ -18866,16 +18860,16 @@
         <v>7984587</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18884,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>2.25</v>
@@ -18952,16 +18946,16 @@
         <v>7984218</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18970,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>1.8</v>
@@ -19038,16 +19032,16 @@
         <v>7984217</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19056,7 +19050,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J216">
         <v>4.333</v>
@@ -19124,16 +19118,16 @@
         <v>7984187</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19142,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19210,16 +19204,16 @@
         <v>7984186</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E218" t="s">
+        <v>44</v>
+      </c>
+      <c r="F218" t="s">
         <v>46</v>
-      </c>
-      <c r="F218" t="s">
-        <v>48</v>
       </c>
       <c r="G218">
         <v>4</v>
@@ -19228,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>1.3</v>
@@ -19296,16 +19290,16 @@
         <v>7984205</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45402.20833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19314,7 +19308,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19382,25 +19376,25 @@
         <v>7983411</v>
       </c>
       <c r="C220" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45402.27083333334</v>
       </c>
       <c r="E220" t="s">
+        <v>48</v>
+      </c>
+      <c r="F220" t="s">
+        <v>35</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220" t="s">
         <v>50</v>
-      </c>
-      <c r="F220" t="s">
-        <v>37</v>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
-        <v>0</v>
-      </c>
-      <c r="I220" t="s">
-        <v>52</v>
       </c>
       <c r="J220">
         <v>1.909</v>
@@ -19468,16 +19462,16 @@
         <v>7983412</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45403.20833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19486,7 +19480,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>2.6</v>
@@ -19554,16 +19548,16 @@
         <v>7983282</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19572,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J222">
         <v>2.1</v>
@@ -19640,16 +19634,16 @@
         <v>7983414</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19658,7 +19652,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>2.5</v>
@@ -19726,16 +19720,16 @@
         <v>8135626</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19744,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>3</v>
@@ -19812,16 +19806,16 @@
         <v>7983283</v>
       </c>
       <c r="C225" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19830,7 +19824,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J225">
         <v>2.2</v>
@@ -19898,16 +19892,16 @@
         <v>7983284</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45410.20833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19916,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>1.833</v>
@@ -19984,16 +19978,16 @@
         <v>8130880</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45411.375</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -20002,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J227">
         <v>1.909</v>
@@ -20070,16 +20064,16 @@
         <v>7983285</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45415.45833333334</v>
       </c>
       <c r="E228" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" t="s">
         <v>39</v>
-      </c>
-      <c r="F228" t="s">
-        <v>41</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20088,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J228">
         <v>2.625</v>
@@ -20156,16 +20150,16 @@
         <v>7983417</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45416.25</v>
       </c>
       <c r="E229" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20174,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20232,136 +20226,6 @@
       </c>
       <c r="AB229">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:28">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>27</v>
-      </c>
-      <c r="C230" t="s">
-        <v>29</v>
-      </c>
-      <c r="D230" s="2">
-        <v>45420.5</v>
-      </c>
-      <c r="E230" t="s">
-        <v>39</v>
-      </c>
-      <c r="F230" t="s">
-        <v>37</v>
-      </c>
-      <c r="J230">
-        <v>1.952</v>
-      </c>
-      <c r="K230">
-        <v>3.05</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>1.8</v>
-      </c>
-      <c r="N230">
-        <v>3.2</v>
-      </c>
-      <c r="O230">
-        <v>4.2</v>
-      </c>
-      <c r="P230">
-        <v>-0.5</v>
-      </c>
-      <c r="Q230">
-        <v>1.75</v>
-      </c>
-      <c r="R230">
-        <v>2.05</v>
-      </c>
-      <c r="S230">
-        <v>2</v>
-      </c>
-      <c r="T230">
-        <v>1.925</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
-      <c r="V230">
-        <v>0</v>
-      </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:28">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>28</v>
-      </c>
-      <c r="C231" t="s">
-        <v>29</v>
-      </c>
-      <c r="D231" s="2">
-        <v>45420.5</v>
-      </c>
-      <c r="E231" t="s">
-        <v>50</v>
-      </c>
-      <c r="F231" t="s">
-        <v>34</v>
-      </c>
-      <c r="J231">
-        <v>1.869</v>
-      </c>
-      <c r="K231">
-        <v>3.2</v>
-      </c>
-      <c r="L231">
-        <v>3.75</v>
-      </c>
-      <c r="M231">
-        <v>1.909</v>
-      </c>
-      <c r="N231">
-        <v>3.2</v>
-      </c>
-      <c r="O231">
-        <v>3.6</v>
-      </c>
-      <c r="P231">
-        <v>-0.5</v>
-      </c>
-      <c r="Q231">
-        <v>1.975</v>
-      </c>
-      <c r="R231">
-        <v>1.825</v>
-      </c>
-      <c r="S231">
-        <v>2.25</v>
-      </c>
-      <c r="T231">
-        <v>1.9</v>
-      </c>
-      <c r="U231">
-        <v>1.9</v>
-      </c>
-      <c r="V231">
-        <v>0</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -106,16 +106,16 @@
     <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
+    <t>CS Tunari</t>
+  </si>
+  <si>
+    <t>Unirea Dej</t>
+  </si>
+  <si>
     <t>Metaloglobus Bucuresti</t>
   </si>
   <si>
-    <t>CS Tunari</t>
-  </si>
-  <si>
     <t>FK Csikszereda Miercurea Ciuc</t>
-  </si>
-  <si>
-    <t>Unirea Dej</t>
   </si>
   <si>
     <t>CS Hunedoara</t>
@@ -133,13 +133,13 @@
     <t>CSC 1599 Selimbar</t>
   </si>
   <si>
+    <t>FC Unirea 2004 Slobozia</t>
+  </si>
+  <si>
     <t>FC Buzau</t>
   </si>
   <si>
     <t>CSC Dumbravita</t>
-  </si>
-  <si>
-    <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
     <t>CSA Steaua Bucuresti</t>
@@ -637,7 +637,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6950152</v>
+        <v>6950151</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -809,52 +809,52 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
         <v>2.25</v>
       </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6950151</v>
+        <v>6949463</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -895,73 +895,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3.2</v>
+      </c>
+      <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>1.7</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>4.2</v>
+      </c>
+      <c r="P5">
+        <v>-0.75</v>
+      </c>
+      <c r="Q5">
+        <v>1.95</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>2.5</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>2.6</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>2.6</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1.85</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>2.25</v>
-      </c>
       <c r="T5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6950153</v>
+        <v>6950152</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -981,52 +981,52 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N6">
         <v>3.25</v>
       </c>
       <c r="O6">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
         <v>-1</v>
@@ -1035,19 +1035,19 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6949463</v>
+        <v>6950153</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1067,73 +1067,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
         <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1239,7 +1239,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6950158</v>
+        <v>6950160</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1583,73 +1583,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O13">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P13">
         <v>-1</v>
       </c>
       <c r="Q13">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6950162</v>
+        <v>6950158</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1669,37 +1669,37 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q14">
         <v>1.775</v>
@@ -1711,16 +1711,16 @@
         <v>2.5</v>
       </c>
       <c r="T14">
+        <v>1.95</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W14">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1743,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6950160</v>
+        <v>6950163</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1752,19 +1752,19 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>1.571</v>
@@ -1776,52 +1776,52 @@
         <v>5</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="N15">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q15">
+        <v>1.95</v>
+      </c>
+      <c r="R15">
         <v>1.85</v>
       </c>
-      <c r="R15">
-        <v>1.95</v>
-      </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1829,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6950163</v>
+        <v>6950162</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1838,76 +1838,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="P16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
+        <v>1.775</v>
+      </c>
+      <c r="R16">
+        <v>2.025</v>
+      </c>
+      <c r="S16">
+        <v>2.5</v>
+      </c>
+      <c r="T16">
+        <v>1.85</v>
+      </c>
+      <c r="U16">
         <v>1.95</v>
       </c>
-      <c r="R16">
-        <v>1.85</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16">
-        <v>1.8</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
       <c r="V16">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.95</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1927,7 +1927,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6950173</v>
+        <v>6950166</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2268,76 +2268,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J21">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="K21">
         <v>3.1</v>
       </c>
       <c r="L21">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M21">
+        <v>2.25</v>
+      </c>
+      <c r="N21">
+        <v>3.25</v>
+      </c>
+      <c r="O21">
         <v>2.75</v>
       </c>
-      <c r="N21">
-        <v>2.9</v>
-      </c>
-      <c r="O21">
-        <v>2.55</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>1.75</v>
+      </c>
+      <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>2.5</v>
+      </c>
+      <c r="T21">
         <v>1.975</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.25</v>
-      </c>
-      <c r="T21">
-        <v>1.9</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
-      </c>
       <c r="V21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2345,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6950166</v>
+        <v>6950173</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2354,76 +2354,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="K22">
         <v>3.1</v>
       </c>
       <c r="L22">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="M22">
+        <v>2.75</v>
+      </c>
+      <c r="N22">
+        <v>2.9</v>
+      </c>
+      <c r="O22">
+        <v>2.55</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.975</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
         <v>2.25</v>
       </c>
-      <c r="N22">
-        <v>3.25</v>
-      </c>
-      <c r="O22">
-        <v>2.75</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1.75</v>
-      </c>
-      <c r="R22">
-        <v>2.05</v>
-      </c>
-      <c r="S22">
-        <v>2.5</v>
-      </c>
       <c r="T22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y22">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2431,7 +2431,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950167</v>
+        <v>6950164</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2440,55 +2440,55 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>1.4</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>4.5</v>
+      </c>
+      <c r="O23">
+        <v>1.3</v>
+      </c>
+      <c r="P23">
+        <v>1.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.85</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
         <v>2.5</v>
       </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>2.625</v>
-      </c>
-      <c r="M23">
-        <v>2.625</v>
-      </c>
-      <c r="N23">
-        <v>3.1</v>
-      </c>
-      <c r="O23">
-        <v>2.45</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2.05</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -2497,19 +2497,19 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950171</v>
+        <v>6950167</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2526,76 +2526,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>3.1</v>
+      </c>
+      <c r="O24">
+        <v>2.45</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>2.05</v>
       </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>3.3</v>
-      </c>
-      <c r="P24">
-        <v>-0.25</v>
-      </c>
-      <c r="Q24">
-        <v>1.85</v>
-      </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>0.75</v>
+      </c>
+      <c r="AA24">
         <v>-0.5</v>
       </c>
-      <c r="Z24">
-        <v>0.475</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2603,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950164</v>
+        <v>6950171</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2612,40 +2612,40 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N25">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
         <v>1.85</v>
@@ -2654,34 +2654,34 @@
         <v>1.95</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T25">
+        <v>1.95</v>
+      </c>
+      <c r="U25">
         <v>1.85</v>
       </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2701,7 +2701,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2787,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2870,7 +2870,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -2956,7 +2956,7 @@
         <v>45158.25</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -3045,7 +3045,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3128,10 +3128,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950178</v>
+        <v>6950176</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3214,73 +3214,73 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32">
+        <v>2.375</v>
+      </c>
+      <c r="K32">
         <v>3</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32">
-        <v>1.727</v>
-      </c>
-      <c r="K32">
-        <v>3.25</v>
-      </c>
       <c r="L32">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M32">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N32">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3291,7 +3291,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6950176</v>
+        <v>6950174</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3300,56 +3300,56 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
       </c>
       <c r="I33" t="s">
         <v>49</v>
       </c>
       <c r="J33">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L33">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
+        <v>1.571</v>
+      </c>
+      <c r="N33">
+        <v>3.6</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>-0.75</v>
+      </c>
+      <c r="Q33">
+        <v>1.775</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>2.25</v>
+      </c>
+      <c r="T33">
+        <v>1.85</v>
+      </c>
+      <c r="U33">
         <v>1.95</v>
       </c>
-      <c r="N33">
-        <v>2.9</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
-      <c r="P33">
-        <v>-0.5</v>
-      </c>
-      <c r="Q33">
-        <v>1.975</v>
-      </c>
-      <c r="R33">
-        <v>1.825</v>
-      </c>
-      <c r="S33">
-        <v>1.75</v>
-      </c>
-      <c r="T33">
-        <v>1.75</v>
-      </c>
-      <c r="U33">
-        <v>2.05</v>
-      </c>
       <c r="V33">
         <v>-1</v>
       </c>
@@ -3357,19 +3357,19 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3377,7 +3377,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950174</v>
+        <v>6950179</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3386,10 +3386,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3401,40 +3401,40 @@
         <v>49</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>2.625</v>
+      </c>
+      <c r="M34">
+        <v>2.15</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
         <v>3.2</v>
       </c>
-      <c r="L34">
-        <v>3.3</v>
-      </c>
-      <c r="M34">
-        <v>1.571</v>
-      </c>
-      <c r="N34">
-        <v>3.6</v>
-      </c>
-      <c r="O34">
-        <v>5</v>
-      </c>
       <c r="P34">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
         <v>2.25</v>
       </c>
       <c r="T34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
         <v>-1</v>
@@ -3443,19 +3443,19 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3463,7 +3463,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950179</v>
+        <v>6950180</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3472,76 +3472,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L35">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M35">
         <v>2.15</v>
       </c>
       <c r="N35">
+        <v>3.2</v>
+      </c>
+      <c r="O35">
         <v>3</v>
-      </c>
-      <c r="O35">
-        <v>3.2</v>
       </c>
       <c r="P35">
         <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3549,7 +3549,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950180</v>
+        <v>6950178</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3558,76 +3558,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J36">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L36">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M36">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3635,7 +3635,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6950181</v>
+        <v>6950321</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3644,76 +3644,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K37">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P37">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3721,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950321</v>
+        <v>6950181</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3730,76 +3730,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K38">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q38">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X38">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3807,7 +3807,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6950175</v>
+        <v>6950182</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3816,76 +3816,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L39">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="M39">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O39">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="P39">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3893,7 +3893,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6950182</v>
+        <v>6950175</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3902,76 +3902,76 @@
         <v>45165.20833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40">
+        <v>1.571</v>
+      </c>
+      <c r="K40">
+        <v>3.4</v>
+      </c>
+      <c r="L40">
         <v>5.5</v>
       </c>
-      <c r="K40">
-        <v>3.5</v>
-      </c>
-      <c r="L40">
-        <v>1.533</v>
-      </c>
       <c r="M40">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="N40">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O40">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="P40">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V40">
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X40">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4151,7 +4151,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6950185</v>
+        <v>6950184</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4160,76 +4160,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>50</v>
       </c>
       <c r="J43">
+        <v>1.333</v>
+      </c>
+      <c r="K43">
+        <v>4.5</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>1.333</v>
+      </c>
+      <c r="N43">
+        <v>4.75</v>
+      </c>
+      <c r="O43">
+        <v>6.5</v>
+      </c>
+      <c r="P43">
+        <v>-1.5</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
         <v>2.75</v>
       </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
-        <v>2.375</v>
-      </c>
-      <c r="M43">
-        <v>3.4</v>
-      </c>
-      <c r="N43">
-        <v>3.1</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>0.25</v>
-      </c>
-      <c r="Q43">
-        <v>2.025</v>
-      </c>
-      <c r="R43">
-        <v>1.775</v>
-      </c>
-      <c r="S43">
-        <v>2.25</v>
-      </c>
       <c r="T43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V43">
         <v>-1</v>
       </c>
       <c r="W43">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4237,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6950184</v>
+        <v>6950185</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4246,76 +4246,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
       </c>
       <c r="J44">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="K44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="M44">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O44">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
         <v>-1</v>
       </c>
       <c r="W44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4332,10 +4332,10 @@
         <v>45171.25</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4421,7 +4421,7 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6950187</v>
+        <v>6950188</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4504,10 +4504,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4519,40 +4519,40 @@
         <v>49</v>
       </c>
       <c r="J47">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q47">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4561,19 +4561,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>1.15</v>
+        <v>2.6</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4581,7 +4581,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6950188</v>
+        <v>6950187</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4590,10 +4590,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4605,40 +4605,40 @@
         <v>49</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L48">
+        <v>2.375</v>
+      </c>
+      <c r="M48">
+        <v>2.875</v>
+      </c>
+      <c r="N48">
         <v>3.4</v>
       </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="P48">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q48">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4647,19 +4647,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>1.15</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4676,7 +4676,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>47</v>
@@ -4851,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6950195</v>
+        <v>6950194</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5106,76 +5106,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5192,7 +5192,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
         <v>35</v>
@@ -5269,7 +5269,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6950194</v>
+        <v>6950195</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5278,76 +5278,76 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J56">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P56">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5364,10 +5364,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5450,10 +5450,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5797,7 +5797,7 @@
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5969,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -6310,7 +6310,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
         <v>44</v>
@@ -6396,10 +6396,10 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6482,10 +6482,10 @@
         <v>45193.22916666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6731,7 +6731,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6950220</v>
+        <v>6950217</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6740,76 +6740,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J73">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M73">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q73">
+        <v>1.875</v>
+      </c>
+      <c r="R73">
+        <v>1.925</v>
+      </c>
+      <c r="S73">
+        <v>2.25</v>
+      </c>
+      <c r="T73">
+        <v>1.95</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>2.5</v>
-      </c>
-      <c r="T73">
-        <v>1.975</v>
-      </c>
-      <c r="U73">
-        <v>1.825</v>
-      </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6826,10 +6826,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6915,7 +6915,7 @@
         <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6989,7 +6989,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950217</v>
+        <v>6950211</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6998,10 +6998,10 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7013,34 +7013,34 @@
         <v>51</v>
       </c>
       <c r="J76">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>1.95</v>
@@ -7049,7 +7049,7 @@
         <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7058,10 +7058,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7075,7 +7075,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6950211</v>
+        <v>6950220</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7084,76 +7084,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J77">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K77">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="N77">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q77">
+        <v>1.85</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>2.5</v>
+      </c>
+      <c r="T77">
         <v>1.975</v>
       </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.825</v>
       </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>1.95</v>
-      </c>
-      <c r="U77">
-        <v>1.85</v>
-      </c>
       <c r="V77">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7256,7 +7256,7 @@
         <v>45200.20833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
         <v>45</v>
@@ -7342,7 +7342,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -7591,7 +7591,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6950226</v>
+        <v>6950221</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7600,10 +7600,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7615,58 +7615,58 @@
         <v>50</v>
       </c>
       <c r="J83">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K83">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L83">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O83">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P83">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
         <v>2.25</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7677,7 +7677,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6950222</v>
+        <v>6950226</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7686,73 +7686,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J84">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K84">
+        <v>3.2</v>
+      </c>
+      <c r="L84">
+        <v>2.3</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
         <v>3.3</v>
       </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>1.727</v>
-      </c>
-      <c r="N84">
-        <v>3.4</v>
-      </c>
       <c r="O84">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P84">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q84">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
         <v>2.25</v>
       </c>
       <c r="T84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7763,7 +7763,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6950221</v>
+        <v>6950222</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7772,73 +7772,73 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G85">
         <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J85">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="K85">
         <v>3.3</v>
       </c>
       <c r="L85">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O85">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W85">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7858,10 +7858,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7944,10 +7944,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
         <v>34</v>
@@ -8451,7 +8451,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6950236</v>
+        <v>6950234</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8460,76 +8460,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J93">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="M93">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="N93">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="P93">
+        <v>0.75</v>
+      </c>
+      <c r="Q93">
+        <v>1.9</v>
+      </c>
+      <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
+        <v>2.25</v>
+      </c>
+      <c r="T93">
+        <v>1.775</v>
+      </c>
+      <c r="U93">
+        <v>2.025</v>
+      </c>
+      <c r="V93">
+        <v>-1</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y93">
         <v>-0.5</v>
       </c>
-      <c r="Q93">
-        <v>1.825</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
-      <c r="S93">
-        <v>2.5</v>
-      </c>
-      <c r="T93">
-        <v>1.85</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>-1</v>
-      </c>
-      <c r="W93">
-        <v>2.25</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8537,7 +8537,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950232</v>
+        <v>6950236</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8546,19 +8546,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8570,16 +8570,16 @@
         <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q94">
         <v>1.825</v>
@@ -8588,34 +8588,34 @@
         <v>1.975</v>
       </c>
       <c r="S94">
+        <v>2.5</v>
+      </c>
+      <c r="T94">
+        <v>1.85</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>-1</v>
+      </c>
+      <c r="W94">
         <v>2.25</v>
       </c>
-      <c r="T94">
-        <v>1.775</v>
-      </c>
-      <c r="U94">
-        <v>2.025</v>
-      </c>
-      <c r="V94">
-        <v>1.05</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8623,7 +8623,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6950233</v>
+        <v>6950232</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8632,13 +8632,13 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8647,43 +8647,43 @@
         <v>51</v>
       </c>
       <c r="J95">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K95">
+        <v>3.2</v>
+      </c>
+      <c r="L95">
         <v>3.6</v>
       </c>
-      <c r="L95">
-        <v>5</v>
-      </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
         <v>2.25</v>
       </c>
       <c r="T95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8692,16 +8692,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8709,7 +8709,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6950234</v>
+        <v>6950233</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8718,76 +8718,76 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L96">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
         <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
+        <v>0.4625</v>
+      </c>
+      <c r="Z96">
         <v>-0.5</v>
       </c>
-      <c r="Z96">
-        <v>0.45</v>
-      </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8804,7 +8804,7 @@
         <v>45220.22916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -9065,7 +9065,7 @@
         <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9406,7 +9406,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
         <v>34</v>
@@ -9492,7 +9492,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
         <v>29</v>
@@ -9581,7 +9581,7 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9664,7 +9664,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
         <v>46</v>
@@ -9839,7 +9839,7 @@
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9922,7 +9922,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
         <v>47</v>
@@ -10011,7 +10011,7 @@
         <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10183,7 +10183,7 @@
         <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10266,7 +10266,7 @@
         <v>45234.25</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -10441,7 +10441,7 @@
         <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10696,7 +10696,7 @@
         <v>45235.3125</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F119" t="s">
         <v>38</v>
@@ -10782,10 +10782,10 @@
         <v>45236.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>45240.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
         <v>44</v>
@@ -11043,7 +11043,7 @@
         <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11117,7 +11117,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950259</v>
+        <v>6950263</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11126,73 +11126,73 @@
         <v>45241.25</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J124">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="K124">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="M124">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="P124">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11203,7 +11203,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6950263</v>
+        <v>6950331</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11212,73 +11212,73 @@
         <v>45241.25</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J125">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K125">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L125">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O125">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q125">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11289,7 +11289,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6950331</v>
+        <v>6950259</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11298,58 +11298,58 @@
         <v>45241.25</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="s">
         <v>51</v>
       </c>
       <c r="J126">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="K126">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M126">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="N126">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P126">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11358,13 +11358,13 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -11470,7 +11470,7 @@
         <v>45241.25</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
         <v>37</v>
@@ -11556,7 +11556,7 @@
         <v>45241.25</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
         <v>29</v>
@@ -11645,7 +11645,7 @@
         <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11814,10 +11814,10 @@
         <v>45254.39583333334</v>
       </c>
       <c r="E132" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" t="s">
         <v>40</v>
-      </c>
-      <c r="F132" t="s">
-        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11977,7 +11977,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950332</v>
+        <v>6950264</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11986,76 +11986,76 @@
         <v>45255.25</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J134">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="K134">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="L134">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O134">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q134">
+        <v>2.025</v>
+      </c>
+      <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1.875</v>
+      </c>
+      <c r="U134">
         <v>1.925</v>
       </c>
-      <c r="R134">
-        <v>1.875</v>
-      </c>
-      <c r="S134">
-        <v>2.75</v>
-      </c>
-      <c r="T134">
-        <v>1.9</v>
-      </c>
-      <c r="U134">
-        <v>1.9</v>
-      </c>
       <c r="V134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12063,7 +12063,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950264</v>
+        <v>6950266</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12072,58 +12072,58 @@
         <v>45255.25</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
         <v>1</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
       </c>
       <c r="I135" t="s">
         <v>51</v>
       </c>
       <c r="J135">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="K135">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P135">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q135">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12132,16 +12132,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12149,7 +12149,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6950266</v>
+        <v>6950332</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12158,73 +12158,73 @@
         <v>45255.25</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J136">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="K136">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="M136">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="N136">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="P136">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12244,7 +12244,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
         <v>36</v>
@@ -12333,7 +12333,7 @@
         <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12505,7 +12505,7 @@
         <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12846,10 +12846,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12923,7 +12923,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6950275</v>
+        <v>6950274</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12932,10 +12932,10 @@
         <v>45262.25</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12947,40 +12947,40 @@
         <v>49</v>
       </c>
       <c r="J145">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="K145">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L145">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M145">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
         <v>-1</v>
@@ -12989,19 +12989,19 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13009,7 +13009,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6950274</v>
+        <v>6950334</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13018,76 +13018,76 @@
         <v>45262.25</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J146">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="K146">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L146">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N146">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O146">
-        <v>1.909</v>
+        <v>9.5</v>
       </c>
       <c r="P146">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q146">
+        <v>1.975</v>
+      </c>
+      <c r="R146">
         <v>1.825</v>
       </c>
-      <c r="R146">
+      <c r="S146">
+        <v>2.5</v>
+      </c>
+      <c r="T146">
         <v>1.975</v>
       </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>1.85</v>
-      </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13095,7 +13095,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6950334</v>
+        <v>6950275</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13104,76 +13104,76 @@
         <v>45262.25</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>1</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J147">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="K147">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="L147">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M147">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O147">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="P147">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13190,10 +13190,10 @@
         <v>45262.25</v>
       </c>
       <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
         <v>30</v>
-      </c>
-      <c r="F148" t="s">
-        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13276,7 +13276,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
         <v>44</v>
@@ -13611,7 +13611,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6950285</v>
+        <v>6950284</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13620,58 +13620,58 @@
         <v>45346.25</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>51</v>
       </c>
       <c r="J153">
+        <v>1.666</v>
+      </c>
+      <c r="K153">
         <v>3.4</v>
       </c>
-      <c r="K153">
-        <v>3.25</v>
-      </c>
       <c r="L153">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N153">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="P153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q153">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>2.4</v>
+        <v>0.571</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13680,13 +13680,13 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -13697,7 +13697,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6950284</v>
+        <v>6950281</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13706,40 +13706,40 @@
         <v>45346.25</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J154">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="K154">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="M154">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O154">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="P154">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q154">
         <v>2</v>
@@ -13751,31 +13751,31 @@
         <v>2.25</v>
       </c>
       <c r="T154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13783,7 +13783,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6950281</v>
+        <v>6950288</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -13792,55 +13792,55 @@
         <v>45346.25</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="s">
         <v>49</v>
       </c>
       <c r="J155">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K155">
+        <v>3.4</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>2.1</v>
+      </c>
+      <c r="N155">
         <v>3.2</v>
       </c>
-      <c r="L155">
-        <v>1.909</v>
-      </c>
-      <c r="M155">
-        <v>4.2</v>
-      </c>
-      <c r="N155">
-        <v>3.25</v>
-      </c>
       <c r="O155">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="P155">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
         <v>2.25</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
         <v>-1</v>
@@ -13849,19 +13849,19 @@
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>0.7270000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13869,7 +13869,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6950288</v>
+        <v>6950285</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13878,40 +13878,40 @@
         <v>45346.25</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J156">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="K156">
+        <v>3.25</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
         <v>3.4</v>
       </c>
-      <c r="L156">
-        <v>3</v>
-      </c>
-      <c r="M156">
-        <v>2.1</v>
-      </c>
       <c r="N156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="P156">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q156">
         <v>1.775</v>
@@ -13920,34 +13920,34 @@
         <v>2.025</v>
       </c>
       <c r="S156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z156">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13967,7 +13967,7 @@
         <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>46</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14222,7 +14222,7 @@
         <v>45348.5</v>
       </c>
       <c r="E160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
         <v>47</v>
@@ -14308,7 +14308,7 @@
         <v>45352.5</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
         <v>34</v>
@@ -14483,7 +14483,7 @@
         <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14566,7 +14566,7 @@
         <v>45353.25</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
         <v>36</v>
@@ -14652,7 +14652,7 @@
         <v>45353.25</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
         <v>37</v>
@@ -14741,7 +14741,7 @@
         <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14824,10 +14824,10 @@
         <v>45353.27083333334</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15085,7 +15085,7 @@
         <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15171,7 +15171,7 @@
         <v>28</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15340,7 +15340,7 @@
         <v>45360.25</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
         <v>38</v>
@@ -15417,7 +15417,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6950307</v>
+        <v>6950306</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15426,58 +15426,58 @@
         <v>45360.25</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>51</v>
       </c>
       <c r="J174">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="M174">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P174">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q174">
+        <v>1.9</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>2.5</v>
+      </c>
+      <c r="T174">
+        <v>1.975</v>
+      </c>
+      <c r="U174">
         <v>1.825</v>
       </c>
-      <c r="R174">
-        <v>1.975</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>1.775</v>
-      </c>
-      <c r="U174">
-        <v>2.025</v>
-      </c>
       <c r="V174">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15486,13 +15486,13 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -15503,7 +15503,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6950306</v>
+        <v>6950307</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15512,58 +15512,58 @@
         <v>45360.25</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="s">
         <v>51</v>
       </c>
       <c r="J175">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
+        <v>3.1</v>
+      </c>
+      <c r="O175">
         <v>4.333</v>
       </c>
-      <c r="O175">
-        <v>6.5</v>
-      </c>
       <c r="P175">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V175">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15572,13 +15572,13 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -15684,7 +15684,7 @@
         <v>45361.29166666666</v>
       </c>
       <c r="E177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
         <v>44</v>
@@ -15942,10 +15942,10 @@
         <v>45367.375</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>45367.375</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
         <v>34</v>
@@ -16203,7 +16203,7 @@
         <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16375,7 +16375,7 @@
         <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>45367.375</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F186" t="s">
         <v>37</v>
@@ -16544,7 +16544,7 @@
         <v>45367.375</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
         <v>29</v>
@@ -16633,7 +16633,7 @@
         <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16719,7 +16719,7 @@
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189">
         <v>3</v>
@@ -16802,7 +16802,7 @@
         <v>45381.25</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F190" t="s">
         <v>36</v>
@@ -16977,7 +16977,7 @@
         <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7983405</v>
+        <v>7984182</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17060,76 +17060,76 @@
         <v>45381.25</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K193">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M193">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="N193">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17137,7 +17137,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7984182</v>
+        <v>7983405</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17146,76 +17146,76 @@
         <v>45381.25</v>
       </c>
       <c r="E194" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J194">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K194">
+        <v>3.1</v>
+      </c>
+      <c r="L194">
         <v>3.4</v>
       </c>
-      <c r="L194">
-        <v>4.2</v>
-      </c>
       <c r="M194">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N194">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O194">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17232,7 +17232,7 @@
         <v>45383.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
         <v>38</v>
@@ -17321,7 +17321,7 @@
         <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17407,7 +17407,7 @@
         <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17490,7 +17490,7 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F198" t="s">
         <v>45</v>
@@ -17567,7 +17567,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7984184</v>
+        <v>7984183</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17576,58 +17576,58 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F199" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G199">
+        <v>4</v>
+      </c>
+      <c r="H199">
         <v>1</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>51</v>
       </c>
       <c r="J199">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="K199">
         <v>3.1</v>
       </c>
       <c r="L199">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M199">
+        <v>2.25</v>
+      </c>
+      <c r="N199">
         <v>3</v>
       </c>
-      <c r="N199">
-        <v>3.1</v>
-      </c>
       <c r="O199">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -17636,16 +17636,16 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17653,7 +17653,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7984183</v>
+        <v>7984184</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17662,58 +17662,58 @@
         <v>45388.20833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="s">
         <v>51</v>
       </c>
       <c r="J200">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K200">
         <v>3.1</v>
       </c>
       <c r="L200">
+        <v>2.4</v>
+      </c>
+      <c r="M200">
         <v>3</v>
       </c>
-      <c r="M200">
+      <c r="N200">
+        <v>3.1</v>
+      </c>
+      <c r="O200">
+        <v>2.2</v>
+      </c>
+      <c r="P200">
+        <v>0.25</v>
+      </c>
+      <c r="Q200">
+        <v>1.85</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
         <v>2.25</v>
       </c>
-      <c r="N200">
-        <v>3</v>
-      </c>
-      <c r="O200">
-        <v>3</v>
-      </c>
-      <c r="P200">
-        <v>-0.25</v>
-      </c>
-      <c r="Q200">
-        <v>2</v>
-      </c>
-      <c r="R200">
-        <v>1.8</v>
-      </c>
-      <c r="S200">
-        <v>2</v>
-      </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -17722,16 +17722,16 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17920,10 +17920,10 @@
         <v>45389.25</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -18006,7 +18006,7 @@
         <v>45392.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
         <v>35</v>
@@ -18095,7 +18095,7 @@
         <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18178,7 +18178,7 @@
         <v>45393.54166666666</v>
       </c>
       <c r="E206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
         <v>38</v>
@@ -18267,7 +18267,7 @@
         <v>28</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18350,10 +18350,10 @@
         <v>45395.20833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18694,7 +18694,7 @@
         <v>45395.25</v>
       </c>
       <c r="E212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F212" t="s">
         <v>34</v>
@@ -18866,7 +18866,7 @@
         <v>45402.20833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
         <v>37</v>
@@ -19210,10 +19210,10 @@
         <v>45402.20833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19471,7 +19471,7 @@
         <v>38</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19554,10 +19554,10 @@
         <v>45403.3125</v>
       </c>
       <c r="E222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19643,7 +19643,7 @@
         <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19729,7 +19729,7 @@
         <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19812,7 +19812,7 @@
         <v>45407.54166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
         <v>48</v>
@@ -19898,7 +19898,7 @@
         <v>45410.20833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F226" t="s">
         <v>35</v>
@@ -20073,7 +20073,7 @@
         <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20156,7 +20156,7 @@
         <v>45416.25</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F229" t="s">
         <v>48</v>
@@ -20331,7 +20331,7 @@
         <v>48</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231">
         <v>3</v>

--- a/Romania Liga 2/Romania Liga 2.xlsx
+++ b/Romania Liga 2/Romania Liga 2.xlsx
@@ -103,7 +103,7 @@
     <t>Unirea Dej</t>
   </si>
   <si>
-    <t>CS Tunari</t>
+    <t>Scolar Resita</t>
   </si>
   <si>
     <t>Metaloglobus Bucuresti</t>
@@ -112,10 +112,10 @@
     <t>FK Csikszereda Miercurea Ciuc</t>
   </si>
   <si>
-    <t>Scolar Resita</t>
+    <t>ACS Viitorul Pandurii Targu Jiu</t>
   </si>
   <si>
-    <t>ACS Viitorul Pandurii Targu Jiu</t>
+    <t>CS Tunari</t>
   </si>
   <si>
     <t>CS Hunedoara</t>
@@ -127,19 +127,19 @@
     <t>Chindia Targoviste</t>
   </si>
   <si>
-    <t>FC Buzau</t>
-  </si>
-  <si>
     <t>FC Unirea 2004 Slobozia</t>
   </si>
   <si>
     <t>CSC Dumbravita</t>
   </si>
   <si>
-    <t>CS Concordia Chiajna</t>
+    <t>FC Buzau</t>
   </si>
   <si>
     <t>CSC 1599 Selimbar</t>
+  </si>
+  <si>
+    <t>CS Concordia Chiajna</t>
   </si>
   <si>
     <t>CSA Steaua Bucuresti</t>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6950151</v>
+        <v>6950155</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -723,53 +723,53 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
       </c>
       <c r="J3">
+        <v>2.6</v>
+      </c>
+      <c r="K3">
+        <v>3.2</v>
+      </c>
+      <c r="L3">
+        <v>2.4</v>
+      </c>
+      <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.2</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.975</v>
+      </c>
+      <c r="R3">
+        <v>1.825</v>
+      </c>
+      <c r="S3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>2.6</v>
-      </c>
-      <c r="M3">
-        <v>2.5</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>2.6</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1.85</v>
-      </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>2.25</v>
-      </c>
       <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>1.8</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
       <c r="V3">
         <v>-1</v>
       </c>
@@ -777,19 +777,19 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>0.8</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -809,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6950155</v>
+        <v>6950156</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -981,37 +981,37 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6">
+        <v>4.8</v>
+      </c>
+      <c r="K6">
+        <v>3.75</v>
+      </c>
+      <c r="L6">
+        <v>1.571</v>
+      </c>
+      <c r="M6">
+        <v>5.75</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1.45</v>
+      </c>
+      <c r="P6">
         <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>2.6</v>
-      </c>
-      <c r="K6">
-        <v>3.2</v>
-      </c>
-      <c r="L6">
-        <v>2.4</v>
-      </c>
-      <c r="M6">
-        <v>2.6</v>
-      </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
-      <c r="O6">
-        <v>2.4</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
       </c>
       <c r="Q6">
         <v>1.975</v>
@@ -1023,31 +1023,31 @@
         <v>2.5</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6950156</v>
+        <v>6950151</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1067,46 +1067,46 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T7">
         <v>1.8</v>
@@ -1118,22 +1118,22 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1239,7 +1239,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6950158</v>
+        <v>6950163</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1408,58 +1408,58 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>1.181</v>
+      </c>
+      <c r="N11">
         <v>5.75</v>
       </c>
-      <c r="M11">
-        <v>1.444</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
       <c r="O11">
-        <v>5.75</v>
+        <v>13</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>0.444</v>
+        <v>0.181</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1468,16 +1468,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1494,10 +1494,10 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6950163</v>
+        <v>6950158</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1666,58 +1666,58 @@
         <v>45150.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M14">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
         <v>5.75</v>
       </c>
-      <c r="O14">
-        <v>13</v>
-      </c>
       <c r="P14">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q14">
+        <v>1.775</v>
+      </c>
+      <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>2.5</v>
+      </c>
+      <c r="T14">
         <v>1.95</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1.8</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
       <c r="V14">
-        <v>0.181</v>
+        <v>0.444</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1726,16 +1726,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>0.95</v>
       </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1743,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6949941</v>
+        <v>6949942</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1755,73 +1755,73 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K15">
+        <v>3.1</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>2.05</v>
+      </c>
+      <c r="N15">
+        <v>3.1</v>
+      </c>
+      <c r="O15">
         <v>3.4</v>
       </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>1.363</v>
-      </c>
-      <c r="N15">
-        <v>4.2</v>
-      </c>
-      <c r="O15">
-        <v>7.5</v>
-      </c>
       <c r="P15">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
+        <v>1.8</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>1.775</v>
+      </c>
+      <c r="U15">
         <v>2.025</v>
       </c>
-      <c r="R15">
-        <v>1.775</v>
-      </c>
-      <c r="S15">
-        <v>2.5</v>
-      </c>
-      <c r="T15">
-        <v>1.925</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
       <c r="V15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1829,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6949942</v>
+        <v>6949941</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1841,73 +1841,73 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="K16">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="N16">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2099,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2259,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6950164</v>
+        <v>6950166</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2268,73 +2268,73 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O21">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="P21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
         <v>2.5</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2345,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6950173</v>
+        <v>6950164</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2354,7 +2354,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>41</v>
@@ -2363,46 +2363,46 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
       </c>
       <c r="J22">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
         <v>-1</v>
@@ -2411,19 +2411,19 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2431,7 +2431,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6950171</v>
+        <v>6950173</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2440,76 +2440,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23">
+        <v>2.45</v>
+      </c>
+      <c r="K23">
+        <v>3.1</v>
+      </c>
+      <c r="L23">
+        <v>2.625</v>
+      </c>
+      <c r="M23">
+        <v>2.75</v>
+      </c>
+      <c r="N23">
+        <v>2.9</v>
+      </c>
+      <c r="O23">
+        <v>2.55</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.975</v>
+      </c>
+      <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
         <v>2.25</v>
       </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>2.05</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
-      <c r="P23">
-        <v>-0.25</v>
-      </c>
-      <c r="Q23">
-        <v>1.85</v>
-      </c>
-      <c r="R23">
-        <v>1.95</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6950167</v>
+        <v>6950171</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2526,76 +2526,76 @@
         <v>45157.20833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z24">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2603,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6950166</v>
+        <v>6950167</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2615,73 +2615,73 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2.625</v>
+      </c>
+      <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>2.7</v>
-      </c>
-      <c r="M25">
+      <c r="O25">
+        <v>2.45</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2.05</v>
+      </c>
+      <c r="R25">
+        <v>1.75</v>
+      </c>
+      <c r="S25">
         <v>2.25</v>
       </c>
-      <c r="N25">
-        <v>3.25</v>
-      </c>
-      <c r="O25">
-        <v>2.75</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1.75</v>
-      </c>
-      <c r="R25">
-        <v>2.05</v>
-      </c>
-      <c r="S25">
-        <v>2.5</v>
-      </c>
       <c r="T25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
         <v>0.75</v>
       </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2787,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2870,7 +2870,7 @@
         <v>45158.20833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -3045,7 +3045,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6950181</v>
+        <v>6950321</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3128,76 +3128,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3205,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6950174</v>
+        <v>6950181</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3214,76 +3214,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
         <v>-0.75</v>
       </c>
       <c r="Q32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
+        <v>1.95</v>
+      </c>
+      <c r="U32">
         <v>1.85</v>
       </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X32">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3377,7 +3377,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6950321</v>
+        <v>6950178</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3386,76 +3386,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K34">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L34">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M34">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N34">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q34">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R34">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z34">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3463,7 +3463,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6950178</v>
+        <v>6950179</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3472,76 +3472,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="M35">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T35">
+        <v>1.875</v>
+      </c>
+      <c r="U35">
         <v>1.925</v>
       </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
       <c r="V35">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.925</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3549,7 +3549,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6950179</v>
+        <v>6950180</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3558,76 +3558,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L36">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M36">
         <v>2.15</v>
       </c>
       <c r="N36">
+        <v>3.2</v>
+      </c>
+      <c r="O36">
         <v>3</v>
-      </c>
-      <c r="O36">
-        <v>3.2</v>
       </c>
       <c r="P36">
         <v>-0.25</v>
       </c>
       <c r="Q36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3635,7 +3635,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6950180</v>
+        <v>6950177</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3647,46 +3647,46 @@
         <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J37">
+        <v>1.571</v>
+      </c>
+      <c r="K37">
+        <v>3.4</v>
+      </c>
+      <c r="L37">
+        <v>5.5</v>
+      </c>
+      <c r="M37">
+        <v>1.65</v>
+      </c>
+      <c r="N37">
+        <v>3.3</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>-0.75</v>
+      </c>
+      <c r="Q37">
+        <v>1.95</v>
+      </c>
+      <c r="R37">
+        <v>1.85</v>
+      </c>
+      <c r="S37">
         <v>2.25</v>
-      </c>
-      <c r="K37">
-        <v>3.2</v>
-      </c>
-      <c r="L37">
-        <v>2.8</v>
-      </c>
-      <c r="M37">
-        <v>2.15</v>
-      </c>
-      <c r="N37">
-        <v>3.2</v>
-      </c>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="P37">
-        <v>-0.25</v>
-      </c>
-      <c r="Q37">
-        <v>1.9</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>2.5</v>
       </c>
       <c r="T37">
         <v>1.95</v>
@@ -3695,19 +3695,19 @@
         <v>1.85</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
+        <v>0.475</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
-      </c>
-      <c r="Z37">
-        <v>0.45</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3721,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6950177</v>
+        <v>6950174</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3730,34 +3730,34 @@
         <v>45164.20833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>3.2</v>
+      </c>
+      <c r="L38">
+        <v>3.3</v>
+      </c>
+      <c r="M38">
         <v>1.571</v>
       </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-      <c r="L38">
-        <v>5.5</v>
-      </c>
-      <c r="M38">
-        <v>1.65</v>
-      </c>
       <c r="N38">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3766,40 +3766,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q38">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
         <v>2.25</v>
       </c>
       <c r="T38">
+        <v>1.85</v>
+      </c>
+      <c r="U38">
         <v>1.95</v>
       </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
       <c r="V38">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y38">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3979,7 +3979,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6950184</v>
+        <v>6950191</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3988,76 +3988,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="K41">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="M41">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="P41">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4065,7 +4065,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6950183</v>
+        <v>6950185</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4074,76 +4074,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>51</v>
       </c>
       <c r="J42">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="M42">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O42">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
         <v>2.25</v>
       </c>
       <c r="T42">
+        <v>1.875</v>
+      </c>
+      <c r="U42">
         <v>1.925</v>
       </c>
-      <c r="U42">
-        <v>1.875</v>
-      </c>
       <c r="V42">
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4151,7 +4151,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6950185</v>
+        <v>6950184</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4160,76 +4160,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
       </c>
       <c r="J43">
+        <v>1.333</v>
+      </c>
+      <c r="K43">
+        <v>4.5</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>1.333</v>
+      </c>
+      <c r="N43">
+        <v>4.75</v>
+      </c>
+      <c r="O43">
+        <v>6.5</v>
+      </c>
+      <c r="P43">
+        <v>-1.5</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
         <v>2.75</v>
       </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
-        <v>2.375</v>
-      </c>
-      <c r="M43">
-        <v>3.4</v>
-      </c>
-      <c r="N43">
-        <v>3.1</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>0.25</v>
-      </c>
-      <c r="Q43">
-        <v>2.025</v>
-      </c>
-      <c r="R43">
-        <v>1.775</v>
-      </c>
-      <c r="S43">
-        <v>2.25</v>
-      </c>
       <c r="T43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V43">
         <v>-1</v>
       </c>
       <c r="W43">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4237,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6950191</v>
+        <v>6950183</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4246,76 +4246,76 @@
         <v>45171.20833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44">
+        <v>2.6</v>
+      </c>
+      <c r="K44">
+        <v>3.2</v>
+      </c>
+      <c r="L44">
         <v>2.4</v>
       </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-      <c r="L44">
-        <v>2.75</v>
-      </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O44">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
         <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4335,7 +4335,7 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4409,7 +4409,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6950189</v>
+        <v>6950188</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4418,76 +4418,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K46">
+        <v>3.1</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
         <v>3</v>
       </c>
-      <c r="L46">
-        <v>2.5</v>
-      </c>
-      <c r="M46">
-        <v>2.8</v>
-      </c>
-      <c r="N46">
-        <v>3.1</v>
-      </c>
       <c r="O46">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q46">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U46">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
         <v>-1</v>
       </c>
       <c r="W46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4495,7 +4495,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6950188</v>
+        <v>6950187</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4504,10 +4504,10 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4519,40 +4519,40 @@
         <v>50</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L47">
+        <v>2.375</v>
+      </c>
+      <c r="M47">
+        <v>2.875</v>
+      </c>
+      <c r="N47">
         <v>3.4</v>
       </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="P47">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q47">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4561,19 +4561,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>1.15</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4593,7 +4593,7 @@
         <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6950187</v>
+        <v>6950189</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4676,76 +4676,76 @@
         <v>45172.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>2.625</v>
       </c>
       <c r="K49">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="M49">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P49">
         <v>0.25</v>
       </c>
       <c r="Q49">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T49">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V49">
         <v>-1</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X49">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4762,7 +4762,7 @@
         <v>45174.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -4851,7 +4851,7 @@
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -5023,7 +5023,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5106,7 +5106,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -5281,7 +5281,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5450,10 +5450,10 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5536,7 +5536,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
         <v>46</v>
@@ -5794,10 +5794,10 @@
         <v>45191.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6950204</v>
+        <v>6950323</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6052,58 +6052,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>49</v>
       </c>
       <c r="J65">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K65">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N65">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q65">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2.8</v>
+        <v>0.571</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6112,13 +6112,13 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6129,7 +6129,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6950203</v>
+        <v>6950204</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6141,55 +6141,55 @@
         <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>49</v>
       </c>
       <c r="J66">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K66">
         <v>3.2</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M66">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N66">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O66">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="P66">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
         <v>2.25</v>
       </c>
       <c r="T66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6198,13 +6198,13 @@
         <v>-1</v>
       </c>
       <c r="Y66">
+        <v>0.875</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
-      <c r="AA66">
-        <v>0.925</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6215,7 +6215,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6950207</v>
+        <v>6950203</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6224,58 +6224,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
         <v>49</v>
       </c>
       <c r="J67">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="K67">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
         <v>2.25</v>
       </c>
       <c r="T67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6284,13 +6284,13 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6301,7 +6301,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6950323</v>
+        <v>6950207</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6310,58 +6310,58 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>49</v>
       </c>
       <c r="J68">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K68">
+        <v>2.875</v>
+      </c>
+      <c r="L68">
+        <v>2.5</v>
+      </c>
+      <c r="M68">
+        <v>2.1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
         <v>3.4</v>
       </c>
-      <c r="L68">
-        <v>3.75</v>
-      </c>
-      <c r="M68">
-        <v>1.571</v>
-      </c>
-      <c r="N68">
-        <v>3.75</v>
-      </c>
-      <c r="O68">
-        <v>4.75</v>
-      </c>
       <c r="P68">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6370,13 +6370,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6396,7 +6396,7 @@
         <v>45192.20833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
         <v>31</v>
@@ -6485,7 +6485,7 @@
         <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -6826,7 +6826,7 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
         <v>43</v>
@@ -6903,7 +6903,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6950217</v>
+        <v>6950218</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6912,76 +6912,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J75">
+        <v>2.75</v>
+      </c>
+      <c r="K75">
+        <v>3.2</v>
+      </c>
+      <c r="L75">
+        <v>2.3</v>
+      </c>
+      <c r="M75">
+        <v>3.1</v>
+      </c>
+      <c r="N75">
+        <v>3.25</v>
+      </c>
+      <c r="O75">
+        <v>2.05</v>
+      </c>
+      <c r="P75">
+        <v>0.25</v>
+      </c>
+      <c r="Q75">
+        <v>1.975</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
         <v>2.5</v>
       </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75">
-        <v>2.6</v>
-      </c>
-      <c r="M75">
-        <v>2.5</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>2.6</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>1.875</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
-        <v>2.25</v>
-      </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6989,7 +6989,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6950218</v>
+        <v>6950220</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6998,76 +6998,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J76">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K76">
+        <v>3.1</v>
+      </c>
+      <c r="L76">
         <v>3.2</v>
       </c>
-      <c r="L76">
-        <v>2.3</v>
-      </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="N76">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O76">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
         <v>2.5</v>
       </c>
       <c r="T76">
+        <v>1.975</v>
+      </c>
+      <c r="U76">
         <v>1.825</v>
       </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>0.95</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
         <v>0.825</v>
-      </c>
-      <c r="AA76">
-        <v>0.825</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7075,7 +7075,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6950220</v>
+        <v>6950217</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7084,76 +7084,76 @@
         <v>45199.20833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M77">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="P77">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q77">
+        <v>1.875</v>
+      </c>
+      <c r="R77">
+        <v>1.925</v>
+      </c>
+      <c r="S77">
+        <v>2.25</v>
+      </c>
+      <c r="T77">
+        <v>1.95</v>
+      </c>
+      <c r="U77">
         <v>1.85</v>
       </c>
-      <c r="R77">
-        <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>2.5</v>
-      </c>
-      <c r="T77">
-        <v>1.975</v>
-      </c>
-      <c r="U77">
-        <v>1.825</v>
-      </c>
       <c r="V77">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7173,7 +7173,7 @@
         <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>45200.20833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
         <v>46</v>
@@ -7342,7 +7342,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
         <v>42</v>
@@ -7686,10 +7686,10 @@
         <v>45206.20833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7775,7 +7775,7 @@
         <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8119,7 +8119,7 @@
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8202,10 +8202,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>34</v>
@@ -8377,7 +8377,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6950232</v>
+        <v>6950236</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8460,19 +8460,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>1.909</v>
@@ -8484,16 +8484,16 @@
         <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q93">
         <v>1.825</v>
@@ -8502,34 +8502,34 @@
         <v>1.975</v>
       </c>
       <c r="S93">
+        <v>2.5</v>
+      </c>
+      <c r="T93">
+        <v>1.85</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
+        <v>-1</v>
+      </c>
+      <c r="W93">
         <v>2.25</v>
       </c>
-      <c r="T93">
-        <v>1.775</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.05</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8537,7 +8537,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6950236</v>
+        <v>6950232</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8546,19 +8546,19 @@
         <v>45220.20833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8570,16 +8570,16 @@
         <v>3.6</v>
       </c>
       <c r="M94">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N94">
+        <v>3.1</v>
+      </c>
+      <c r="O94">
         <v>3.25</v>
       </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
         <v>1.825</v>
@@ -8588,34 +8588,34 @@
         <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W94">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8804,7 +8804,7 @@
         <v>45220.22916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -8976,7 +8976,7 @@
         <v>45221.20833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
         <v>35</v>
@@ -9062,10 +9062,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9492,10 +9492,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9569,7 +9569,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6950240</v>
+        <v>6950239</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9578,76 +9578,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J106">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="K106">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="M106">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="N106">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="O106">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q106">
+        <v>1.85</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
-      </c>
-      <c r="R106">
-        <v>1.85</v>
       </c>
       <c r="S106">
         <v>2.5</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
+        <v>-0.5</v>
+      </c>
+      <c r="Z106">
+        <v>0.475</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
-      </c>
-      <c r="Z106">
-        <v>-1</v>
-      </c>
-      <c r="AA106">
-        <v>1</v>
-      </c>
-      <c r="AB106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9655,7 +9655,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6950239</v>
+        <v>6950240</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9664,76 +9664,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
         <v>29</v>
       </c>
-      <c r="F107" t="s">
-        <v>33</v>
-      </c>
       <c r="G107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J107">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="L107">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="M107">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q107">
+        <v>1.95</v>
+      </c>
+      <c r="R107">
         <v>1.85</v>
-      </c>
-      <c r="R107">
-        <v>1.95</v>
       </c>
       <c r="S107">
         <v>2.5</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z107">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9741,7 +9741,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6950238</v>
+        <v>6950243</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9750,76 +9750,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K108">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="L108">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="M108">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q108">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y108">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9827,7 +9827,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6950243</v>
+        <v>6950238</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9836,76 +9836,76 @@
         <v>45227.20833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J109">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="K109">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L109">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M109">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O109">
+        <v>2.3</v>
+      </c>
+      <c r="P109">
+        <v>0.25</v>
+      </c>
+      <c r="Q109">
+        <v>1.775</v>
+      </c>
+      <c r="R109">
+        <v>2.025</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>1.95</v>
+      </c>
+      <c r="U109">
         <v>1.85</v>
       </c>
-      <c r="P109">
-        <v>0.5</v>
-      </c>
-      <c r="Q109">
-        <v>1.85</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
-      <c r="S109">
-        <v>2.25</v>
-      </c>
-      <c r="T109">
-        <v>1.925</v>
-      </c>
-      <c r="U109">
+      <c r="V109">
+        <v>-1</v>
+      </c>
+      <c r="W109">
         <v>1.875</v>
       </c>
-      <c r="V109">
-        <v>-1</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
       <c r="X109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9922,7 +9922,7 @@
         <v>45228.27083333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
         <v>47</v>
@@ -10011,7 +10011,7 @@
         <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10171,7 +10171,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6950253</v>
+        <v>6950330</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10180,10 +10180,10 @@
         <v>45234.25</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10195,34 +10195,34 @@
         <v>51</v>
       </c>
       <c r="J113">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O113">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P113">
         <v>0.5</v>
       </c>
       <c r="Q113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T113">
         <v>1.875</v>
@@ -10234,13 +10234,13 @@
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z113">
         <v>-1</v>
@@ -10257,7 +10257,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6950330</v>
+        <v>6950253</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10266,10 +10266,10 @@
         <v>45234.25</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10281,34 +10281,34 @@
         <v>51</v>
       </c>
       <c r="J114">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K114">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L114">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P114">
         <v>0.5</v>
       </c>
       <c r="Q114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T114">
         <v>1.875</v>
@@ -10320,13 +10320,13 @@
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
         <v>-1</v>
@@ -10441,7 +10441,7 @@
         <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10524,7 +10524,7 @@
         <v>45234.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
         <v>47</v>
@@ -10699,7 +10699,7 @@
         <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10782,10 +10782,10 @@
         <v>45236.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>45240.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
         <v>44</v>
@@ -11043,7 +11043,7 @@
         <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11117,7 +11117,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6950258</v>
+        <v>6950263</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11126,55 +11126,55 @@
         <v>45241.25</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
         <v>50</v>
       </c>
       <c r="J124">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="K124">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="P124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
         <v>-1</v>
@@ -11183,19 +11183,19 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11203,7 +11203,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6950257</v>
+        <v>6950259</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11212,10 +11212,10 @@
         <v>45241.25</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11227,43 +11227,43 @@
         <v>49</v>
       </c>
       <c r="J125">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="K125">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L125">
+        <v>8</v>
+      </c>
+      <c r="M125">
+        <v>1.25</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>11</v>
+      </c>
+      <c r="P125">
+        <v>-1.5</v>
+      </c>
+      <c r="Q125">
+        <v>1.825</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
         <v>2.5</v>
       </c>
-      <c r="M125">
-        <v>1.85</v>
-      </c>
-      <c r="N125">
-        <v>3.1</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125">
-        <v>-0.5</v>
-      </c>
-      <c r="Q125">
-        <v>1.925</v>
-      </c>
-      <c r="R125">
-        <v>1.875</v>
-      </c>
-      <c r="S125">
-        <v>2.25</v>
-      </c>
       <c r="T125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>0.8500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11272,13 +11272,13 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11289,7 +11289,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6950255</v>
+        <v>6950258</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11298,76 +11298,76 @@
         <v>45241.25</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J126">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="K126">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L126">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M126">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O126">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="P126">
         <v>0.75</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
         <v>2.5</v>
       </c>
       <c r="T126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
         <v>-1</v>
       </c>
       <c r="W126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11375,7 +11375,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6950259</v>
+        <v>6950257</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11384,10 +11384,10 @@
         <v>45241.25</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11399,43 +11399,43 @@
         <v>49</v>
       </c>
       <c r="J127">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L127">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M127">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O127">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>0.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11444,13 +11444,13 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11461,7 +11461,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6950263</v>
+        <v>6950255</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11470,76 +11470,76 @@
         <v>45241.25</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J128">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L128">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M128">
+        <v>4.75</v>
+      </c>
+      <c r="N128">
+        <v>3.4</v>
+      </c>
+      <c r="O128">
+        <v>1.615</v>
+      </c>
+      <c r="P128">
+        <v>0.75</v>
+      </c>
+      <c r="Q128">
+        <v>1.9</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>2.5</v>
+      </c>
+      <c r="T128">
+        <v>2.05</v>
+      </c>
+      <c r="U128">
+        <v>1.75</v>
+      </c>
+      <c r="V128">
+        <v>-1</v>
+      </c>
+      <c r="W128">
         <v>2.4</v>
       </c>
-      <c r="N128">
-        <v>3.25</v>
-      </c>
-      <c r="O128">
-        <v>2.6</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>1.75</v>
-      </c>
-      <c r="R128">
-        <v>2.05</v>
-      </c>
-      <c r="S128">
-        <v>2.25</v>
-      </c>
-      <c r="T128">
-        <v>1.95</v>
-      </c>
-      <c r="U128">
-        <v>1.85</v>
-      </c>
-      <c r="V128">
-        <v>-1</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
       <c r="X128">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11559,7 +11559,7 @@
         <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -11814,10 +11814,10 @@
         <v>45254.39583333334</v>
       </c>
       <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
         <v>39</v>
-      </c>
-      <c r="F132" t="s">
-        <v>37</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6950268</v>
+        <v>6950332</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11900,55 +11900,55 @@
         <v>45255.25</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I133" t="s">
         <v>50</v>
       </c>
       <c r="J133">
-        <v>1.727</v>
+        <v>8.5</v>
       </c>
       <c r="K133">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="M133">
-        <v>1.95</v>
+        <v>9.5</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="P133">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
         <v>-1</v>
@@ -11957,19 +11957,19 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11977,7 +11977,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6950264</v>
+        <v>6950268</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11986,34 +11986,34 @@
         <v>45255.25</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J134">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K134">
+        <v>3.25</v>
+      </c>
+      <c r="L134">
+        <v>4.333</v>
+      </c>
+      <c r="M134">
+        <v>1.95</v>
+      </c>
+      <c r="N134">
         <v>3.1</v>
-      </c>
-      <c r="L134">
-        <v>4</v>
-      </c>
-      <c r="M134">
-        <v>2</v>
-      </c>
-      <c r="N134">
-        <v>3</v>
       </c>
       <c r="O134">
         <v>3.5</v>
@@ -12022,40 +12022,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12063,7 +12063,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6950266</v>
+        <v>6950264</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12072,58 +12072,58 @@
         <v>45255.25</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
         <v>49</v>
       </c>
       <c r="J135">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="K135">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
         <v>3.5</v>
       </c>
-      <c r="O135">
-        <v>4.75</v>
-      </c>
       <c r="P135">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q135">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12132,16 +12132,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12149,7 +12149,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6950332</v>
+        <v>6950266</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12158,73 +12158,73 @@
         <v>45255.25</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
         <v>1</v>
       </c>
-      <c r="H136">
-        <v>6</v>
-      </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="K136">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L136">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N136">
+        <v>3.5</v>
+      </c>
+      <c r="O136">
         <v>4.75</v>
       </c>
-      <c r="O136">
-        <v>1.25</v>
-      </c>
       <c r="P136">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12244,7 +12244,7 @@
         <v>45255.27083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
         <v>36</v>
@@ -12330,7 +12330,7 @@
         <v>45256.25</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
         <v>28</v>
@@ -12419,7 +12419,7 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12502,10 +12502,10 @@
         <v>45258.5</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12588,10 +12588,10 @@
         <v>45260.375</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12763,7 +12763,7 @@
         <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12846,7 +12846,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
         <v>31</v>
@@ -12935,7 +12935,7 @@
         <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13276,7 +13276,7 @@
         <v>45262.27083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
         <v>44</v>
@@ -13365,7 +13365,7 @@
         <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13448,7 +13448,7 @@
         <v>45344.60416666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
         <v>44</v>
@@ -13534,10 +13534,10 @@
         <v>45346.25</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13706,7 +13706,7 @@
         <v>45346.25</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
         <v>42</v>
@@ -13792,7 +13792,7 @@
         <v>45346.25</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F155"